--- a/Temp_DB.xlsx
+++ b/Temp_DB.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -333,228 +333,228 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">가스폭발 예방을 위한 폭연 방출구 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 방출구 뚜껑은 뚜껑의 내외부 부식, 충전물의 축적, 눈이나 얼음 등에도 불구하고잘 열릴 수 있도록 관리하여야 한다. </t>
+          <t xml:space="preserve">(나) “탱크차량 (Tank vehicle)”이라 함은 액상의 화학물질을 운반하기 위한 구조를 갖는 탱크 트럭, 탱크 트레일러 등을 통칭하는 것을 말한다. </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">공정용 안전밸브의 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(차) “축적압력(Accumulated pressure)”이라 함은 안전밸브가 작동될 때 안전밸브에 의하여 축적되는 압력으로서 그 설비내에서 순간적으로 허용될 수 있는 최대압 력을 말한다.</t>
+          <t>(다) “탱크트럭 (Tank truck)”이라 함은 본체 위에 화학물질을 저장할 수 있는 카고 탱크를 일체형으로 장착한 자체 엔진을 가지고 있는 차량을 말한다</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(6) 시스템의 누출 또는 파열로 축적된 냉매를 배출하기 위해 요구되는 강재 배기량은다음 식 (5)에 따라 산출한다.</t>
+          <t xml:space="preserve">이 지침은 가스상 급성 독성물질을 탱크차량으로 하역 및 출하하는 장소에 대해 적용한다. 또한 가스상 급성 독성물질을 용기에 충전하는 장소 또는 가스상 급성 독성물질의 용기를 사용하는 장소에도 적용할 수 있다. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(4) 냉동 시스템은 기름, 폐기물, 잔해물질 축적이 되지 않도록 청결한 상태에서 사용 자에 의해 유지되어야 하고, 항상 관리되어야 한다.</t>
+          <t xml:space="preserve">(라) “탱크트레일러 (Tank trailer)”라 함은 동력이 없는 본체(차량 샤시) 위에 화학물질을 저장할 수 있는 카고 탱크를 설치한 형태로써 엔진을 가진 트렉터(견인차량)에 연결하여 운반하는 차량을 말한다. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>미압배관에서의 폭연 벤팅 설치에 관한 기술지침</t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(1) 벤트 폐쇄부는 정기적으로 점검하여야 하며，부식상태나 침전물의 축적량 증가와 같은 상황발생이 예상될 경우 점검주기 및 횟수를 조정한다.</t>
+          <t xml:space="preserve">(마) “카고탱크 (Cargo tank)”라 함은 화학물질을 420 L 이상 저장할 수 있는 탱크로써 이송차량에 영구적인 방법으로 고정되어 있는 것을 말한다. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 고형물의 축적에 의한 배관, 밸브 또는 화염방지기의 막힘 </t>
+          <t xml:space="preserve">(가) 하역 또는 출하장 및 탱크차량을 덮을 수 있는 지붕이 있는 장소일 경우에는 가스의 누출 시 누출물을 희석 및 포집할 수 있도록 수막장치 (Water curtain)를 지붕을 따라 개방된 면에 설치할 필요가 있다. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>① 고형물의 축적을 방지하기 위한 유속 이상으로 관경을 설계</t>
+          <t xml:space="preserve">(나) 지붕이 없는 경우에는 하역 또는 출하장과 탱크차량을 덮을 수 있도록수막장치(Water curtain)를 설치할 필요가 있다. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>③ 고형물 축적을 최소화하기 위한 배관을 트레이싱</t>
+          <t xml:space="preserve">(4) 비상용 회수탱크 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(1) 발열반응에서 핫스포트(Hot spot)를 야기하는 트레이싱이나 자켓팅의 결함 고형물의 축적에 의한 배관, 밸브 또는 화염방지기의 막힘.</t>
+          <t xml:space="preserve">(나) 집수조의 용량은 최소한 탱크차량의 용량 이상이어야 하며, 집수조의 입구면적은 가능한 최소로 설치하여 증발면적을 줄이도록 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(1) 배관 내나 데드엔드(Deadend)에 있는 제품을 고형화시키거나 축적된 수분을 얼게 하는 추운 기후</t>
+          <t xml:space="preserve">(가) 가스상 급성 독성물질의 하역 또는 출하 중 누출이 발생할 경우 탱크트럭 내부에 남아 있는 물질을 긴급하게 이송할 필요가 있는 경우에는 비상용 회수탱크를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">③ 데드엔드와 블로우다운 배관에 축적을 막기 위한 경사를 줌 </t>
+          <t xml:space="preserve">(나) 비상용 회수탱크의 용량은 하역하는 탱크차량의 용량 이상이어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>② 정전기 축적에 의한 열화를 줄이려면 반도전성의 라이나 사용</t>
+          <t xml:space="preserve">(다) 비상용 회수탱크는 가능한 한 실내에 설치하고, 하역작업 전에 하역하는 탱크트럭과 배관(또는 호스)을 연결한 상태로 유지하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>④ 정전기 축적을 방지하기위한 액체의 유속을 제한</t>
+          <t xml:space="preserve">(라) 배기처리설비의 용량은 탱크차량에 연결된 호스 또는 배관이 파손되었을 경우에 배출되는 양을 처리할 수 있는 능력이 되어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침</t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -564,184 +564,184 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 감지기와 고속작동 밸브는 이물질의 축적 등에 의하여 그 기능이 저하되지 않도록 설치한다. </t>
+          <t xml:space="preserve">(가) 하역 또는 출하하는 작업지점 및 탱크트럭 전체를 덮을 수 있는 지붕을설치하는 것이 좋다. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>분진폭발방지에 관한 기술지침</t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 내부 고착물에 의한 열축적 등의 우려가 있는 경우에는 온도계를 설치하여야 한다. </t>
+          <t>(나) 집수조의 용량은 최소한 탱크차량의 용량 이상이어야 하여 집수조의 입구면적은 가능한 최소로 설치하여 증발면적을 줄이도록 설치하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 고정식 지붕탱크의 출구 노즐은 옆판에 설치한다. 그 위치는 탱크 내부의 침전물 또는 물의 축적을 최소화할 수 있는 높이에 설치한다. 다만, 많은 량의 침전물과 물이존재할 수 있는 부유식 지붕탱크인 경우에는 내부 이동식 스윙 배관을 설치한다. </t>
+          <t xml:space="preserve">(라) 작업장의 바닥은 불침투성 재질로 설치하고 액체상태로 취급되는 물질이 누출되었을 경우 확산을 방지하고 포집하기 위해 1.5% 이상의 구배를 유지하고, 낮은 지점에 하역 또는 출하하고자 하는 탱크차량 1대의 용량 이상의 집수조를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">수소 벤트스택의 끝단은 &lt;그림 1&gt;과 같이 둥근 도넛형 모양이 되도록 정전기 방지링을 설치하여 수소벤트에 의한 정전기의 부분 축적을 방지한다. 정전기 방지링의지름은 &lt;표 1&gt;과 같다. </t>
+          <t xml:space="preserve">(4) 비상용 회수탱크 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">(아) “축적압력 (Accumulated pressure)”이라 함은 안전밸브 등이 작동될 때 안전 밸브에 의하여 축적되는 압력으로서 그 설비 내에서 순간적으로 허용될 수 있는 최대 압력을 말한다. </t>
+          <t xml:space="preserve">(가) 가스상 급성 독성물질의 하역 또는 출하 중 누출이 발생할 경우 탱크트럭 내부에 남아 있는 물질을 긴급하게 이송할 필요가 있는 경우에는 비상용 회수탱크를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;표 1&gt;안전밸브의 설정압력 및 축적압력 </t>
+          <t xml:space="preserve">(나) 비상용 회수탱크의 용량은 하역하는 탱크차량의 용량 이상이어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">하나의 안전밸브 설치시 여러개의 안전밸브 설치시 설정압력 축적압력 설정압력 축적압력 </t>
+          <t>(다) 배기처리설비의 용량은 가능한 한 탱크차량에 연결된 호스 또는 배관이 파손되었을 경우에 배출되는 양을 처리할 수 있는 용량이 되어야 한다.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 안전밸브를 1개 설치하는 경우에는 안전밸브의 축적압력은 설계압력 또는 최고허용압력의 110% 이하이어야 한다. </t>
+          <t xml:space="preserve">(다) 비상용 회수탱크는 가능한 한 실내에 설치하고, 하역작업 전에 하역하는 탱크트럭과 배관(또는 호스)을 연결한 상태로 유지하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 안전밸브를 2개 이상 설치하는 경우에는 안전밸브의 축적압력은 설계압력 또는 최고허용압력의 116% 이하로 하여야 한다. </t>
+          <t xml:space="preserve">(2) 하역 또는 출하할 때에는 주입배관이 액체에 잠길 때까지 주입속도를 1 m/s 이하로 유지하여야 한다. 다만, 하역 또는 출하하는 탱크 등에 질소 등의 불활성가스를 주입한 상태에서 작업을 수행하여 정전기 등에 의한 위험이 없는 경우에는 그러하지 아니하다. </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. 축적압력 </t>
+          <t xml:space="preserve">(3) 탱크차량의 상부에도 살수가 되도록 살수설비의 노즐을 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브의 축적압력은 다음과 같아야 한다(&lt;표 1&gt; 및 &lt;부록 3&gt; 참조) </t>
+          <t xml:space="preserve">(4) 탱크차량 정차 위치에서 인접한 지역에 이동식 소화기 또는 소화전이 배치되어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -751,160 +751,7368 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">여기서, W : 분출량(kg/hr) M w : 분자량 P 1 : 축적압력 + 대기압(MPa(abs)) A u : 화재시에 노출되는 용기 등의 면적(㎡) </t>
+          <t xml:space="preserve">(10) 탱크차량 등의 상부로 통행할 필요가 있는 경우에는 추락을 방지하기 위한 시설을 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">를 개방하도록 절차서에 반영하고, 이를 준수하도록 하역 및 출하작업 절차 점검표를 통해 확인하는 경우에는 화학물질이 누출되더라도 트렌치를 통해 폐수처리장 등으로 배출될 수 있으므로 트렌치의 용량계산은 필요하지 않다. 다만, 탱크로리 등의 호스 또는 배관의 크기보다 폐수처리장 등으로 연결된 배관이 작은 경우에는 누출물질이 트렌 치에 축적될 수 있으므로 축적되는 양을 고려하여 누출량을 계산하여야 한다. </t>
+          <t xml:space="preserve">(4) 탱크차량 등의 안전한 통행을 위한 통행로가 확보되어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">연료전지의 설계 및 취급 안전 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(10) 누출 시 상부방향으로 확산하는 수소는 불침투성 천장과 격벽의 상부에 축적될 수 있다. 이는 커다란 위험을 발생시킬 수 있으므로 수소누출이 발생될 수 있고, 환기설비가 설계된 영역에 사용된 전기장치의 종류와 위치를 확인하고 그 종류와위치가 적절한지 검토해야 한다.</t>
+          <t xml:space="preserve">(2) 탱크차량의 송장 또는 차량에 표시된 물질명과 하역하고자 하는 물질명이일치되는지 확인하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 바닥, 선반, 강철구조물, 기계류, 지지부 등의 표면 위에 먼지의 축적은 운전과 함께 제거되어야 한다. 대기 중으로 먼지를 부유시키지 않는 방법 또는진공 방법에 의해 제거되어야 한다. </t>
+          <t xml:space="preserve">(1) 탱크차량과 이송 배관 사이의 호스를 연결한 후에는 공기 또는 불활성가스를 사용하여 연결부분의 기밀시험을 하되, 인화성물질 또는 공기와 접촉하면 곤란한 물질인 경우에는 가능한 한 불활성가스를 사용하여 기밀시험을 하여야 한다. 다만, 작업여건에 따라 하역 또는 출하하는 물질을 사용하여 연결부분의 기밀시험을 할 경우에는 연결 부분에서 누출될 때의 조기대응방법을 고려한 상태에서 시험하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">(마) 팬과 덕트는 추출장치에 전기적으로 연결되고 정전기의 축적을 방지하기 위해 전기적으로 접지되어야 한다. </t>
+          <t xml:space="preserve">(1) 하역서류, 탱크차량 번호, 저장탱크 내용물 등을 확인하여 정확한 위치에 연결하는지 확인하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(6) 유체의 흐름이 불균일한 경우에는 계통 운전 중 계속 스프링에 피로응력이축적되므로 맥동이 예상되는 배관계통에는 신중하게 적용할 팔요가 있다.</t>
+          <t xml:space="preserve">(2) 탱크차량에 압력을 가하여 이송할 때 균압배관을 사용하는 경우에는 균압배관도 동일하게 기밀시험을 하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(라) 감지기 및 방출장치는 이물질의 축적 등에 의하여 그 기능이 저해되지않도록 설치한다.</t>
+          <t xml:space="preserve">(2) 하역하고자 하는 저장탱크의 빈 공간과 하역할 양을 확인하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 몰레큘러실의 내부에 액체가 축적될 수 있으므로 배출할 수 있는 시설(Drain)을 갖추어야 하며, 보통 액체 밀봉드럼으로 연결되도록 한다. </t>
+          <t xml:space="preserve">6.1.6 탱크차량의 벤트배관 또는 균압배관 개방 </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 벨로시티 실의 방해판에 액체가 축적되면 부식이나 동결의 위험이 있으므로 판에구멍을 내어 액체가 배출되도록 해야 한다. </t>
+          <t xml:space="preserve">(1) 탱크차량 부착 펌프 또는 해당 장소의 펌프를 가동하여 이송한다. </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량과 하역할 탱크 사이의 라인 중 탱크차량에 부착된 밸브를 제외하 고는 모든 밸브를 개방하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량에 설치된 벤트배관 또는 균압배관을 개방하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 공기 또는 불활성가스의 압력을 사용하여 이송할 경우에는 가압배관의 밸브를 천천히 개방하여야 하고, 가압배관의 압력은 해당 탱크차량 또는 하역하는 저장탱크의 설계압력 이하로 공급되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크차량 상부로 올라가서 개방해야 할 경우에는 추락방지조치를 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크차량과 하역할 탱크 사이의 배관에 연결된 다른 배관의 밸브가 닫혀 있는지 확인하여야 한다. 다만, 동일한 물질을 저장하는 다른 탱크에 연결된 경우에는 그러하지 아니 하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.1.8 탱크차량의 밸브 개방 </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 가압에 의해 이송하는 경우에는 탱크차량 내부에 불활성가스(또는 공기)를 공급 (purge)하여 내부의 잔량을 저장탱크로 이송한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 이송작업이 완료되면 관련 배관의 밸브 및 탱크차량의 밸브를 차단한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량의 연결부에 캡 또는 플러그 등을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 펌프를 사용하여 이송하는 경우에는 탱크차량의 말단밸브를 차단하고 저장 탱크와 말단밸브 사이의 잔량을 불활성가스 또는 공기를 사용하여 이송한 다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크차량의 송장 또는 차량에 표시된 물질명과 출하하고자 하는 물질명이일치되는지 확인하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.2.1 탱크차량의 정문 통과 시 확인 </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 출하서류, 탱크차량 번호, 저장탱크 내용물 등을 확인하여 정확한 위치에 연결하는지 확인하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량과 이송 배관 사이의 호스를 연결한 후에는 공기 또는 불활성가스를 사용하여 연결부분의 기밀시험을 하되, 인화성물질 또는 공기와 접촉하면 곤란한 물질인 경우에는 가능한 한 불활성가스를 사용하여 기밀시험을 하여야 한다. 다만, 작업여건에 따라 하역 또는 출하하는 물질을 사용하여 연결부분의 기밀시험을 할 경우에는 연결 부분에서 누출될 때의 조기대응방법을 고려한 상태에서 시험하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량에 설치된 벤트배관 또는 균압배관을 개방한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 출하하고자 하는 탱크차량의 빈 공간과 출하할 양을 확인하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크차량의 균압배관도 동일하게 기밀시험을 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.2.5 탱크차량의 벤트배관 또는 균압배관 개방 </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량과 출하배관 중 최종 조작밸브를 제외하고는 모든 밸브를 개방하 여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 공기 또는 불활성가스의 압력을 사용하여 이송할 경우에는 가압라인의 밸브를 천천히 개방하여야 하고, 가압라인의 압력은 해당 탱크차량의 설계압력 이하로 공급되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크차량 상부로 올라가서 개방해야 할 경우에는 추락방지조치를 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 출하작업이 완료되면 펌프를 정지하거나 가압배관의 밸브를 닫고, 탱크차량의 밸브를 닫는다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 탱크차량의 과충전을 방지하기 위해 사전에 출하량을 입력해서 자동으로 출하배관의 밸브를 차단하는 등의 조치가 필요할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크차량의 연결부에 캡 또는 플러그 등을 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 호스를 분리하기 전에 관련 배관 내부에 있는 물질을 회수하거나 불활성가 스(또는 공기)를 공급 (purge)하여 탱크차량으로 이송하거나, 배기처리시설 등으로 배출시켜야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 작업자는 탱크차량의 출하량 확인방법과 출하작업의 위험성에 대해 사전에숙지하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스폭발 예방을 위한 폭연 방출구 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 폭약 등의 폭굉(Detonation) (나) 가연성 가스(증기 포함)의 개방공간에서의 폭연 (다) 폭주반응용 비상벤트와 압력용기 및 저장탱크 등에 설치된 압력방출 장치 (라) 외부 화재 또는 다른 가열장치에 노출된 용기를 보호하기 위한 장치 </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">가스폭발 예방을 위한 폭연 방출구 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>(라) “밀폐공간(Enclosure)”이란 전체가 밀폐되거나 또는 부분적으로 밀폐된 공간(체 적)을 가진 밀폐 작업장, 용기, 탱크, 배관 및 덕트 내부 공간 등을 말한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">공정배관계장도(P&amp;ID) 작성에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) 증기를 측면에서 토출시키는 경우에는 축적파이프(Accumulator pipe)가 설치되 어야 하며 단과 단 사이의 거리는 1500～2100 mm 정도 유지되어야 한다. </t>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P ; 펌프류 C ; 압축기류 AG ; 교반기류 HT ; 호이스트류 T ; 탑류 R ; 반응기 D ; 드럼류 TK ; 저장탱크류 E ; 열교환기류 H ; 히타류 V ; 용기류 X ; 공급자 일괄공급기기 </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">공정흐름도(PFD) 작성에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 공정 처리순서 및 흐름의 방향(Flow scheme &amp; direction) (2) 주요 동력기계, 장치 및 설비류의 배열 (3) 기본 제어논리(Basic control logic) (4) 기본설계를 바탕으로 한 온도, 압력, 물질수지 및 열수지 등 (5) 압력용기, 저장탱크 등 주요 용기류의 간단한 사양 (6) 열교환기, 가열로 등의 간단한 사양 (7) 펌프, 압축기 등 주요 동력기계의 간단한 사양 (8) 회분식 공정인 경우에는 작업순서 및 작업시간 </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">공정흐름도(PFD) 작성에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 탱크류 </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) “저장설비” 라 함은 수용액 저장탱크와 이송배관, 압력방출장치 및 제어기기 등을 포함한 일련의 설비를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) “저압탱크” 라 함은 설계압력이 103 ㎪ 이하인 수용액 저장탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) “압력탱크” 라 함은 설계압력이 103 ㎪을 초과하는 수용액 저장탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) “압력 방출구” 라 함은 수용액 저장탱크 내부압력이 설정치 이상으로 상승 시열리도록 설치된 플로팅맨홀커버(Floating manhole cover)를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>(마) “하역장소” 라 함은 저장탱크로 수용액을 이송하는 탱크로리의 정차 장소를 포함한 이송 배관 및 밸브 등 부속설비를 말한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(사) “희석” 이라 함은 사용공정으로 이송하거나, 탱크로리 등에 로딩하기 위해 수용 액을 물과 혼합하여 농도를 낮추는 것을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 저장탱크 내부에서 분해 시 발생하는 열이 대기로 방출되는 열보다 많을 경우 수용액의 온도가 물의 비점 이상으로 올라갈 수 있다. 특히, 농도 64.7 % 이상에 서는 분해 시 발생하는 열이 수용액을 전부 증발시킬 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 농도 64.7 % 미만의 수용액을 저장하는 탱크에서 과산화수소 분해속도가 압력 방출장치를 통한 배출속도보다 크면 저장탱크는 파열될 것이다. 이때, 농도가 높을 수록 저장탱크 파열의 위험은 커지며, 저장탱크의 강도가 강할수록 파열시피해는 커진다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저압탱크 및 압력탱크를 사용할 수 있으나, 압력 방출구를 부착한 저압탱크의 설치를 권장한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 알루미늄 재질의 저장탱크는 콘크리트 받침대 위에 직접 설치하거나, 콘크리트기초위에 볼트로 고정된 철재 받침대 위에 설치하여야 하고, 받침대와 접촉되는탱크표면은 아스팔트 펠트 패드 등 알루미늄의 전기적 부식을 방지할 수 있는 재질의 패드로 보호하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 저장탱크에는 필터가 부착된 통기설비를 설치하여야 하며, 통기설비의 용량은 펌프 최대용량 이상으로 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.1 저장탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 압력 방출구가 부착 되었고, 농도 64.7 % 미만인 수용액을 저장하는 저장탱크는 건물 벽 등으로 부터 7.5 m 이상의 안전거리를 두어야 한다. 다만, 건물 벽등 이 불연성 재질인 경우에는 안전거리를 두지 않아도 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저장탱크에는 압력 방출구 또는 파열판을 부착하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 압력 방출구가 부착 되었고, 농도 64.7 % 이상인 수용액을 저장하는 저장탱크와 파열판 만 설치된 저장탱크는 건물 벽 등으로부터 &lt;그림 2&gt;에 따라 안전거 리를 두어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 압력탱크와 &lt;그림2&gt;에서 요구한 방출 면적 미만의 압력방출장치가 부착된 저압 탱크는 건물 벽 등으로부터 &lt;그림 3&gt;에 따라 안전거리를 두어야 한다. 다만, 다수의 저장탱크를 인접하여 설치할 경우에는 가장 큰 저장탱크의 용량을 기준 으로 &lt;그림 3&gt;에 따라 안전거리를 두어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 배출된 수용액은 저장탱크에 다시 투입하지 않아야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(6) 저장탱크 주위에는 누출 시 확산을 방지하기 위하여 저장탱크 용량 이상의 방유 제를 설치하여야 한다. 또한, 다른 물질과 접촉 및 오염의 위험이 있기 때문에 배수로를 통한 드레인은 하지 않아야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 저장탱크의 내부온도를 항상 모니터링 하고, 일정한 온도까지 상승 시 경보를울리고, 저유조로 자동 배출하도록 제어시스템을 구축한다. 이때, 자동배출시 스템의 온도는 5 ℃ 이하로 설정하여야 하며, 가능한 경우 더 낮게 설정한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 자동배출시스템의 성능은 30 분 내에 저장탱크 내 수용액이 중력에 의해 모두 배출되도록 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 저장탱크에서 수용액이 자동 배출되는 것과 동시에 저장탱크 내부를 물로 희석하여야 한다. 이때, 희석용 물 유량은 수용액 배출유량의 90 % 이하가 되도록 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크로리에는 자급식 원심펌프를 설치하여 수용액을 저장탱크로 이송하는 방법을 권장하나, 질소 등 불활성 기체를 사용하여 압송하여도 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 하역장소는 탱크로리에 의한 손상을 방지하기 위하여 저장탱크로부터 7.5 m 이상의 안전거리를 두거나, 가드레일 등을 설치하여 보호하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크로리 정차 장소는 건물 및 설비에서 30 m 이상의 안전거리를 두어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크로리로 연결되는 압송용 기체배관에는 필터, 감압밸브, 안전밸브 및 압력계를 설치하여야 하며, 탱크로리로 오염물질이 유입되는 것을 방지하기 위하여 이송 작업 전에 충분히 퍼지 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 탱크로리에는 103 ㎪ 이상의 압력을 가하지 않으며, 하역 후 탱크로리는 즉시안전한 장소로 이동하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 다음 물질을 저장·취급하는 탱크, 탑류, 반응기, 가열로, 하역배관 등에 적용 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (마) “저장탱크”란 안전보건규칙 별표 7의 1호 다목에서 규정하는 저장설비를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>? (1) 다음 각 목의 저장탱크 인입 및 출구배관. 다만, 인입배관에 역지밸브(check valve) 등과 같이 역류방지를 위한 조치를 하였을 경우에는 그러하지 아니하다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>?? (가) 인화성가스를 액체상태로 저장하는 설계용량 5 ㎥ 이상의 저장탱크 ?? (나) 급성독성물질 중 1기압, 35 ℃에서 기체로 존재하는 물질을 액체상태로 저장하는 설계용량 5 ㎥ 이상의 저장탱크 ?? (다) 인화성액체 중 인화점이 30 ℃ 미만인 물질을 저장하거나 사용하는 것으로 사방이 벽으로 둘러쌓여 있는 건축물내에 설치되는 설계용량 10 ㎥ 이상의 저장탱크 및 용기</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>? (3) 다음 각 목의 용기(탑류 및 저장탱크류 제외) 하부의 출구배관. 다만, 최대운전액면 보다 높은 곳에?설치된 배관 또는 비상 시에 그 배관이 차단되어서는 안 되는 특수한?경우는 예외로 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">? (7) 호스 또는 하역설비 등을 이용하여 기차, 선박, 탱크로리 등에 가연성가스, 또는 가스상의 급성독성물질을 하역하는 배관 및 균압(equalizing) 배관. 다만, 균압배관에 </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">? (1) 저장탱크, 탑류 및 용기(이하 “용기 등”이라 한다)의 배관에 설치되는 긴급차단밸브는 가능한 한 &lt;그림 2&gt;와 같이 용기 등에 가깝게 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">? (8) 호스 또는 하역설비 등을 이용하여 기차, 선박, 탱크로리 등에 인화성액체, 액상의 유기화합물 또는 가스상 이외의 급성독성물질을 하역하는 배관. </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>? (5) 기차, 선박, 탱크로리 등의 하역용 배관에 설치되는 긴급차단밸브는 &lt;그림 5&gt;와 같이 가능한 한 하역용 호스 또는 하역설비(로딩 암 등)에 가깝게 설치하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>(3) 모든 시스템은 필요시, 액체와 증기 전달 밸브, 전달 압축기 또는 펌프, 냉매 저장 탱크 또는 재순환, 재생 장치로부터 제거를 위해 밸브로 연결되어야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 저장설비라 함은 기초 위에 설치한 고정식 암모니아 저장탱크 및 그 부속설 비를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2 저장탱크 용량 </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 용량은 경제성 및 안전성을 고려하여 다음과 같이 정한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 반지하를 포함하여 저장탱크를 지하에 설치하는 경우에는 누출감지를 위하여 탱크를 흙 등으로 묻어서는 아니된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저장탱크의 모든 노즐은 플랜지식이어야 하며 특별한 경우를 제외하고 맨홀 뚜껑 또는 저장탱크의 상부에 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 저장탱크의 액체암모니아 인입배관 끝부분의 위치는 인입배관의 파열 등으로 인한 액체암모니아의 역류를 방지할 수 있도록 저장설비의 최대액면 높이보다 높아야 한다. 다만, 액체암모니아 인입배관 끝부분의 위치를 저장설 비의 액면 높이 이하로 할 경우에는 저장설비내의 액체암모니아 인입 배관 상부에 구멍을 뚫어 역류를 방지하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 음향방출시험을 할 경우에는 저장탱크의 시험기간 중에 실시하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.6 저장탱크의 개구부 등 </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저장탱크 주위에는 누출방지용 방유제를 설치하여야 하며, 방유제 유효용량 계산은 KOSHA GUIDE, “방유제 설치기술지침”에 따른다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 펌프의 토출측 배관에는 펌프의 특성 및 운전특성에 따라서 최소유량 배관 (Minimum flow line)을 저장탱크에 순환되도록 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크로부터 펌프로 가는 액체출구 라인은 가능한 한 거리가 짧아야 하고충분히 보냉이 되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 암모니아를 저장탱크에 주입하기 전에 저장탱크 내의 산소함유량을 용량기준 으로 0.025 % 이내로 줄여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크에는 암모니아의 저장량을 측정할 수 있는 계측장치와 온도를 측정할수 있는 온도지시계 및 경보장치를 설치하여야 한다. 다만, 유리액면계를 사용해서는 아니된다.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저온저장 탱크는 이중벽 구조인 경우 내벽과 외벽 사이에 단열재를 충전하 거나 그렇지 않은 경우에는 저장탱크 외부에 단열재를 시공하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 이중벽 구조의 저장탱크인 경우에는 내부동체의 외면, 단열벽 저장탱크인 경우에는 동체의 외면이 습기 및 암모니아에 의해 부식되지 않도록 습기및 암모니아에 대하여 내식성이 있는 재료로 도장되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">또한 탱크외부에 단열재를 시공하는 경우에는 그 단열재 외부는 암모니아에 의해 부식되지 않는 재질로 보호되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저장탱크에는 암모니아의 저장량을 측정할 수 있는 액면 계측장치를 설치하 여야 한다. 다만, 유리액면계를 사용하여서는 아니된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 저장탱크에는 저장탱크의 압력을 측정할 수 있도록 압력지시계를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) “방유제(Diking)”라 함은 저장탱크에서 위험물질이 누출될 경우에 외부로 확산되지 못하게 함으로서, 주변의 건축물, 기계?기구 및 설비 등을 보호 하기 위하여 위험물질 저장탱크 주위에 설치하는 지상방벽 구조물(Dike)을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) “유효용량(Effective capacity)”이라 함은 저장탱크에서 위험물질이 누출될 경우 방유제가 실제로 저장할 수 있는 용량을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) “배출로(Drainage)”라 함은 위험물질 저장탱크에서 누출된 위험물질을 안전한 장소로 유도하기 위한 도랑, 배관 등의 배출 통로를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) “저조 등(Sump)”이라 함은 위험물질 저장탱크로부터 일정한 거리에 설치한 웅덩이(Impounding area) 등과 같이 위험물질이 누출될 경우 이를 유도하여 임시로 저장할 수 있는 시설을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 위험물질을 액체상태로 저장하는 저장탱크에서 위험물질 누출 시외부로 확산되는 것을 방지하기 위해 설치하는 방유제에 관한 기술을 제시하 는데 그 목적이 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 하나의 저장탱크 주위에 설치하는 방유제 내부의 유효용량은 저장탱크의 용량 이상이어야 하며, 둘 이상의 저장탱크 주위에 설치하는 방유제 내부의 유효용량은 방유제 내부에 설치된 저장탱크 중 용량이 가장 큰 저장탱크의 용량 이상(각각의 저장탱크가 서로 격리된 구조로 설치된 경우에 한한다.)이어야 한다. 다만, 위험물질 저장탱크 주위에 다음의 기준에 적합한 배출로 및저조시설 등을 설치하여 누출된 위험물질을 안전한 장소로 유도할 수 있는 조치를 하였을 경우에는 그러하지 아니 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 표준압력(101.3 kPa), 20 ℃에서 가스상태인 위험물질을 액체상태로 저장하는 저장탱크 주위에 설치하는 방유제는 누출된 위험물질의 기화를 억제할 수 있도록 방유제 내부의 단면적을 최소화하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 저장탱크에서 저조 등까지의 배출로는 누출된 위험물질이 자유로이 배출될수 있도록 1 % 이상 경사를 유지하도록 하는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 저조 등의 용량은 가장 큰 저장탱크에서 누출된 위험물질을 충분히 저장할수 있도록 하는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. 위험물질 저장탱크 배치 </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">하나의 방유제 내부에는 상호간 반응성 있거나 서로 접촉하여서는 안되는 물질 또는 위험성을 유발할 수 있는 물질의 저장탱크를 혼합하여 배치해서는 아니 된다. 다만, 위험물질이 인화성이면서 급성 독성인 경우에는 하나의 방유제 내부에 동일한 물질의 저장탱크를 배치할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">유효용량 = [방유제의 내부 체적] - [가장 큰 저장탱크 하나(“가”탱크)를 제외한 저장탱크(“나”와 “다”탱크)의 방유제 높이 이하 부분의 체적] - [모든 저장탱크(“가”, “나” 및 “다”탱크)의 기초부분의 체적] - [방유제 높이 이하 부분의 배관, 지지대 등 부속설비의 체적] </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 방유제 내부 바닥은 누출된 위험물질을 안전하게 처리할 수 있도록 저장탱크의 외면에서 방유제까지 거리 또는 15 m 중 더 짧은 거리에 대해 1 % 이상 경사가 유지되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6. 방유제와 저장탱크 사이의 거리 </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 내면과 저장탱크 외면사이의 거리는 저장탱크의 직경과 높이를 고려하여 이격거리를 정하여야 하고, 최소 1.5 m 이상을 유지하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 방유제 내부에 있는 탱크, 배관 등을 보온하기 위해 사용한 스팀의 응축수를 배출하기 위한 배출구는 방유제 외부에 설치하여야 한다. 다만, 방유제 내부에 응축수 배출설비(배출 포트의 높이가 방유제 높이 이상이고 배출 포트를 통하여 위험물질이 방유제 외부로 배출되지 않은 구조로 설치된 경우에 한한다)를 설치한 경우에는 그러하지 아니 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">방유제 내부에는 방유제 내부에 설치하는 저장탱크를 위한 배관(저장탱크의 소화설비를 위한 배관을 포함한다), 조명설비, 가스누출감지경보기(감지부에 한한다), 계기시스템 등 안전성 확보에 필요한 설비 외에는 다른 설비를 설치하 여서는 아니 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>(2) 인화성 액체를 탱크 등에 초기에 주입하는 경우에는 유속을 1 m/s 이하로 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>(9) 탱크차나 트럭하역 배관에 배관이 연결되지 않은 경우와 배관 연결을 분리하고자 할 때 잠기는 밸브를 설치하였는가?</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>② 팽창탱크(Expansion tank) 설치 (다) 절차적인 방법 : 운전을 정지하는 동안에는 배관을 비우도록 절차서에 명기 (4) 자동조절밸브가 고장으로 열려 밸브 후단의 압력이 상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 고정식 지붕탱크의 지붕은 내?외부 구조물 또는 내부의 지지대에 의하여 자체적으로 지지될 수 있도록 설계한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 고정식 지붕탱크의 출구 노즐은 옆판에 설치한다. 그 위치는 탱크 내부의 침전물 또는 물의 축적을 최소화할 수 있는 높이에 설치한다. 다만, 많은 량의 침전물과 물이존재할 수 있는 부유식 지붕탱크인 경우에는 내부 이동식 스윙 배관을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 다음 &lt;표 2&gt;와 같이 전기 전도도가 10 pS/m 이하인 인화성물질을 저장하는 용량 100 m 3 이상의 고정식 지붕탱크에는 불활성가스 봉입시설을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 부유식 지붕탱크는 인화성물질이 증기로 되어 대기로 방출되는 손실을 최소화할 수있도록 인화점 23 ℃ 이하의 인화성물질을 대량 저장하는 경우에 사용하며 다음과 같은 때에는 부유식 지붕탱크를 사용하여서는 아니된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 부유식 지붕탱크의 옆판 맨홀은 고정식 지붕탱크의 옆판 맨홀 설치 기준에 따른다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 부유식 지붕탱크의 옆판과 부유식 지붕 사이의 실링 재료 및 형태는 저장 탱크 제작자의 기준에 의하여 결정한다. 다만, 실링을 보수 또는 교체하는 경우에는 부유식 지붕탱크의부속품인 사다리 또는 내부 배관등을 제거하지 않고 보수할 수 있는 것을 선정한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 부유식 지붕탱크의 지붕에는 호스, 배관 또는 사이폰 형태의 배수설비를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 상압저장탱크의 내부 또는 내?외부의 보강재에 부식이 우려되는 경우에는 상압 저장탱크의 밑판, 옆판, 지붕 및 보강재에 부식 여유를 고려한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 이 지침은 안전보건규칙 별표 1의 위험물질 중 인화성물질, 부식성물질 및 독성물질 등을 액체상태로 저장하는 설계압력이 게이지 압력으로 3,500 Pa(0.0357 ㎏ f /㎠) 미만의 상압저장탱크의 설계에 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 지름이 9 m 이하인 고정식 지붕탱크에는 지붕 및 옆판에 각각 1개의 맨홀을 설치 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 통기관이 설치된 고정식 지붕탱크의 설계압력은 양압 750 Pa(0.0076 ㎏ f /cm 2 ), 진공압력 250 Pa(0.0025 ㎏ f /㎠) 이내로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 부유식 지붕탱크는 일반적으로 지붕의 형식에 따라 접시지붕형, 폰툰지붕형 및 이중 지붕형으로 구분하며 그 형태는 [부록 1]과 같다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 부유식 지붕탱크의 배수설비는 지붕 지름의 크기에 따라 최소한 아래의 기준 이상 으로 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 부유식 지붕탱크의 실링 주위에서 화재?폭발의 원인이 될 수 있는 정전기를 제거할 수 있는 장치를 설치한다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 불활성가스 봉입시설이 설치된 고정식 지붕탱크의 설계압력은 양압 2,000 Pa (0.0204 ㎏ f /㎠), 진공압력 600 Pa(0.0061 ㎏ f /㎠)이내로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 상압저장탱크의 모재 부식속도(mm/년) 자료를 이용할 수 있는 경우에는 20년 동안 부식되는 두께를 부식 여유로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 이 지침에서 정하지 않은 상압저장탱크의 구조설계 등에 관한 사항은 한국산업규격및 이와 동등 이상의 기술기준에 따른다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 인입 노즐은 옆판에 설치한다. 그 위치는 침전물이 쌓일 수 있는 최대높이 보다는 약간 높은 지점에 설치한다. 만약 인입 노즐이 옆판의 상부에 설치되는 때에는 인입배관을 탱크의 밑판부위 까지 내려 오도록 하여 항상 저장물질에 잠겨 있도록 하며 </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 전항의 규정에도 불구하고 고정식 지붕탱크의 용량이 100 m 3 미만으로 다음과 같이 정전기가 형성될 수 있는 경우에는 불활성가스 봉입시설을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 지름이 9 m를 초과하고 30 m 이하인 고정식 지붕탱크에는 지붕 및 옆판에 각각 2 개의 맨홀을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 고정식 지붕탱크의 내부 압력이 상승하면 탱크의 지붕이 분리되도록 하는 경우는 탱크 바닥이 평평하고 그 지붕이 원추형인 경우에 한한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 부유식 지붕탱크의 설계압력은 양압 2,000 Pa(0.0204 ㎏ f /㎠), 진공압력 250 Pa (0.0025 ㎏ f /㎠)이내로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 지름이 30 m를 초과하는 고정식 지붕탱크에는 지붕 및 옆판에 각각 4개의 맨홀을설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크가 설치되는 지역의 국지성 폭우 등 기상이변에 의한 강우강도를 고려할 필요가 있을 경우, 필요 배수량과 설비 배수능력을 아래와 같이 산출하여 설비 배수능력이 필요 배수량보다 크게 되도록 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 건물내에 설치된 고정식 지붕탱크는 탱크 내부의 압력 상승시 그 지붕이 분리 되도록 설계해서는 안된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 상압저장탱크의 모재에 부식여유를 고려하는 것이 경제적이지 않거나 또는 합리적 이지 않는 경우에는 내피복 또는 크래딩을 고려할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 접시 지붕형 및 폰툰 지붕형탱크의 경우 지붕과 호스 가까이 역지밸브 등을 설치하여 저장물질이 지붕으로 역류되지 않도록 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 특히 농질산 저장탱크인 경우는 탱크 옆판의 맨홀을 설치하지 않으며, 지붕의 맨홀은위의 기준에 따른다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) (1) 식에 의하여 상압저장탱크 옆판의 최소두께를 계산하였을 지라도 제작에 사용 </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) “고정식 지붕탱크 (Cone roof tank, CRT)”라 함은 원추형으로된 고정식 지붕을 갖는 상압저장탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 인화성물질이 내부 인입 노즐에서 분사되면서 저장탱크를 채우는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 지붕의 지름이 40 m 이하의 탱크인 경우 : 최소 지름 80 mm 1개 </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 탄소강 재질의 탱크에 부식성이 있는 물질을 저장하는 경우 : 최소 3 mm </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) “부유식 지붕탱크 (Floating roof tank, FRT)”라 함은 상하로 움직일 수 구조의 부유식 지붕을 갖는 상압저장탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 설비 배수능력은 배수설비(Roof drain)에서 중력에 의해 배출될 수 있는 유량을기준으로 하여 식 (4)에 의하여 구한다. 다만, 지붕(Roof)의 높이는 지붕이 탱크의 최저 위치에 있는 기준으로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 지붕의 지름이 40 m를 초과하는 탱크인 경우 : 최소 지름 100 mm 1개 </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 탄소강 재질의 탱크에 부식성이 없는 물질을 저장하는 경우 : 최소 1.5 mm </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) “설계압력”이라 함은 탱크의 두께를 계산하기 위하여 사용되는 탱크 상부 기상층 에서의 압력을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 저장물질의 점도가 높거나 또는 어는 점이 높아 상온에서 탱크내부 면에 두꺼운막을 형성하는 경우. 다만 부유식 지붕탱크를 보온 또는 가열하여 막이 형성되지 않도록 하는 경우에는 그러하지 아니한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 합금강 재질의 탱크에 부식성 물질을 저장하는 경우 : 최소 1.2 mm </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) “불활성가스 봉입시설 (Inerting system)”이라 함은 질소, 이산화탄소등과 같은 불활성가스를 탱크에 주입하여 폭발성 분위기 또는 폴리머의 형성을 방지하거나 독성물질의 증기가 대기로 방출되는 것을 방지하기 위하여 설치한 설비를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) 합금강 재질의 탱크에 부식성이 없는 물질을 저장하는 경우 : 0 mm </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(마) “통기관 (Vent)”이라 함은 탱크의 내부가 진공 또는 가압상태가 되지 않도록 하기 위하여 대기로 개방되게 설치한 관을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(바) “통기밸브 (Breather or bleeder valve)”라 함은 평상시에 닫힌 상태로 있다가 탱크의 압력이 미리 설정된 압력 또는 진공압력에 도달하면 밸브가 열려 탱크 내부의 가스? 증기등을 외부로 방출하거나 또는 탱크 내부로 외부공기를 흡입하기 위하여 설치된 밸브를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(아) “자동 통기밸브 (Automatic breather valve)”라 함은 부유식 지붕의 중앙부위에 설치하는 것으로 저장물질의 액면 높이에 따라 자동으로 열리고 닫혀 탱크 내부가 가압 또는 진공이 되는 것을 방지하기 위하여 설치된 밸브를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">: 필요 배수량(㎥/h)   : 강수구역(탱크)의 내경(m)   : 시간당 강수량(m) </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.1 고정식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.2 부유식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12. 상압저장탱크의 가열/냉각 </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. 상압저장탱크 설계시 고려사항 </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1 고정식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2 부유식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5. 상압저장탱크 설계기준 </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.4 용량에 따른 탱크의 지름 및 높이 </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6. 부유식 지붕탱크의 실링 </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.1 고정식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.2 부유식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>D : 저장탱크의 안지름(m) H : 판두께를 구하려고 하는 단의 아래 끝에서 최고사용액면까지의 높이(m) ρ : 저장액체의 비중(저장유체의 비중이 1이하인 때에는 1로 한다.) f : 재료의 설계 인장응력으로서, 한국산업표준 또는 제조자가 보증하는 항복점 또는 내구력 최소값의 60%를 취한다(MPa) m : [부록 3]에서 규정하는 방사선 투과 시험에 의하여 정하는 상수 옆판 최하단 0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D : 저장탱크의 안지름(m)  : 고정식 지붕의 기울기 각도(°) </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고정식 지붕탱크에는 KOSHA GUIDE “통기설비에 관한 기술 지침”에 준하여 통기설 비를 설치한다. 다만, 고정식 지붕탱크에 불활성가스 봉입시설을 설치하는 경우에는 KOSHA GUIDE에 상관없이 통기밸브를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">다만, 스팀을 사용하여 상압저장탱크를 청소할 필요가 있는 경우에는 설계온도를 120 ℃로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부유식 지붕탱크에는 최소한 2개 이상의 통기밸브 즉 림 통기밸브와 자동통기밸브를 설치한다. 다만, 림 통기밸브는 부유식 지붕탱크의 실링이 메카니칼 실인 경우에 한하여 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크 내부에 침전물이 형성되어 탱크 청소시 침전물을 제거하여야 할 필요가 있는 경우에는 청소용 맨홀(Cleanout door)을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크 밑판의 두께는 최소한 6 mm 이상으로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크 옆판의 최소두께는 식(1)에 의하여 계산한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 공칭 지름(m) 철판의 최소사용 두께(mm) </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>상압저장탱크의 설계온도는 저장물질의 온도에 30 ℃를 더한 수치를 설계 온도로 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 용량에 따른 탱크의 지름 및 높이는 탱크 제작에 사용되는 철판의규격에 따라 상이하다. 탱크용량에 따라 일반적으로 적용되는 탱크의 지름 및 높이는 [부록 2]와 같다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 인화성물질, 부식성물질 또는 독성물질을 액체상태로 저장하는 상압저장탱크의 설계에 필요한 사항을 정하여 탱크의 잘못된 설계로 인한 화재?폭발 및 누출 등의 사고를 예방하는데 목적이 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장물질의 온도를 일정하게 유지할 필요가 있는 경우에는 상압저장탱크에 내부 코일, 내부 또는 외부의 열교환기, 혼합기 또는 믹서 등을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특별한 경우를 제외하고는 고정식 지붕탱크 및 부유식 지붕탱크의 밑판에는 저장물질에포함될 수 있는 물 등을 배수할 수 있는 설비(Water drawoff sump)를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) “저장용기”라 함은 일정한 위치에 고정 설치된 저장탱크와 이동할 수 있는 용기를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.3 저장탱크의 지지대 </t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크는 부등침하가 일어나지 않는 고정기초위에 불연재료의 지지대를 사용하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 반응기, 저장탱크 등과 같이 대량의 독성물질이 지속적으로 외부로 유출될 수 있는 구조로 된 경우에는 파열판과 안전밸브를 직렬로 설치하고, 파열판과 안전밸브 사이에는 누출을 탐지할 수 있는 압력지시계 또는 경보장치를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>㉣ 저장탱크로 부터의 누출 확산을 차단하는 목적으로 방유제를 설치하는 경우에는 Kosha guide D-8-2013에 적합해야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.1.1 “하역 (Unloading)”이라 함은 탱크로리 또는 이동용 용기 등에서 화학 물질을 배관 또는 호스를 통해 저장탱크 등으로 이송하는 것을 말한 다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 액상 화학물질을 탱크로리에서 저장탱크로 하역하거나 저장탱크에서 탱크로리로 출하하는 장소에 대해 적용된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 탱크로리를 사용하는 액상 화학물질의 하역 및 출하장에서 화학물 질이 누출될 때에 외부로 누출되어 토양 또는 수질 등의 오염을 방지하기 위해 설치하는 시설에 관한 기술적 사항을 정함을 그 목적으로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크로리 등에 연결된 호스의 이탈 또는 잘못된 체결 </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크로리 등에 연결된 호스의 파열 </t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크로리 등과 연결된 배관의 플랜지 및 밸브 등에서의 누출 </t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 탱크로리에 과다 충전한 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.1.2 “출하 (Loading)”라 함은 “하역”과 반대되는 개념으로 저장탱크 등에 들어 있는 화학물질을 배관 또는 호스를 통해 탱크로리 등으로 이송하는 것을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.1.4 “방류턱 (Curbing)”이라 함은 화학물질이 누출되었을 때 외부로 확산되는 것을 방지하기 위해 탱크로리 등의 둘레를 따라 설치한 낮은 턱을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">하역 및 출하장에서 화학물질의 누출이 발생될 수 있는 주요원인은 아래와 같다. 일반적으로 탱크로리 본체의 결함에 의한 누출은 배제된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 작업자의 현장 대응과 별도로 원격으로 작업현장을 감시하면서 조정실에서 긴급차단밸브 및 펌프(탱크로리 등의 차량에 부착된 펌프 제외)를 차단할 수 있는 경우에는 차단시간을 현저히 줄일 수 있으며, 차단시간은 설치된 시스템에 따라 다를 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">탱크로리 등의 하역 및 출하장은 저장탱크 지역 등과는 달리 하역 또는 출하 작업을 수행하는 동안 작업자가 현장에 상주하고 있고, 누출 사고가 발생할경우 조기에 감지할 수 있고, 또한 상주하는 작업자가 적절한 보호구를 착용하고, 누출 시에 대한 적절한 대응훈련을 받은 경우라면 누출량을 현저하게줄일 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 탱크로리 등의 하역 및 출하장에서 액상 화학물질의 외부 확산방지를 위해 사용할 수 있는 설비의 종류는 아래와 같다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학물질의 누출 시 다른 곳으로 흘러가지 못하도록 대상물을 중심으로둘러친 턱으로 소용량의 누출방지에 적용된다. 탱크로리 하역 및 출하장에 적용될 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학물질의 누출 시 외부확산을 방지하기 위해 좁고 길게 판 도랑형태의 구조이며, 일반적으로 소량 누출 시에 적용된다. 탱크로리 하역 및 출하장에 적용될 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 트렌치는 탱크로리 등의 차량의 둘레에 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 트렌치의 길이는 하역 및 출하장에서 사용되는 탱크로리 등의 차량의길이보다 길어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 탱크로리 등의 사용장소 주변에 불침투성의 담이 있거나 지면이 경사져서 화학물질이 해당 방향으로 흘러가지 않을 경우에는 그 방향의 트렌 치는 생략할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">다량의 화학물질이 누출될 경우 담을 수 있도록 설치한 저조를 말하며, 일반적으로 탱크로리의 피트 또는 집수조와 연결된 폐수집수조 등이 해당 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">탱크로리 등의 차량을 사용하는 장소에 설치하는 트렌치는 아래의 조건을 만족하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">탱크로리 하역 및 출하장의 방류턱, 피트 및 집수조에 함께 설치된 화학 물질이 누출될 경우 담을 수 있도록 설치한 저조를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 탱크로리 등의 용량 기준 </t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 차량의 좌우측에 트렌치를 설치할 경우에 트렌치의 사이의 폭은 탱크로리 등이 진입할 때를 고려하여 차량의 폭보다 넓어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">① 탱크로리 등을 사용하는 경우에는 탱크로리 내에 설치된 1개의 화물창(Compartment)의 용량 중 최대의 용량 이상이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">② 탱크로리와 관련된 누출은 연결 호스의 이탈 또는 파열이 많으므로 4.2.4항의 방법을 사용하여 누출량을 평가할 경우 그에 따라 트렌치의 용량을 결정할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">② 탱크로리의 전체용량은 크지만 아래의 예와 같이 탱크로리 내부에 적재된 용량이 실제적으로 작은 경우에는 해당 용량을 기준으로 결정할 </t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">예) 사업장의 여러 장소에 동일한 화학물질을 하역할 경우, 처음에는 탱크로리에 다량의 화학물질을 적재하고 있으나, 순서에 따라 하역할 경우에는 탱크로리의 용량이 계속 줄어들어 늦게 하역하는 장소에서는 용량이 감소됨. </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">③ 탱크로리와 관련된 누출량 계산 시 탱크로리 본체에서의 누출은 고려하지 않는다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">를 개방하도록 절차서에 반영하고, 이를 준수하도록 하역 및 출하작업 절차 점검표를 통해 확인하는 경우에는 화학물질이 누출되더라도 트렌치를 통해 폐수처리장 등으로 배출될 수 있으므로 트렌치의 용량계산은 필요하지 않다. 다만, 탱크로리 등의 호스 또는 배관의 크기보다 폐수처리장 등으로 연결된 배관이 작은 경우에는 누출물질이 트렌 치에 축적될 수 있으므로 축적되는 양을 고려하여 누출량을 계산하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 방류턱의 높이는 탱크로리의 안전한 진입을 고려하여 15 cm 이내가 적당 하다. 다만, 차량 통행 시의 문제를 해결하기 위해 방류턱을 통과하는 지점에는 적절한 경사로가 필요하다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 방류턱은 탱크로리 둘레에 따라 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 방류턱의 길이는 탱크로리의 길이보다 길어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 사업장의 부지문제로 탱크로리의 진입이 곤란하여 사업장 외부의 도로 등에서 화학물질을 하역 또는 출하하는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 탱크로리 등의 사용빈도가 현저하게 낮아 트렌치 또는 방류턱을 설치 하는 것이 현실적이지 않은 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) 임시로 탱크로리 등을 사용하는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 액체받이의 크기는 탱크로리 등의 차량 전체가 들어갈 수 있는 크기 이상이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">탱크로리 등을 사용하여 화학물질을 하역 또는 출하하는 작업장의 바닥에적절한 기울기 (1.5%)를 두어 작업 시 누출된 화학물질이 외부로 확산되지않고, 기울기에 의해 피트 또는 집수조로 흐르도록 조치한 경우에는 별도의 트렌치 또는 방류턱을 설치하는 대신 피트 또는 집수조를 설치할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) (나)항에 따라 이송설비를 구성하는 것이 현실적이지 않을 경우에는 비상 시에 탱크로리 하역 또는 출하장에 인접한 우수로를 차단하도록 비상대응계획에 반영하는 것이 좋다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>(나) “팽창탱크 (Expansion drum/Surge drum)”라 함은 열매유 보일러의 운전상태에 따라 배관내 열매유의 체적변동을 완충하기 위하여 설치하는 탱크를 말한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>(다) “저장탱크 (Drop tank/Dump tank)”라 함은 열매유 보일러의 비상운전이나 보수시 배관내 열매유를 저장하기 위한 탱크를 말한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 배관의 가장 낮은 위치에 드레인을 설치하여 비상시 저장탱크로 열매유가 배출될수 있도록 한다. 저장탱크는 배관내 전체 열매유를 충분히 수용할 수 있는 용량으로 하고 벤트를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(7) 열매유가 응고점 이하로 되지 않도록 열매유배관의 보온 및 설비배치를 고려하고, 열매유가 장시간 응고점 이하로 방치될 가능성이 있는 경우에는 열매유배관에 보온및 스팀, 전기 트레이싱을 실시한다. 다만, 저장탱크로 향하는 열매유 드레인 배관에는 보온을 생략할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8) 저장탱크는 가능하다면 낮은 위치에 설치하여 열매유가 자중으로 탱크로 배출될 수있도록 하고 탱크에 충진되거나 배출되는 열매유의 양을 고려하여 적절한 크기의벤트를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 팽창탱크는 가급적 가장 높은 곳에 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 팽창탱크는 대기온도에서 탱크 최대용량의 1/4이상, 최대운전온도에서 최대용량의 3/4이하로 유지될 수 있는 용량이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 팽창탱크에는 액위조절계 및 경보장치를 설치하여 탱크의 액위를 감시한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.3 열매유저장 탱크 및 팽창탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(10) 팽창탱크에 벤트가 설치된 경우 벤트의 배출구는 안전한 곳으로 배출되도록 하여 건물 및 설비의 손상 또는 근로자의 상해가 없도록 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 밀폐식 배관계의 팽창탱크에는 압력조절밸브 및 안전밸브를 부착한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(6) 실내 또는 지상에 팽창탱크 및 저장탱크를 설치할 경우 그 주위에 방유제를 설치한 다. 저장탱크를 지면이하의 핏트에 설치할 경우 핏트 용량은 탱크 체적이상으로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(8) 용량 1 ㎥ 이상의 팽창탱크가 위치가 높은 곳에 설치된 경우에는 팽창탱크의 최하 단에 드레인 밸브를 설치하여 팽창탱크 보다 낮은 곳에 설치된 저장탱크로 열매유가 자연 배출되도록 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(9) 열매유 보일러가 열매유의 비등점을 초과하여 운전되는 경우, 팽창탱크에 0.1 MPa 내지 0.17 MPa의 질소 가스를 충진하여 가압한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>(가) 탱크가 공정설비나 저장지역에서 떨어져 있는 별도의 공간에 설치된 경우 방유턱을 높게 하여 누출된 열매유가 외부로 확산되지 않도록 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>(나) 탱크주위에 높이 10 ㎝ 이상의 방유턱을 설치하고 화재시 작동하는 스프링클러및 소화전사용으로 인한 소화수가 안전한 곳으로 배출될 수 있도록 배수구를 설치한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 팽창탱크에 과충진 예방 배관을 설치하여 저장탱크로 연결하고, 과충진 배관에 밸브가 없는 경우에는 팽창탱크 주변의 방유턱 설치를 생략할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 팽창탱크 상부, 열매유 보일러의 열매유 공급 출구배관 및 열팽창의 우려가 있는 배관에는 적절한 안전밸브를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) 표면온도계 또는 열전대식 온도 측정기로 측정한 결과 열매유 보일러 튜브 또는 필름온도가 높은 경우 (마) 열매유 보일러에서 배출되는 연소가스 온도가 통상적인 연소가스 온도와 60 ℃ 이상의 차이가 있는 경우 (바) 불꽃의 꺼짐 (사) 낮은 연소공기 유량(송기설비 설치 시) (아) 낮은 연료압력(연료가스 또는 연료유) (자) 높은 연료압력(연료가스 사용 시) (차) 분무스팀의 공급중단(연료유 사용 시) (카) 흡입통풍 또는 압입통풍 차단 (타) 열매유 사용설비 측에서의 열매유 유량 측정값이 낮을 경우(열교환기를 통과하는 열매유유량이 낮은 경우) (파) 열매유 보일러의 입출구 열매유 유량차 발생시(선택적) (하) 팽창탱크의 낮은 액위 (거) 팽창탱크의 낮은 운전압력(압력 운전 시) </t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 탱크나 배관의 설치 높이 차이로 인한 자연낙차로 인하여, 배관 파손 또는 밸브열림 시 등 많은 량의 열매유 누출이 예상되는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 연료공급 차단 (나) 연소용 공기공급 팬 정지 (다) 연소가스 배출연도의 댐퍼는 개방 상태 유지 (라) 스팀 또는 다른 불활성가스를 투입하거나 화재발생원 내부에 소화약제 투입 (마) 배관내 열매유를 비상저장탱크로 배출 (바) 화재진압 후 급배기댐퍼를 열고 팬을 재가동하여 열매유 보일러 튜브의 열손상방지 </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 열매유 보일러로 들어가고 나오는 열매유의 유량이 크게 차이가 날 때 (나) 팽창탱크의 열매유 액위가 낮을 때(열매유 부족 시 자동 충전하는 펌프가 없는경우에만 해당된다) (다) 연도를 통해서 방출되는 연소가스 중 가연성 가스의 농도가 증가할 때 (라) 열매유 보일러에서 방출되는 연소가스의 투명도가 떨어질 때 (마) 연소가스 온도가 높을 때 (바) 연소가스의 일산화탄소농도가 증가할 때 (사) 연소가스의 산소농도가 감소할 때 </t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 열매유를 충진하기전 열매유가 흐를 수 있는 모든 배관, 설비 및 탱크에 퍼지를 실시한다. 불활성가스를 가열하여 퍼지하면 배관 등에 남아 있는 수분을 보다 쉽게 증발시켜 방출할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 저장탱크, 밀폐된 용기, 펌프 인입측 배관 등밀폐계로 연결하여 배출물질을 처리하는 경우에는 열팽창용 안전밸브 후단에미치는 배압을 고려하여 열팽창용 안전밸브를 선정한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 밸브 또는 맹판 등에 의하여 차단되지 않는 저장탱크 또는 저압용기 등의 인입 또는 출구배관등으로 연결하여 공정계 내로 회수할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저장탱크의 용량은 염소의 사용량 및 염소 운반차량 탱크의 용량을 고려하여 가능한 한 최소로 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) “저장설비”라 함은 기초위에 설치한 고정식 염소 저장탱크 및 그 부속 설비를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1 저장탱크의 용량 </t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>(2) 저장탱크의 용량은 과충전 방지를 위하여 이용하고자 하는 염소 운반차량 탱크 최대 적재량의 120% 이상이어야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 저장탱크의 저장량은 액체염소의 열팽창으로 인한 체적증가를 수용할 수있도록 저장탱크 용량의 85% 이하이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.6 저장탱크의 개구부 </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 모든 노즐은 플랜지식으로서, 특별한 경우를 제외하고는 맨홀뚜껑 또는 저장탱크의 최상부에 설치하여야 하며, 맨홀의 내부직경은 460㎜ 이상이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 저장탱크에는 과압을 방지하기 위하여 다음 각호의 기준에 적합한 안전밸 브를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>(3) 저장탱크내의 액체염소 인입배관 끝 부분의 위치는 인입배관의 파열 등으로 인한 액체염소의 역류를 방지할 수 있도록 저장설비내의 최대액면 높이보다 높아야 한다. 다만, 액체염소 인입배관 끝 부분의 위치를 저장설비의 정상액면 높이 이하로 할 경우에는 저장설비내의 액체염소 인입배관 상부에 구멍을 뚫어 역류를 방지하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">① 저장탱크에 단열하지 않는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">② 저장탱크에 단열하는 경우 </t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">위 식에서 Qa : 공기의 배출용량, ㎥/min(1기압, 15℃ 상태하의 공기) A : 저장탱크의 외부 표면적, ㎡ </t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">위 식에서 U : 38℃에서 단열재에 대한 총괄 열 전달계수, ㎉/hr?㎡?℃ A : 저장탱크의 외부 표면적, ㎡ </t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>(1) 저장탱크 주위에는 누출?확산 방지용 방유제를 설치하여야 하며, 방유제유효용량은 가장 큰 저장탱크의 용량 이상이어야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>(1) 저장탱크에는 액체염소의 저장용량을 계량할 수 있는 무게계량장치 또는 액면계측장치 등을 설치하여야 하며, 유리액면계를 설치하여서는 아니된다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>(2) 저장탱크에는 저장탱크의 압력을 측정할 수 있도록 압력지시계를 설치하 여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>(2) 가스밀봉에 의하여 저장탱크에서 염소를 이송할 경우에는 다음 각호의 내용을 준수하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>(3) 펌프를 이용하여 저장탱크에서 염소를 이송할 경우에는 다음 각호의 내용을 준수한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 저장탱크를 지하(반지하 포함)에 설치하는 경우에는 탱크를 흙 등으로 묻어서는 아니 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>(가) 펌프의 토출측 배관에는 염소가 저장탱크로 순환되도록 최소유량 배관을 설치한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>(나) 밀봉용 가스 공급설비는 저장탱크로부터 밀봉용 가스 공급설비로 염소가 역류되는 것을 방지할 수 있도록 설계하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>(1) 운전온도 - 29℃ 이상의 염소저장탱크 설계압력은 최대 예상운전 압력의 120% 또는 15㎏ f /㎠G 중 큰 수치를 적용하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 운전온도 - 29℃ 미만의 염소저장탱크는 단일 또는 이중 벽으로 설계할 수있으며 설계압력은 최대예상 운전압력에 1.8㎏ f /㎠를 더한 수치 이상으로 하고 염소저장탱크 내부가 진공으로 운전될 수 있으므로 진공에 견딜 수있도록 설계하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>(2) 운전온도 - 29℃ 미만의 염소저장탱크는 이중벽 구조인 경우 내벽과 외벽사이에 단열재를 충전하거나 그렇지 않은 경우에는 저장탱크 외부에 단열재를 시공하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>(3) 이중벽 구조의 저장탱크인 경우에는 내부 동체의 외면, 단일벽 저장탱크인 경우에는 동체의 외면이 습기 및 염소에 부식되지 않도록 습기 및 염소에 내식성이 있는 재료로 도장하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>염소저장설비에 관한 기술 지침</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 단열재는 염소와 반응하지 않고 화염에 연소되지 않는 것이어야 한다. 또한 탱크 외부에 단열재를 시공하는 경우 그 단열재 외부를 염소에 부식 되지 않는 재질로 보호하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 안전보건규칙 별표1(위험물질의 종류)의4호(인화성 액체)에서 정하는 물질을 저장하는 옥외 저장탱크로서 저장물의 액표면적이 40㎡ 이상 또는 방유제 내의 지면으로부터 탱크 상단까지의 높이가 6m 이상인 저장탱 크에 설치하여야 하는 포 소화설비에 적용한다. 다만, 인화점이 이 기준에서 정하는 온도 이상일 경우라도 효과적인 화재진압을 위하여 포 소화설비를 갖추고자 할 경우에는 이 지침을 적용할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) I형 고정포 방출구 방출된 포가 위험물과 섞이지 아니하고 저장탱크속으로 흘러 들어가도록 홈통(Trough)등의 설비가 된 고정포 방출구로 주로 고정식 지붕 탱크 (Cone roof tank)의 측판 상부에 설치한다. 특히 알코올형 포는 연소 액면에 포를 주입할 때 포의 소멸이 빨라 소화효과가 감소하므로 I형 방출구를 사용하는 것이 좋다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) II형 고정포 방출구 방출된 포가 디플렉터에 의하여 탱크의 벽면을 따라 흘러 들어가 소화 하는 고정포 방출구로 고정식 지붕 탱크의 측판 상부에 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 표면하 포주입 방출구 탱크 화재시 폭발 등에 의하여 고정포 방출구가 파괴됨이 없이 탱크 저부에서 지속적으로 포를 주입하여 소화하는 고정포 방출구로 고정식 지붕 탱크의 측판 하부에 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 특형 방출구 부유식 지붕 탱크(Floating roof tank)의 굽도리판에 의하여 형성된환상 부분에 포를 방출하여 소화하는 고정포 방출구로 측판 상부에 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1. 포 소화설비의 종류 옥외 저장탱크에 적용되는 포 소화설비는 고정포 방출설비와 포 소화전설비가 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1. 고정포 방출구의 종류 고정포 방출구는 포 소화약제를 방출하는 것으로서 인화성액체 저장 탱크의 측판에 고정 설치하여 발생한 포를 탱크안의 연소액면에 방출하는 설비로서 다음과 같은 형식이 있다.&lt;그림 1&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">※ 고정식 지붕 탱크에 적용 ※ 고정식 지붕 탱크에 적용 </t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">※ 고정식 지붕 탱크에 적용 ※ 부유식 지붕 탱크에 적용 </t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">탱크의 직경(단위:m) </t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 고정포 방출구는 저장탱크 주위에 균등하게 설치하고〈표 1〉에서 정한 개수 이상으로 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">〈표 1〉 옥외저장탱크의 고정포 방출구 수 </t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 고정포 방출구는 봉판의 점검 및 교체가 용이하도록 점검구를 설치하여 탱크 밖으로 방출시험이 가능한 구조로 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 고정포 방출구에 접근하여 점검?교체 또는 시험을 할 수 있도록 탱크 지붕으로부터 고정포 방출구까지 발판을 갖춘 사다리를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고정포 방출구의 방출량은 I형, 또는 II형 방출구 및 표면하 포주입 방출구의 경우는 탱크안 저장물의 액 표면적 1㎡당, 특형의 경우는 탱크측면과 굽도리판에 의하여 형성된 환상부분의 면적 1㎡당〈표 2〉의 방출량 이상으로 하여야하며 규정된 방출시간 이상으로 방출되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 포 소화전은 탱크로부터 방유제 안으로 누출된 위험물의 화재를 유효하게소화할 수 있도록 방유제 밖에 설치하여야 하며, 방유제를 설치하지 아니하는 경우에는 방호대상 저장탱크로부터 수평거리 15m 이상 되는 곳에설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 포 소화전 설치개수포 소화전은 방유제 각 부분으로부터 하나의 포 소화전까지의 수평거리가 40m 이내가 되도록 설치하여야 한다. 단, 탱크 직경이 24m 미만인 것은 1개, 직경이 24m 이상～35m 미만은 2개, 직경이 35m 이상의 것은 3개를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">포 소화설비에 필요한 수원의 양은 &lt;표 3&gt;에서 정하는 단위 저장탱크의 고정포 방출구에서 요구되는 양 중에서 최대의 값과 포 소화전이 가장 많이설치된 방유제의 포 소화전 수(포 소화전이 3개 이상의 경우는 3개)에 8㎥를곱한 양에 가장 먼 탱크까지의 배관에 충전하기 위하여 필요한 양을 합한양 이상이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.2. 포 소화약제량 및 약제 저장탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.2.2 소화약제 저장탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q = A × Q1 × T × S Q : 포 소화약제의 양(ℓ) A ：탱크의 액표면적 (㎡) Q1 : 단위 포소화수용액의 양(ℓ/㎡?min) T ：방출 시간 (min) S ： 포소화 약제의 사용 농도 </t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">소화약제를 저장하기 위한 탱크의 용량은 필요한 소화약제량을 충분히 저장할 수 있는 용량의 것으로 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">석유류 저장탱크석유화학 플랜트 </t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">석유류 저장탱크석유화학 플랜트 </t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">석유류 저장탱크석유화학 플랜트 </t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(6) 수원의 수위가 펌프보다 낮은 위치에 있는 가압송수장치에는 물이 계속 공급되도록 100리터 이상의 물올림 전용 탱크를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(6) 위험물 탱크의 경우 배관과 탱크 접합 부분의 충격에 의해 영향을받지 않도록 완충 조치를 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 선택밸브는 방유제 밖에 설치하여야 하며, 방유제가 없는 경우에는직경이 15m 미만의 탱크의 경우 에는 수평거리 15m 이상, 직경이 15m 이상인 탱크의 경우에는 탱크 직경 이상의 거리를 두어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">펌프와 발포기 중간에 설치된 벤추리관의 벤추리 작용과 펌프 가압수의포 소화약제 저장탱크에 대한 압력에 의하여 포 소화약제를 흡입?혼합하는 방식 </t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">펌프의 토출관과 흡입관 사이에 설치한 혼합기에 펌프에서 토출된 물의 일부를 보내고, 농도 조정밸브에서 조정된 약제의 필요량을 약제탱크에서 펌프 흡입측으로 보내어 이를 혼합하는 방식 </t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>(아) “자흡식 펌프 (Self-priming type pump)”라 함은 펌프 내부의 유체가 펌프에서 쉽게 빠져나가지 않도록 설계되어 있고, 별도의 마중물 (Priming)을 공급하지 않고 펌프 구동 시에 펌프 흡입측에 잔존해 있는 기체를 흡입시켜 유체를 펌핑할 수 있도록 만든 펌프를 말하며, 일반원심펌프에는 펌프 흡입측에 별도의 자흡탱크를 설치하여 이와 유사한기능을 할 수 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 탱크, 용기, 배관, 그리고 트랩(Trap)의 모든 내용물은 안전한 위치로 제거 되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 모든 탱크와 용기에 50 mm 이상의 배관 연결은 개방될 수 있는 플랜지로 볼트 연결되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 벌크 용제 저장 탱크는 건물의 외부에 위치해야 한다.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 하역 부지는 기관차(Locomotive) 또는 탱크 차량(Tank vehicle)에 의해 나타날 수 있는 점화원이 추출공정으로부터 30.5 m 이상 되도록 위치하고, 건물 또는 대지 경계로부터 7.6 m 이상 되도록 위치한다. 저장 탱크에 연결은 추출공정으로부터 7.6 m 이상 이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 저장탱크는 적합한 기준으로 설계, 건설 및 시험되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 지하 용제 저장 탱크는 건물 초석 또는 지지대로부터 0.3 m 이상, 건물이 있거나 계획 중인 가장 가까운 대지 경계로부터 0.9 m 이상 위치해야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 지상 용제 저장 탱크는 아래에 따라 위치해야한다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 지상 저장 탱크는 제한 지역에서 또는 분리 방어 지역(Separate fenced area) 에서 울타리로 에워싸야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 외부 위치에서 하역장, 플랫폼, 지상탱크 인접 지역은 2종 지역으로 고려되어야 한다. 이 지역은 하역장 또는 탱크로부터 수평으로 7.6 m 폭으로 고려되는 것처럼, 4.6 m 높이에 고려된 지상 높이로부터 위쪽으로 고려되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.1.2 벌크 용제 저장 탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 하역 전에 카고 탱크(Cargo tank)로부터 초과된 압력을 배출하기 위해 충분한 예방조치를 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 위험에 노출될 수 있는 하역 구조와 벌크 저장 탱크에 대해서는 부가적 소방 설비가 설치되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 용제 탱크 차량(Tank vehicle)은 허용된 방법에 따라 하역하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 모든 저장 탱크, 용제 이송 설비, 탱크 차량 또는 탱크 트럭, 그리고 하역 구조는 효과적으로 결속되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 이송 또는 저장 탱크, 하역 구조, 유조차, 탱크 트럭은 액체 이송 중 유입배관 또는 용기와 전기적으로 상호 연결되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 모든 탱크, 용기, 모터, 배관, 전선관, 뚜껑, 그리고 공정 내 건물 프레임은 전기적으로 함께 연결되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 모든 호스는 공급 라인과 배출이 있는 탱크 또는 용기에 접속하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 용제를 포함하는 용기 또는 탱크는 화재 시 초과된 내부 압력을 배출하기 위해 비상통기를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 4.9항 (1)호에 따라 보호되는 추출 공정에서 용기와 탱크에 대한 일반 및 비상통기의 총량은 &lt;표 1&gt;에서 보다 작아서는 안 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 모든 비상 배출 통기(Emergency relief vent)의 최저 높이는 지상 6.1 m 이상이어야 하며, 증기가 건물에 재 유입되지 않거나 탱크 또는 구조물의 국부 가열로부터 위험을 만들지 않는 위치에 설치되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(7) 차단밸브(Shutoff valve)는 용기와 탱크의 익류라인에 설치해서는 안 된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 비상통기는 추출기, 용제 작업 탱크, 미셀라 탱크, 용제-물 분리 탱크 등의 용기에 적용할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크의 하부에는 수동 차단 밸브를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 충분한 용량의 자동 비상 중력 냉각수 공급 탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.8.6 압력 용기 및 탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(7) 용제 탱크에 충분한 익류회수 라인이 설치되어 있지 않다면, 벌크 저장과 작업 탱크 사이의 용제 흐름은 스위치 또는 탱크의 과충전을 막기 위해 원격제 어장치를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) “상압저장탱크”라 함은 게이지 압력으로 3.43kPa(350mmH 2 O)미만의 압력에서 운전되는 저장용기를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) “고정식 지붕탱크(Cone or fixed roof tank, CRT)”라 함은 원추형으로 된고정식 지붕을 가지고 있는 상압저장탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) “부유식 지붕탱크(Floating roof tank, FRT)”라 함은 상하로 움직일 수있도록 된 부유식 지붕을 가지고 있는 상압저장탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) “저압저장탱크”라 함은 게이지 압력으로 3.43kPa(350mmH 2 O) 이상 및 98.1kPa(1kg/cm 2 )미만의 압력에서 운전되는 저장용기를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙”이라 한다) 제2편 제2 장 제4절(화학설비?압력용기 등)의 규정에 의거 작업환경 및 주위환경을 쾌적하게 유지할 수 있도록 하기 위하여 사업장내에 설치되는 저장탱크의 형식선정에 관한 기술적 사항을 정함을 목적으로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 작업환경 및 주위환경에 영향을 주는 위험물질을 저장하는 탱크에 대하여 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(마) “압력저장탱크”라 함은 게이지 압력으로 98.1kPa(1kg/cm 2 )이상의 압력에서 운전되는 저장용기를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;표 1&gt; 저장탱크의 형식 선정기준 </t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고정식 지붕탱크 고정식 지붕탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>고정식 지붕탱크 부유식 지붕탱크 또는 고정식 지붕탱크와 증기처리설비</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>부유식 지붕탱크 또는 고정식 지붕탱크와 증기처리설비</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부유식 지붕탱크 또는 고정식 지붕탱크와 증기처리설비 </t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">압력저장탱크 고압저장탱크 </t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>저압저장탱크 또는 고정식 지붕탱크와 증기처리설비</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저압저장탱크 또는 고정식 지붕탱크와 증기처리설비 </t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>저장탱크의 형식선정은 &lt;표 1&gt;의 선정기준에 의한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>탱크의 용량</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 증기처리설비를 설치하는 경우에는 상압저장탱크 내부의 압력이 설계압력 이하에서 운전될 수 있도록 조치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>(3) 증기처리설비와 상압저장탱크 사이에는 차단밸브를 설치하여서는 안된다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">다만, 차단밸브가 잠긴 상태에서 상압저장탱크의 내부에 압력이 형성되지 않도록 된 경우에는 그러하지 아니한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 산업안전보건기준에관한규칙(이하 “안전보건규칙”이라 한다) 제225조(위험 물질 등의 제조 등 작업시의 조치) 및 제256조(부식방지)의 규정에 의하여 부식성물 질인 진한황산 및 발연황산을 액체상태로 저장하는 상압저장탱크의 공정설계에 필요한 사항을 정하여 황산저장탱크에서의 다양한 형태의 부식으로 인한 폭발 및 부식성 물질의 누출예방을 위한 기술지침을 정함을 목적으로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 안전보건규칙 별표 1(위험물질의 종류) 제6호의 부식성물질중 온도 40 ℃ 이하의 진한황산 및 발연황산을 저장하는 금속재질로 제작된 상압저장탱크에 적용하며 탱크내부를 라이닝(Lining) 처리한 경우에는 적용하지 아니한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 진한황산 및 발연황산 저장탱크의 설계압력 및 온도는 KOSHA GUIDE “상압저 장탱크의 공정설계 기술지침”에 따른다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크 및 그 부속설비의 재질로는, 가장 낮은 사용온도에서 충분한 노치 충격강도(Notch impact strength)를 갖고 있는 킬드강 이상의 재질을 사용하는 것이 좋다. 다만, 탄소강 재질은 농도 80～88 % 및 99.5～100.5 % 사이의 황산저 장탱크 재질로 적절하지 않으므로 &lt;표 1&gt;을 참고하여 합금강 재질을 선정하며, 재질번호에 따른 재질의 명칭 및 그 조성은 &lt;부록&gt;과 같다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 황산저장탱크의 옆판의 최소 두께를 계산할 때에는 황산의 비중을 2로 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 탄소강은 농도가 70% 이하인 황산과 접촉하면 심하게 부식되고 수소가 발생되므로 진한황산저장탱크에 물이 들어가지 않도록 하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(6) 황산저장탱크 및 그 부속설비에서 철 성분에 의한 오염이 문제되는 경우에는 황산저장탱크 내부에 적절한 재질로 피복하여 사용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(7) 농도 93～98 %의 황산저장탱크에는 양극부식을 적용하여 탄소강 재질의 부식속 도를 줄일 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>주1) 온도 40 ℃ 이하의 진한황산 및 발연황산 저장탱크에 적용주2) 괄호안의 재질번호는 UNS(Unified numbering system for metal and alloyes) 번호를 의미함주3) 황산농도 100.5%는 2%의 발연황산으로, 황산과 발연황산의 농도는 다음과 같은 관계식으로환산함.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>(1) 보온 처리된 황산저장탱크는 수분의 침투로 인하여 보온재 밑 부분에서 부식이 발생한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>(1) 진한황산은 대기중의 수분을 흡수하거나, 빗물이 탱크안으로 침투하거나 탱크내부 청소를 잘못하여 묽은황산으로 희석되면 탄소강 재질의 부식을 촉진시킨다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 지붕에 설치된 수평 맨홀 및 노즐, 탱크 상부, 탱크 내부의 기울어진 면, 기울기가 있는 배관 등에서는 수소취성에 의한 부풀음 현상이 발생할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 황산저장탱크의 인입 및 출구 측 부위에서는 침식 및 부식이 발생할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">따라서 황산저장탱크의 통기설비 기능을 향상시켜 수분의 유입을 차단 되도록한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크의 상부에 인입 노즐을 설치하는 경우에는 &lt;그림 1&gt;과 같이 탱크 안으로 최소한 15 ㎝ 들어가도록 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크의 출구 노즐은 탱크의 옆판 또는 밑판에 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>(1) 황산저장탱크의 통기설비는 탱크의 최상부에 설치하여 수소가 탱크내에 갇혀 있지 않도록 한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 황산저장탱크의 상부에 인입 노즐을 설치하는 경우에는 지붕 중앙가까이 설치하여 양 옆판의 부식을 최소화한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 황산저장탱크의 출구 노즐에 연결된 출구 배관에는 탱크 가까이 출구 밸브를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 황산저장탱크의 지붕 중앙 가까이 인입 노즐을 설치할 수 없는 경우에는 &lt;그림 2&gt;와 같이 인입 노즐을 가급적 옆판으로부터 멀리 설치하고 탱크 밑판의 웨어 </t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5. 탱크 설계 </t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크에 접근이 용이하도록 맨홀을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크의 지붕은 자체적으로 지지될 수 있어야 하며 지붕의 지지 거더는외부에 설치하여야 한다. 다만, 탱크의 지름이 큰 경우에는 내부 지지대를 사용할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 노즐이 옆판에 설치되어 있는 경우에는 수소 부풀음 현상을 방지할 수 있도록노즐의 도출 부위를 &lt;그림 3&gt; 및 &lt;그림 4&gt;와 같이 황산에 견딜 수 있는 재질 (&lt;표 1&gt; 황산농도별 합금강 재질 선택기준 참조)을 사용하여 상부 180° 또는 360° 돌아가면서 탱크 옆판 보다 25 ㎜ 탱크 안쪽으로 들어가도록 내피복 하거나 또는 크래딩 재질을 사용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 통기설비는 수분의 유입이 최소화되도록 설계하여야 하며, 필요한 경우 황산저장 탱크에 질소 봉입 시설을 설치하거나 또는 황산저장탱크의 대기 벤트 배관에 탈습제(데시칸트)를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 황산저장탱크의 옆판과 지붕을 용접하는 경우에는 지붕이 이탈되기 쉽도록 &lt;그림 5&gt;와 같이 완전하게 용접하지 않는다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.6 탱크의 지붕 </t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고정식지붕탱크인 경우, 인입 및 출구 배관 바로 밑 부분의 탱크밑판에 웨어 플레이트를 밀폐(Seal) 용접한다(&lt;그림 2&gt; 및 &lt;그림 3&gt; 참조). </t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>(1) 모든 노즐 및 맨홀의 용접은 완전 용입 되도록 용접하여야 하며 탱크의 내부 및 외부에서 양면 용접하여야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>(1) 황산저장탱크에는 관형유리액면계(Tubular gage glasses)를 제외한 차압 (Differential pressure)식 액면계, 초음파(Sonar)식 액면계, 방사선(Radiation)식액면계, 정전용량 (Capacitance)식 액면계 또는 부유(Float)식 액면계를 설치한 다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.1 탱크 밑판 두께 </t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">탄소강 재질의 탱크 밑판 최소 두께는 13 ㎜ 로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크 주위에는 세안 및 세척 시설을 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 황산저장탱크에는 KOSHA GUIDE “방유제 설치에 관한 기술지침”에 따라 방유제를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 세안 및 세척에 사용된 물이 황산 저장탱크로 향하지 않도록 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 탱크의 밑판은 맞대기 용접을 한다. 겹치기 용접은 탱크 밑판의 제작에 적용해서는 아니된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 탱크의 지붕은 맞대기 용접 또는 겹치기 용접을 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5) 탱크의 밑판과 옆판은 완전 용입 되도록 용접하며 작은 보강판을 사용하여 양쪽에서 용접한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 황산저장탱크 주위에는 적절한 개인 보호구를 설치한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 탱크트럭, 레일카 또는 선박에서 저정탱크로 하역할 때의 하역배관(저장탱크에서 탱크트럭 등으로 흐르지 않도록 설치할 필요가 있는 경우) </t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>(라) 저장탱크에서 탱크트럭, 레일카 또는 선박으로 출고할 때 한 방향으로 흐르도록 의도된 균압배관(저장탱크에서 탱크트럭 등으로 흐르지 않도록 설치할 필요가 있는 경우)</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) “통기설비”라 함은 탱크의 정상운전을 위해 설치한 통기관, 통기밸브 등을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) “비상통기설비(Emergency venting device)”라 함은 탱크 주변의 화재로 인해 일시에 발생되는 많은 양의 가스?증기 등을 방출할 수 있는 긴급벤트커버 (Emergency vent cover), 비상압력방출용 게이지해치(Gauge hatch) 등을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) “통기관(Vent)”이라 함은 탱크가 진공 또는 가압 상태가 되지 않도록 대기로 개방된 배관을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) “통기밸브(Breather valve)”라 함은 평상시에 닫힌 상태로 있다가 탱크의 압력이 미리 설정된 압력에 도달하면 밸브가 열려 탱크 내부의 가스?증기 등을 외부로 방출하고 탱크 내부로 외부 공기를 흡입하는 밸브를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(마) “긴급벤트커버(Emergency vent cover)”라 함은 평상시에는 닫힌 상태로 있다가 탱크의 압력이 설정 압력에 도달되었을 때 자동으로 열리면서 많은 양의 가스?증기 등을 방출하도록 탱크의 맨홀 등에 설치된 긴급벤트커버를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 인화성 물질을 또는 인화점이 60 ℃를 초과하는 물질을 인화점 이상에서 저장?취급하는 대기압 탱크의 통기설비에 적용한다. 단, 운전압력이 완전 진공인 탱크와 저압 탱크까지의 탱크에도 적용할 수 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침은 인화성물질 등을 저장?취급하는 고정식 지붕탱크 및 용기(이하 “탱크”라 한다)의 통기설비 설치 등에 필요한 사항을 제시하는데 그 목적이 있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) 정상운전 시에 탱크 내?외부로 흡입?배기하여야 하는 통기량은 탱크에서 저장?취급하는 유체의 이동에 의한 통기량에 온도 변화로 인한 통기량을 가산하 여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(바) “비상압력방출용 게이지해치(Gauge hatch)”이라 함은 평상시에는 닫힌 상태로 있다가 탱크의 압력이 설정 압력에 도달되었을 때 자동으로 열리면서 많은 양의 가스?증기 등을 방출하도록 탱크에 설치된 게이지해치를 말하고, 비상압력 방출용으로 설치된 게이지해치는 클램프에 의해 고정되지 않는 구조이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(사) “고정식 지붕탱크 (Cone roof tank, CRT)”라 함은 원추형으로 된 고정식 지붕을 갖는 대기압 탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(아) “대기압 탱크”라 함은 운전 압력 20 kPa(gauge) 미만에서 인화성물질 등을 저장?취급하는 탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(자) “저압 탱크”라 함은 운전 압력 101.3 kPa(gauge) 미만에서 인화성물질 등을 저장?취급하는 탱크를 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(차) “누출물 임시 저장시설”이라 함은 인화성 물질 등의 저장탱크로부터 일정한 거리에 설치한 웅덩이(Impounding area) 등과 같이 인화성 물질 등이 누출될 경우 이를 유도하여 임시로 저장할 수 있는 시설을 말한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 외부에서 인화점 38 ℃ 미만 또는 비점이 149 ℃ 미만인 물질을 탱크 내부로이송할 때의 배기통기량은 &lt;식 2&gt;에 의하여 산출한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 외부에서 인화점 38 ℃이상 또는 비점이 149 ℃이상인 물질을 탱크 내부로 이송할 때의 배기통기량은 &lt;식 3&gt;에 의하여 산출한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 탱크의 내부 액체 접촉면적(A)은 다음과 같이 계산한다. 다만, 지면과 직접 접촉 되는 탱크의 바닥면적은 내부 액체 접촉면적에서 제외한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 타원형 또는 구형 탱크인 경우에는 전체 표면적의 55 % 또는 높이 9 m까지의 표면적 중 큰 수치를 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(나) 수평 탱크인 경우에는 전체 표면적의 75 % 또는 높이 9 m까지의 표면적 중큰 수치를 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(다) 수직탱크인 경우에는 높이 9 m까지 동체 측의 전체 표면적을 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>2) 배출로는 탱크로부터 1% 이상의 경사면을 가져야 하며 적어도 15 m 이상 되어야 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배수로(웅덩이)의 용량은 배수가 가능한 가장 큰 탱크의 용량 이상이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 다음과 같은 인화성 물질 등을 저장?취급하고 있는 탱크의 통기관에는 통기밸브를 설치하여야 한다. 다만 저장?취급하는 물질이 응축, 부식, 결정, 중합 또는 결빙되는 성질이 있어 통기밸브가 막힐 우려가 있을 경우에는 설치를 생략할 수있다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>(가) 직경은 32 ㎜ 이상이어야 한다. 다만, 탱크의 용량, 내용물의 증기압, 유입 및유출되는 양에 따라 4.1항의 정상운전의 통기관을 만족하는 경우에는 그러하지 아니 하다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>(나) 빗물 등이 저장탱크 내로 들어가지 않도록 설치한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">정상운전 시의 통기설비로 외부 화재로 인해 탱크에서 발생되는 비상배기량을 방출시킬 수 없는 경우에는 다음과 같은 비상통기설비를 설치하여야 하며, 비상통기설 비의 배기량은 4.2항의 비상배기량 이상이어야 한다. 다만, 이상 압력 상승 시 탱크의 지붕이 분리되도록 제작한 경우에는 비상통기설비를 설치한 것으로 본다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">파열판의 크기 산정 및 설치 등에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 반응기, 저장탱크 등과 같이 대량의 독성물질이 지속적으로 외부로 유출될 수 있는 구조로 된 경우에는 파열판과 안전밸브를 직렬로 설치하고, 파열판과 안전밸브 사이에는 경보장치를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>(2) 상압탱크, 저압탱크, 압력탱크, 이동식탱크, 호퍼, 사일로 등 저장설비</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(4) 탱크 하부에 체류하여 펌프로 이송할 수 없는 경우를 고려해야 하며 액체 층의높이가 최대 높이를 초과하면, 이송 펌프 등이 자동으로 작동되어 별도의 처리공간으로 이송되어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>(1) 통기관이 설치된 고정식 지붕탱크의 설계압력은 양압 750 Pa(0.0076 kgf/㎠), 진공압력 250 Pa(0.0025 kgf/㎠) 이내로 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>(2) 불활성가스 봉입시설이 설치된 고정식 지붕탱크의 설계압력은 양압 2,000 Pa(0.0204 kgf/㎠), 진공압력 600 Pa(0.0061 kgf/㎠) 이내로 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(3) 부유식 지붕탱크의 설계압력은 양압 2,000 Pa(0.0204 kgf/㎠), 진공압력 250 Pa(0.0025 kgf/㎠)이내로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.2 탱크(Tank) </t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 스팀을 사용하여 상압저장탱크를 청소할 필요가 있는 경우에는 설계온도를 120 ℃로 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(11) 상압저장탱크에는 과압 방지를 위하여 벤트, 일류(Overflow), 두 개의 최고 수위 경보(High level alarm) 또는 차단(Shutdown) 시스템과 API 과압방지기(Overpressure protection)를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>(2) 도달압력은 유체가 펌프를 통해 공급되는 용기 또는 탱크의 최고운전압력을 말한다. 여기서 최고운전압력은 설계압력을 의미하지 않는다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(가) 반응기?혼합조 등 반응 또는 혼합장치 (나) 증류탑?흡수탑?추출탑?감압탑 등 분리장치 (다) 저장탱크?계량탱크 등 (라) 응축기?냉각기?가열기?증발기 등 열교환기류 (마) 고로 등 점화기를 직접 사용하는 열교환기류 </t>
         </is>
       </c>
     </row>

--- a/Temp_DB.xlsx
+++ b/Temp_DB.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C750"/>
+  <dimension ref="A1:C768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (나) “자동긴급차단밸브(automatic emergency shutoff valve)”란 배관상에 설치되어 운전조건 이상 시 자동으로 유체의 흐름을 차단하는 밸브를 말한다.</t>
+          <t>(가) “긴급차단밸브(ESV, emergency shutoff valve)”란 배관상에 설치되어 주위의 화재 또는 배관에서 위험물질 누출 시 원격조작스위치를 누르면 공기 또는 전기 등의 구동원에 의하여 유체의 흐름을 원격으로 차단할 수 있는 밸브를 말한다.</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(가) “긴급차단밸브(ESV, emergency shutoff valve)”란 배관상에 설치되어 주위의 화재 또는 배관에서 위험물질 누출 시 원격조작스위치를 누르면 공기 또는 전기 등의 구동원에 의하여 유체의 흐름을 원격으로 차단할 수 있는 밸브를 말한다.</t>
+          <t xml:space="preserve">이 지침은 위험물질 및 관리대상 유해물질의 흐름을 차단할 수 있는 긴급차단밸브 설치에 관한 지침을 정하여 운전조건의 이상, 주위의 화재 또는 위험물질 등의 누출로 인한 2차적인 재해를 예방하는데 필요한 사항을 정하는데 그 목적이 있다. </t>
         </is>
       </c>
     </row>
@@ -1358,12 +1358,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 위험물질 및 관리대상 유해물질의 흐름을 차단할 수 있는 긴급차단밸브 설치에 관한 지침을 정하여 운전조건의 이상, 주위의 화재 또는 위험물질 등의 누출로 인한 2차적인 재해를 예방하는데 필요한 사항을 정하는데 그 목적이 있다. </t>
+          <t xml:space="preserve">긴급차단밸브는 다음과 같은 기준에 적합하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1) 긴급차단밸브 본체는 배관의 설계압력 및 설계온도에 견딜 수 있어야 한다. 특히, </t>
+          <t>? (1) 다음 각 목의 저장탱크 인입 및 출구배관. 다만, 인입배관에 역지밸브(check valve) 등과 같이 역류방지를 위한 조치를 하였을 경우에는 그러하지 아니하다.</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">긴급차단밸브는 다음과 같은 기준에 적합하여야 한다. </t>
+          <t xml:space="preserve">? (2) 긴급차단밸브는 전기 또는 공기 등의 구동용 동력원 공급 차단 시 닫히는 구조이어야 한다. </t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>? (1) 다음 각 목의 저장탱크 인입 및 출구배관. 다만, 인입배관에 역지밸브(check valve) 등과 같이 역류방지를 위한 조치를 하였을 경우에는 그러하지 아니하다.</t>
+          <t xml:space="preserve">? (3) 화재발생가능지역에 설치되는 긴급차단밸브로서 공정 특성상 구동용 전기 또는 공기 등의 구동용 동력이 공급되어야만 긴급차단밸브가 차단되도록 제작된 경우에는 긴급차단밸브 구동용 전기 또는 공기 등의 공급도관은 화재 시 15분 이상, 구동기 (Actuator)는 화재 발생시 15분 이상 화염에 견딜 수 있도록 내화조치를 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (2) 긴급차단밸브는 전기 또는 공기 등의 구동용 동력원 공급 차단 시 닫히는 구조이어야 한다. </t>
+          <t xml:space="preserve">? (4) 긴급차단밸브는 화재 발생 시 빨리 닫힐 수 있어야 하며 누출이 없어야 한다. 일반 적으로 밸브를 닫는 데 걸리는 시간은 조작 후 1분 이내로 권장된다. </t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (3) 화재발생가능지역에 설치되는 긴급차단밸브로서 공정 특성상 구동용 전기 또는 공기 등의 구동용 동력이 공급되어야만 긴급차단밸브가 차단되도록 제작된 경우에는 긴급차단밸브 구동용 전기 또는 공기 등의 공급도관은 화재 시 15분 이상, 구동기 (Actuator)는 화재 발생시 15분 이상 화염에 견딜 수 있도록 내화조치를 하여야 한다. </t>
+          <t xml:space="preserve">? (5) 긴급차단밸브 등의 재질은 취급유체에 대하여 내식성 및 내마모성을 갖는 재질이어야 한다. </t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (4) 긴급차단밸브는 화재 발생 시 빨리 닫힐 수 있어야 하며 누출이 없어야 한다. 일반 적으로 밸브를 닫는 데 걸리는 시간은 조작 후 1분 이내로 권장된다. </t>
+          <t xml:space="preserve">? 긴급차단밸브를 설치하여야 할 대상은 다음과 같다. </t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (5) 긴급차단밸브 등의 재질은 취급유체에 대하여 내식성 및 내마모성을 갖는 재질이어야 한다. </t>
+          <t xml:space="preserve">화재발생가능지역에 설치되는 긴급차단밸브 본체는 화재 시 화염에 견딜 수 있는 재질로 제작하여야 한다. 다만, 공정 특성상 화염에 견딜 수 있는 재질로 긴급차단 밸브의 제작이 곤란한 경우에는 화염에 견딜 수 있도록 긴급차단밸브에 내화조치 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">? 긴급차단밸브를 설치하여야 할 대상은 다음과 같다. </t>
+          <t xml:space="preserve">(5) 가열로(heater)의 원료공급 배관 및 연료공급배관. 원료공급 배관의 파손에 의한 화재 등의 위험성이 작거나 긴급차단밸브를 설치하는 것이 다른 위험을 일으킬 우려가 있을 때에는 원료공급 배관에 긴급차단밸브를 설치하지 아니할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">화재발생가능지역에 설치되는 긴급차단밸브 본체는 화재 시 화염에 견딜 수 있는 재질로 제작하여야 한다. 다만, 공정 특성상 화염에 견딜 수 있는 재질로 긴급차단 밸브의 제작이 곤란한 경우에는 화염에 견딜 수 있도록 긴급차단밸브에 내화조치 하여야 한다. </t>
+          <t xml:space="preserve">? (1) 저장탱크, 탑류 및 용기(이하 “용기 등”이라 한다)의 배관에 설치되는 긴급차단밸브는 가능한 한 &lt;그림 2&gt;와 같이 용기 등에 가깝게 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 가열로(heater)의 원료공급 배관 및 연료공급배관. 원료공급 배관의 파손에 의한 화재 등의 위험성이 작거나 긴급차단밸브를 설치하는 것이 다른 위험을 일으킬 우려가 있을 때에는 원료공급 배관에 긴급차단밸브를 설치하지 아니할 수 있다. </t>
+          <t xml:space="preserve">? (2) 발열반응기의 원료공급배관에 설치되는 긴급차단밸브는 &lt;그림 3&gt;과 같이 가능한한 반응기에 가깝게 설치하여야 하고, 가능한 한 자동긴급차단밸브를 설치하여야 한다. 여러 종류의 원료가 공급될 경우 반응에 직접적인 영향을 미치는 원료의 공급배관에만 긴급차단밸브를 설치할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (1) 저장탱크, 탑류 및 용기(이하 “용기 등”이라 한다)의 배관에 설치되는 긴급차단밸브는 가능한 한 &lt;그림 2&gt;와 같이 용기 등에 가깝게 설치하여야 한다. </t>
+          <t xml:space="preserve">&lt;그림 2&gt; 용기 등의 배관에 설치하는 긴급차단밸브 </t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (2) 발열반응기의 원료공급배관에 설치되는 긴급차단밸브는 &lt;그림 3&gt;과 같이 가능한한 반응기에 가깝게 설치하여야 하고, 가능한 한 자동긴급차단밸브를 설치하여야 한다. 여러 종류의 원료가 공급될 경우 반응에 직접적인 영향을 미치는 원료의 공급배관에만 긴급차단밸브를 설치할 수 있다. </t>
+          <t xml:space="preserve">역지밸브(check valve) 등과 같이 역류방지를 위한 조치를 하였을 경우에는 그러하지 아니하다. </t>
         </is>
       </c>
     </row>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 2&gt; 용기 등의 배관에 설치하는 긴급차단밸브 </t>
+          <t xml:space="preserve">(3) 가열로의 원료공급배관 및 연료공급배관에 설치되는 긴급차단밸브는 &lt;그림 4&gt;와 같이 가능한 한 가열로에 가깝게 설치하여야 한다. 또한 원료공급배관에는 역류의 위험성을 검토하여 가열로 출구측 배관에 역지밸브 또는 긴급차단밸브를 설치하여야 한다. 만약 가열로 출구측 배관에 긴급차단밸브를 설치할 경우에는 밸브 차단에 의한 안전밸브 설치를 검토하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">역지밸브(check valve) 등과 같이 역류방지를 위한 조치를 하였을 경우에는 그러하지 아니하다. </t>
+          <t>(4) 보일러, 소각로 등의 연소설비의 연료공급배관에 설치되는 긴급차단밸브는 &lt;그림 4&gt;의 가열로의 연료공급배관과 같이 가능한 한 해당설비에 가깝게 설치하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 가열로의 원료공급배관 및 연료공급배관에 설치되는 긴급차단밸브는 &lt;그림 4&gt;와 같이 가능한 한 가열로에 가깝게 설치하여야 한다. 또한 원료공급배관에는 역류의 위험성을 검토하여 가열로 출구측 배관에 역지밸브 또는 긴급차단밸브를 설치하여야 한다. 만약 가열로 출구측 배관에 긴급차단밸브를 설치할 경우에는 밸브 차단에 의한 안전밸브 설치를 검토하여야 한다. </t>
+          <t xml:space="preserve">&lt;그림 3&gt; 용기 등의 배관에 설치하는 긴급차단밸브 </t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(4) 보일러, 소각로 등의 연소설비의 연료공급배관에 설치되는 긴급차단밸브는 &lt;그림 4&gt;의 가열로의 연료공급배관과 같이 가능한 한 해당설비에 가깝게 설치하여야 한다.</t>
+          <t xml:space="preserve">&lt;그림 4&gt; 가열로의 원료공급배관 및 연료공급배관에 설치하는 긴급차단밸브 </t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 3&gt; 용기 등의 배관에 설치하는 긴급차단밸브 </t>
+          <t>(나) 긴급차단밸브에서 수평방향으로 7.5 m(25 ft) 이상이고 30 m(100 ft) 이내에 있어야 한다.</t>
         </is>
       </c>
     </row>
@@ -1664,12 +1664,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 4&gt; 가열로의 원료공급배관 및 연료공급배관에 설치하는 긴급차단밸브 </t>
+          <t>(라) 가열로, 보일러 등의 연소설비의 연료배관에 설치하는 경우에는 긴급 소화용 수증기(emergency snuffing steam) 공급밸브 근처에 설치하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(나) 긴급차단밸브에서 수평방향으로 7.5 m(25 ft) 이상이고 30 m(100 ft) 이내에 있어야 한다.</t>
+          <t>? (5) 기차, 선박, 탱크로리 등의 하역용 배관에 설치되는 긴급차단밸브는 &lt;그림 5&gt;와 같이 가능한 한 하역용 호스 또는 하역설비(로딩 암 등)에 가깝게 설치하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(라) 가열로, 보일러 등의 연소설비의 연료배관에 설치하는 경우에는 긴급 소화용 수증기(emergency snuffing steam) 공급밸브 근처에 설치하는 것이 좋다.</t>
+          <t>? (6) 긴급차단밸브 조작용 원격조작스위치는 조정실(control room)에 설치하거나 또는 운전자가 안전하고 쉽게 조작할 수?있도록 아래와 같은 사항이 모두 만족되도록 설치되어야 한다.</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>? (5) 기차, 선박, 탱크로리 등의 하역용 배관에 설치되는 긴급차단밸브는 &lt;그림 5&gt;와 같이 가능한 한 하역용 호스 또는 하역설비(로딩 암 등)에 가깝게 설치하여야 한다.</t>
+          <t xml:space="preserve">&lt;그림 5&gt; 하역용 배관에 설치하는 긴급차단밸브 </t>
         </is>
       </c>
     </row>
@@ -1732,12 +1732,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>? (6) 긴급차단밸브 조작용 원격조작스위치는 조정실(control room)에 설치하거나 또는 운전자가 안전하고 쉽게 조작할 수?있도록 아래와 같은 사항이 모두 만족되도록 설치되어야 한다.</t>
+          <t xml:space="preserve">(3) 긴급차단밸브는 반기 1회 이상 주기적인 점검을 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 5&gt; 하역용 배관에 설치하는 긴급차단밸브 </t>
+          <t xml:space="preserve">? (1) 긴급차단밸브는 연 1회 이상 주기적인 작동시험을 하여야 한다. 다만, 연속으로 운전되는 설비 중 운전 중 시험이 곤란한 경우에는 회로시험 등을 통해 수행할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -1771,41 +1771,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 긴급차단밸브는 반기 1회 이상 주기적인 점검을 하여야 한다. </t>
+          <t xml:space="preserve">? (2) 공장의 가동 정지(연차보수) 시에는 긴급차단밸브에 대하여 정밀 시험 및 점검을실시하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (1) 긴급차단밸브는 연 1회 이상 주기적인 작동시험을 하여야 한다. 다만, 연속으로 운전되는 설비 중 운전 중 시험이 곤란한 경우에는 회로시험 등을 통해 수행할 수 있다. </t>
+          <t>(나) “이중차단밸브(Block valves)”란 밸브를 개방 전 연결 또는 닫힌 후 분리되는 시스템의 구간에 허용되는 차단밸브의 한 쌍을 말한다.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">? (2) 공장의 가동 정지(연차보수) 시에는 긴급차단밸브에 대하여 정밀 시험 및 점검을실시하여야 한다. </t>
+          <t>(3) 압력방출 장치는 압력에 의해 직접 작동되거나 파일로트(Pilot)로 조작되어야 한다. 파이로트 조작 압력방출 밸브는 독립 작동이고, 주 밸브는 설정압력에서 자동 적으로 열리며, 파이로트의 일부분이 고장이라면 최대 속도로 방출하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(나) “이중차단밸브(Block valves)”란 밸브를 개방 전 연결 또는 닫힌 후 분리되는 시스템의 구간에 허용되는 차단밸브의 한 쌍을 말한다.</t>
+          <t>(4) 스톱밸브는 압력방출 장치와 보호되는 시스템 부분 사이에 위치해서는 안 된다. 이중 안전밸브가 사용된다면, 3방 밸브는 스톱 밸브를 고려할 필요가 없다.</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(3) 압력방출 장치는 압력에 의해 직접 작동되거나 파일로트(Pilot)로 조작되어야 한다. 파이로트 조작 압력방출 밸브는 독립 작동이고, 주 밸브는 설정압력에서 자동 적으로 열리며, 파이로트의 일부분이 고장이라면 최대 속도로 방출하여야 한다.</t>
+          <t>(5) 안전밸브가 공통 방출 헤더로 방출하기 위해 연결되었다면, 전면 스톱밸브는 릴리프밸브와 공통 헤더 사이의 방출 배관에 설치할 수 있다. 스톱밸브가 설치될 때, 스톱밸브가 열림 위치에서 잠금을 확인할 수 있도록 잠금 장치를 설치하여야 한다. 방출 스톱밸브는 다음 조건 중의 하나가 있지 않다면 닫지 않아야 한다.</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(4) 스톱밸브는 압력방출 장치와 보호되는 시스템 부분 사이에 위치해서는 안 된다. 이중 안전밸브가 사용된다면, 3방 밸브는 스톱 밸브를 고려할 필요가 없다.</t>
+          <t>(가) 병렬 안전밸브가 시스템 또는 용기를 보호하도록 설치됨</t>
         </is>
       </c>
     </row>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(5) 안전밸브가 공통 방출 헤더로 방출하기 위해 연결되었다면, 전면 스톱밸브는 릴리프밸브와 공통 헤더 사이의 방출 배관에 설치할 수 있다. 스톱밸브가 설치될 때, 스톱밸브가 열림 위치에서 잠금을 확인할 수 있도록 잠금 장치를 설치하여야 한다. 방출 스톱밸브는 다음 조건 중의 하나가 있지 않다면 닫지 않아야 한다.</t>
+          <t>(1) 압력방출 밸브는 보호된 시스템의 설계압력을 초과하지 않는 압력에서 기능이 작동되어야 한다.</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(가) 병렬 안전밸브가 시스템 또는 용기를 보호하도록 설치됨</t>
+          <t>(2) 시스템의 저압측으로 방출하는 압력방출 밸브의 경우, 단일 안전밸브는 0.285 ㎥ (10 ft 3 ) 이상 용기에 사용될 수 없다.</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>(1) 압력방출 밸브는 보호된 시스템의 설계압력을 초과하지 않는 압력에서 기능이 작동되어야 한다.</t>
+          <t xml:space="preserve">(2) 파열판(Member)은 보호된 시스템 부분의 설계압력을 초과하지 않도록 파열 압력을 설정하여야 한다. 안전밸브의 전단에 설치된 파열판 크기는 안전밸브 입구 크기 이상이어야 한다. </t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>(2) 시스템의 저압측으로 방출하는 압력방출 밸브의 경우, 단일 안전밸브는 0.285 ㎥ (10 ft 3 ) 이상 용기에 사용될 수 없다.</t>
+          <t>(다) 0.285 ㎥(10 ft 3 ) 이상의 압력 용기는 하나 이상의 파열판 또는 이중 압력방출 밸브를 사용해야 한다. 이중 압력방출 밸브는 시험 또는 수리를 할 수 있도록삼방 밸브로 설치한다.</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 파열판(Member)은 보호된 시스템 부분의 설계압력을 초과하지 않도록 파열 압력을 설정하여야 한다. 안전밸브의 전단에 설치된 파열판 크기는 안전밸브 입구 크기 이상이어야 한다. </t>
+          <t>(라) 단일 안전밸브는 0.285 ㎥(10 ft 3 ) 이상의 압력 용기에 사용할 수 있으며, 다음을 만족하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>(다) 0.285 ㎥(10 ft 3 ) 이상의 압력 용기는 하나 이상의 파열판 또는 이중 압력방출 밸브를 사용해야 한다. 이중 압력방출 밸브는 시험 또는 수리를 할 수 있도록삼방 밸브로 설치한다.</t>
+          <t>① 안전밸브는 시스템의 저압측에 위치한다.</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>(라) 단일 안전밸브는 0.285 ㎥(10 ft 3 ) 이상의 압력 용기에 사용할 수 있으며, 다음을 만족하여야 한다.</t>
+          <t>② 압력 용기의 냉매 충진 펌프를 정지 할 수 있도록 차단 밸브가 제공되어야 한다.</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>① 안전밸브는 시스템의 저압측에 위치한다.</t>
+          <t>(5) 압력방출 밸브와 시스템 부분 사이 모든 배관과 부속류는 압력방출 밸브 입구 면적 이상이어야 한다.</t>
         </is>
       </c>
     </row>
@@ -2004,12 +2004,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>② 압력 용기의 냉매 충진 펌프를 정지 할 수 있도록 차단 밸브가 제공되어야 한다.</t>
+          <t>(1) 103.4 kPa(15 psig) 이상 내부 또는 외부 설계압력을 가지는 냉매 배관, 밸브, 부속류 및 관련 부분은 공인기관의 시험을 거쳐야 한다.</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(5) 압력방출 밸브와 시스템 부분 사이 모든 배관과 부속류는 압력방출 밸브 입구 면적 이상이어야 한다.</t>
+          <t>(3) 모든 시스템은 필요시, 액체와 증기 전달 밸브, 전달 압축기 또는 펌프, 냉매 저장 탱크 또는 재순환, 재생 장치로부터 제거를 위해 밸브로 연결되어야 한다.</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>(1) 103.4 kPa(15 psig) 이상 내부 또는 외부 설계압력을 가지는 냉매 배관, 밸브, 부속류 및 관련 부분은 공인기관의 시험을 거쳐야 한다.</t>
+          <t xml:space="preserve">(3) 압력 제한 장치는 압력을 부과하는 부분과 배출 측의 스톱밸브 사이에 연결되어야 한다. 압력 제한 장치는 연결된 배관의 스톱밸브 기능을 방해해서는 안 된다. </t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>(3) 모든 시스템은 필요시, 액체와 증기 전달 밸브, 전달 압축기 또는 펌프, 냉매 저장 탱크 또는 재순환, 재생 장치로부터 제거를 위해 밸브로 연결되어야 한다.</t>
+          <t>(3) 액체 레벨 게이지 글라스 칼럼은 자동 차단 밸브를 가져야 한다. 모든 글라스 칼럼은 외부 손상으로부터 보호될 수 있어야 한다. 다만, Bull-eye 형태 액체 레벨게이지 글라스는 제외한다.</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 압력 제한 장치는 압력을 부과하는 부분과 배출 측의 스톱밸브 사이에 연결되어야 한다. 압력 제한 장치는 연결된 배관의 스톱밸브 기능을 방해해서는 안 된다. </t>
+          <t>(4) 3 kg(6.6 lb) 이상의 냉매를 포함 시스템은 다음 위치에서 스톱 밸브를 설치해야 한다.</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>(3) 액체 레벨 게이지 글라스 칼럼은 자동 차단 밸브를 가져야 한다. 모든 글라스 칼럼은 외부 손상으로부터 보호될 수 있어야 한다. 다만, Bull-eye 형태 액체 레벨게이지 글라스는 제외한다.</t>
+          <t xml:space="preserve">4.5 냉매 배관, 밸브 및 부속류 </t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>(4) 3 kg(6.6 lb) 이상의 냉매를 포함 시스템은 다음 위치에서 스톱 밸브를 설치해야 한다.</t>
+          <t>(3) 응축장치, 압축장치, 응축기, 스톱 밸브, 냉동 기계에는 비상정지, 검사, 서비스를 위해 접근 가능한 공간이 제공되어야 한다.</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.5 냉매 배관, 밸브 및 부속류 </t>
+          <t>(5) 50 kg(110 lb) 이상의 냉매를 포함하는 시스템은 다음 위치에서 스톱 밸브를 설치 해야 한다.</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>(3) 응축장치, 압축장치, 응축기, 스톱 밸브, 냉동 기계에는 비상정지, 검사, 서비스를 위해 접근 가능한 공간이 제공되어야 한다.</t>
+          <t xml:space="preserve">(6) 스톱 밸브는 흐름을 식별할 수 있도록 하여야 한다. 밸브 표식 문자는 12.7 mm(0.5 in) 높이 이상의 문자로 표기하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>(5) 50 kg(110 lb) 이상의 냉매를 포함하는 시스템은 다음 위치에서 스톱 밸브를 설치 해야 한다.</t>
+          <t>① 냉매 흐름, 통풍, 냉매 압축기를 관리하기 위한 밸브 또는 스위치</t>
         </is>
       </c>
     </row>
@@ -2174,12 +2174,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 스톱 밸브는 흐름을 식별할 수 있도록 하여야 한다. 밸브 표식 문자는 12.7 mm(0.5 in) 높이 이상의 문자로 표기하여야 한다. </t>
+          <t>(3) 안전밸브와 배관이 제공되지 않은 모든 용기에서 기계실에 저장된 냉매 총량은 150 kg(330 lb)를 초과할 수 없다.</t>
         </is>
       </c>
     </row>
@@ -2191,46 +2191,46 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>① 냉매 흐름, 통풍, 냉매 압축기를 관리하기 위한 밸브 또는 스위치</t>
+          <t>(가) 선적, 시험, 운전, 서비스, 예비 상태 동안 대기 부분에 포함되는 냉매를 연결하는 정지 밸브는 사용하지 않을 때 캡, 플러그, 밀폐된 잠금으로 처리되어야 한다.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>(3) 안전밸브와 배관이 제공되지 않은 모든 용기에서 기계실에 저장된 냉매 총량은 150 kg(330 lb)를 초과할 수 없다.</t>
+          <t xml:space="preserve">(5) 액체암모니아의 토출측 배관에는 배관파열 등으로 인한 암모니아의 누출을 방지할 수 있도록 원격조작이 가능한 긴급 차단밸브를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
+          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>(가) 선적, 시험, 운전, 서비스, 예비 상태 동안 대기 부분에 포함되는 냉매를 연결하는 정지 밸브는 사용하지 않을 때 캡, 플러그, 밀폐된 잠금으로 처리되어야 한다.</t>
+          <t xml:space="preserve">(7) 액체암모니아를 취급하는 배관에는 열팽창 안전밸브를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -2242,12 +2242,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 액체암모니아의 토출측 배관에는 배관파열 등으로 인한 암모니아의 누출을 방지할 수 있도록 원격조작이 가능한 긴급 차단밸브를 설치하여야 한다. </t>
+          <t xml:space="preserve">(9) 밸브는 일반적으로 플랜지형이어야 하며 탄소강으로 된 용접형의 밸브를 사용할 때는 충격시험에 합격한 것이어야 한다. </t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) 액체암모니아를 취급하는 배관에는 열팽창 안전밸브를 설치하여야 한다. </t>
+          <t xml:space="preserve">(1) 안전밸브의 토출측 배관 및 벤트배관 등에서 배출되는 암모니아가 대기로 방출되지 않도록 적절한 세정설비의 설치를 고려하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">(9) 밸브는 일반적으로 플랜지형이어야 하며 탄소강으로 된 용접형의 밸브를 사용할 때는 충격시험에 합격한 것이어야 한다. </t>
+          <t xml:space="preserve">저장설비는 진공상태에서 안전하게 운전될 수 있도록 진공방지 밸브를 설치하 여야 한다. </t>
         </is>
       </c>
     </row>
@@ -2293,12 +2293,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 안전밸브의 토출측 배관 및 벤트배관 등에서 배출되는 암모니아가 대기로 방출되지 않도록 적절한 세정설비의 설치를 고려하여야 한다. </t>
+          <t xml:space="preserve">(1) 안전밸브는 복수방식으로 설치하여야 하며 이 경우 저장설비와 안전밸브 사이의 차단밸브는 자물쇠형으로 하거나 또는 차단밸브를 기계적으로 연동시켜두개의 밸브가 동시에 닫히지 않도록 하여야 한다.  </t>
         </is>
       </c>
     </row>
@@ -2310,12 +2310,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장설비는 진공상태에서 안전하게 운전될 수 있도록 진공방지 밸브를 설치하 여야 한다. </t>
+          <t xml:space="preserve">6.3 안전밸브등 </t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 안전밸브는 복수방식으로 설치하여야 하며 이 경우 저장설비와 안전밸브 사이의 차단밸브는 자물쇠형으로 하거나 또는 차단밸브를 기계적으로 연동시켜두개의 밸브가 동시에 닫히지 않도록 하여야 한다.  </t>
+          <t xml:space="preserve">(2) 복수방식으로 안전밸브를 설치하는 경우 각 안전밸브의 크기는 총 배출용량을 각각 방출할 수 있어야 한다.  </t>
         </is>
       </c>
     </row>
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.3 안전밸브등 </t>
+          <t xml:space="preserve">(3) 안전밸브는 안전밸브의 부식을 방지하기 위한 파열판을 설치하여야 하며 안전밸브와 안전판 사이에 안전판의 파열 및 누출을 감지할 수 있는 압력지시 계를 설치하여야 한다. 다만, 안전밸브의 재질이 암모니아 부식에 대하여 안전한 재질을 사용할 경우에는 파열판을 설치하지 아니할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -2366,92 +2366,92 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 복수방식으로 안전밸브를 설치하는 경우 각 안전밸브의 크기는 총 배출용량을 각각 방출할 수 있어야 한다.  </t>
+          <t xml:space="preserve">(4) 안전밸브의 배출용량은 다음식에 의해 계산한다. </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+          <t>미압배관에서의 폭연 벤팅 설치에 관한 기술지침</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 안전밸브는 안전밸브의 부식을 방지하기 위한 파열판을 설치하여야 하며 안전밸브와 안전판 사이에 안전판의 파열 및 누출을 감지할 수 있는 압력지시 계를 설치하여야 한다. 다만, 안전밸브의 재질이 암모니아 부식에 대하여 안전한 재질을 사용할 경우에는 파열판을 설치하지 아니할 수 있다. </t>
+          <t>(나) 밸브，엘보우，기타 배관부속품 또는 장애물 등 난류를 발생시키어 화염의 가속과 압력의 급격한 상승을 일으킬 수 있는 상황을 가능한 한 줄인다.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 안전밸브의 배출용량은 다음식에 의해 계산한다. </t>
+          <t xml:space="preserve">(1) 방유제 내부의 빗물 등을 외부로 배출하기 위한 배수구를 설치하여야 하며, 이를 개폐하는 밸브 등을 방유제의 외부에 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>미압배관에서의 폭연 벤팅 설치에 관한 기술지침</t>
+          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>(나) 밸브，엘보우，기타 배관부속품 또는 장애물 등 난류를 발생시키어 화염의 가속과 압력의 급격한 상승을 일으킬 수 있는 상황을 가능한 한 줄인다.</t>
+          <t xml:space="preserve">(2) 개폐용 밸브 등은 빗물 등을 배출하는 경우를 제외하고는 항상 잠겨져 있어야 하며, 이를 쉽게 확인할 수 있는 잠금장치, 꼬리표 등을 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 방유제 내부의 빗물 등을 외부로 배출하기 위한 배수구를 설치하여야 하며, 이를 개폐하는 밸브 등을 방유제의 외부에 설치하여야 한다. </t>
+          <t>(마) “데드엔드 (Deadend)”라 함은 배관에 캡이나 블라인드 플랜지로 막았거나 드레인 밸브 전단의 배관과 같이 유체가 흐름이 없고 정체되어 있는 배관을 말한 다.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 개폐용 밸브 등은 빗물 등을 배출하는 경우를 제외하고는 항상 잠겨져 있어야 하며, 이를 쉽게 확인할 수 있는 잠금장치, 꼬리표 등을 설치하여야 한다. </t>
+          <t>(2) 입자상 물질들은 밸브 시트가 새는 원인이 될 수 있고, 밸브의 시트나 디스크에 손상을 줄 수 있으며, 오염물질들은 배관의 부식과 마모의 원인이 될 수 있다.</t>
         </is>
       </c>
     </row>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>(마) “데드엔드 (Deadend)”라 함은 배관에 캡이나 블라인드 플랜지로 막았거나 드레인 밸브 전단의 배관과 같이 유체가 흐름이 없고 정체되어 있는 배관을 말한 다.</t>
+          <t>(가) 안전밸브, 체크밸브 및 빠르게 동작하는 유량조절밸브와 차단밸브의 경우</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>(2) 입자상 물질들은 밸브 시트가 새는 원인이 될 수 있고, 밸브의 시트나 디스크에 손상을 줄 수 있으며, 오염물질들은 배관의 부식과 마모의 원인이 될 수 있다.</t>
+          <t>(라) 밸브의 스템, 핸드휠 및 조작자의 방향</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2497,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>(가) 안전밸브, 체크밸브 및 빠르게 동작하는 유량조절밸브와 차단밸브의 경우</t>
+          <t>(1) 안전한 밸브의 선정과 설치를 위하여 일반사양을 작성한다.</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>(라) 밸브의 스템, 핸드휠 및 조작자의 방향</t>
+          <t>(2) 밸브는 개·폐 (On/off), 조절(Throttling) 및 역류방지 등의 기능, 압력손실과 밸브의 허용 누수량에 따라 게이트, 볼, 글로브, 니들, 콕, 버터플라이 및 다이야프람 등형식을 선정하며, &lt;부록 1&gt;의 밸브 선정을 위한 가이드를 참조한다.</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>(1) 안전한 밸브의 선정과 설치를 위하여 일반사양을 작성한다.</t>
+          <t>(가) 개·폐(On/off) 밸브 : 게이트 밸브, 플러그 밸브 및 볼밸브</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>(2) 밸브는 개·폐 (On/off), 조절(Throttling) 및 역류방지 등의 기능, 압력손실과 밸브의 허용 누수량에 따라 게이트, 볼, 글로브, 니들, 콕, 버터플라이 및 다이야프람 등형식을 선정하며, &lt;부록 1&gt;의 밸브 선정을 위한 가이드를 참조한다.</t>
+          <t>(나) 조절 밸브 : 글로브 밸브, 버터플라이 밸브, 다이야프램 밸브 및 핀치밸브</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>(가) 개·폐(On/off) 밸브 : 게이트 밸브, 플러그 밸브 및 볼밸브</t>
+          <t>(다) 역지 밸브 : 체크밸브</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>(나) 조절 밸브 : 글로브 밸브, 버터플라이 밸브, 다이야프램 밸브 및 핀치밸브</t>
+          <t xml:space="preserve">(라) 혼합 밸브 : 자동조절밸브 및 솔레노이드 등 계기와 연동되는 밸브 </t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>(다) 역지 밸브 : 체크밸브</t>
+          <t xml:space="preserve">7. 밸브의 선정 등 </t>
         </is>
       </c>
     </row>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 혼합 밸브 : 자동조절밸브 및 솔레노이드 등 계기와 연동되는 밸브 </t>
+          <t>(1) 긴급차단밸브는 인화성 유체 또는 독성물질의 대량 손실을 막기 위하여 설치한다.</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2633,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. 밸브의 선정 등 </t>
+          <t>(3) 게이트밸브의 스템이나 버터플라이, 플러그와 볼밸브의 1/4 개도(Quarter turn)와 같이 밸브가 열리고 닫침을 시각적으로 알 수 있도록 하는 것이 안전상 도움이 되며, 필요한 경우에는 꼬리표를 제작하여 부착한다.</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>(1) 긴급차단밸브는 인화성 유체 또는 독성물질의 대량 손실을 막기 위하여 설치한다.</t>
+          <t xml:space="preserve">(3) 설치위치 등에 대해서는 KOSHA Guide, “긴급차단밸브 설치에 관한 기술 지침"을참조한다. </t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>(3) 게이트밸브의 스템이나 버터플라이, 플러그와 볼밸브의 1/4 개도(Quarter turn)와 같이 밸브가 열리고 닫침을 시각적으로 알 수 있도록 하는 것이 안전상 도움이 되며, 필요한 경우에는 꼬리표를 제작하여 부착한다.</t>
+          <t xml:space="preserve">(4) 화학물질의 종류, 상, 온도, 압력 및 유량 등 공정유체의 조건에 적합하여야 하며, 압력-온도 등급, 연결방법과 부식, 마모 및 온도 스트레스 등을 고려하여 밸브의몸체와 부속품의 재질을 결정한다. </t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 설치위치 등에 대해서는 KOSHA Guide, “긴급차단밸브 설치에 관한 기술 지침"을참조한다. </t>
+          <t>7.2 자동조절밸브의 고장모드(Failure mode) 배관 및 계장도(P&amp;ID) 및 밸브의 사양에 다음의 고장 모드 중 하나를 명기하여야한다.</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 화학물질의 종류, 상, 온도, 압력 및 유량 등 공정유체의 조건에 적합하여야 하며, 압력-온도 등급, 연결방법과 부식, 마모 및 온도 스트레스 등을 고려하여 밸브의몸체와 부속품의 재질을 결정한다. </t>
+          <t xml:space="preserve">7.3 긴급차단밸브(Emergency isolation valve) </t>
         </is>
       </c>
     </row>
@@ -2718,12 +2718,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>7.2 자동조절밸브의 고장모드(Failure mode) 배관 및 계장도(P&amp;ID) 및 밸브의 사양에 다음의 고장 모드 중 하나를 명기하여야한다.</t>
+          <t>(1) 플라스틱 공기튜브를 사용한 자동조절밸브들은 화재시를 대비하여 고장시 닫침형식으로 선정하여야 하는 밸브가 있는가?</t>
         </is>
       </c>
     </row>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.3 긴급차단밸브(Emergency isolation valve) </t>
+          <t>(2) 멀리 떨어져서 운전되는 밸브로서 비상시에 수동으로 열거나 닫아야 하는 밸브인 가?</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>(1) 플라스틱 공기튜브를 사용한 자동조절밸브들은 화재시를 대비하여 고장시 닫침형식으로 선정하여야 하는 밸브가 있는가?</t>
+          <t>(3) 암모니아, 염소 및 고압가스 시스템에 과유량 체크밸브(Excess flow check valve) 를 설치하였는가?</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>(2) 멀리 떨어져서 운전되는 밸브로서 비상시에 수동으로 열거나 닫아야 하는 밸브인 가?</t>
+          <t>(6) 염소와 같이 유해한 액체의 열팽창에 대비하여 안전밸브 대신 서지드럼을 두었는 가?</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>(3) 암모니아, 염소 및 고압가스 시스템에 과유량 체크밸브(Excess flow check valve) 를 설치하였는가?</t>
+          <t xml:space="preserve">8.2 밸브 </t>
         </is>
       </c>
     </row>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>(6) 염소와 같이 유해한 액체의 열팽창에 대비하여 안전밸브 대신 서지드럼을 두었는 가?</t>
+          <t xml:space="preserve">(1) 고형물의 축적에 의한 배관, 밸브 또는 화염방지기의 막힘 </t>
         </is>
       </c>
     </row>
@@ -2820,12 +2820,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.2 밸브 </t>
+          <t xml:space="preserve">(11) 피로나 충격이 예상되는 배관에 주철제의 밸브나 부속품들을 사용하지 않도록 하였는가? </t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 고형물의 축적에 의한 배관, 밸브 또는 화염방지기의 막힘 </t>
+          <t>(12) 밸브의 개·폐 여부를 시각적으로 알 수 있도록 하기 위하여 스템이 올라가지 않는 밸브의 설치를 피했는가?</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">(11) 피로나 충격이 예상되는 배관에 주철제의 밸브나 부속품들을 사용하지 않도록 하였는가? </t>
+          <t>(13) 부지 경계선에 있는 배관, 비상시 상호연결을 적극적으로 차단해야 하는 곳 및 원치 않는 상호 오염을 방지하기 위해 2 중으로 밸브를 설치하였는가?</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>(12) 밸브의 개·폐 여부를 시각적으로 알 수 있도록 하기 위하여 스템이 올라가지 않는 밸브의 설치를 피했는가?</t>
+          <t>(4) 열팽창으로 인한 과압을 대비하기 위하여 버터플라이 밸브에 구멍을 냈는가? 구멍을 낼 수 없다면 안전밸브를 설치하였는가?</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>(13) 부지 경계선에 있는 배관, 비상시 상호연결을 적극적으로 차단해야 하는 곳 및 원치 않는 상호 오염을 방지하기 위해 2 중으로 밸브를 설치하였는가?</t>
+          <t>(5) 고압, 인화성 물질 또는 독성물질을 취급하는 시료채취 밸브에 조작자가 무능력하게 되었을 때 물질이 계속해서 흘러 나가지 않도록 스프링에 의해 잠기는 데드맨을 두었는가?</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>(4) 열팽창으로 인한 과압을 대비하기 위하여 버터플라이 밸브에 구멍을 냈는가? 구멍을 낼 수 없다면 안전밸브를 설치하였는가?</t>
+          <t>(7) 정비기간 중에 공기로 기동되는 밸브들은 잠금장치를 하거나 기능을 제거하는가?</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>(5) 고압, 인화성 물질 또는 독성물질을 취급하는 시료채취 밸브에 조작자가 무능력하게 되었을 때 물질이 계속해서 흘러 나가지 않도록 스프링에 의해 잠기는 데드맨을 두었는가?</t>
+          <t>(8) 전기나 계장용 공기와 같은 유틸리티의 공급이 중단되었을 때 자동조절밸브가 페일 세이프(Fail safe)한지에 대한 공정위험성 평가를 실시하였는가?</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>(7) 정비기간 중에 공기로 기동되는 밸브들은 잠금장치를 하거나 기능을 제거하는가?</t>
+          <t>(9) 탱크차나 트럭하역 배관에 배관이 연결되지 않은 경우와 배관 연결을 분리하고자 할 때 잠기는 밸브를 설치하였는가?</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>(8) 전기나 계장용 공기와 같은 유틸리티의 공급이 중단되었을 때 자동조절밸브가 페일 세이프(Fail safe)한지에 대한 공정위험성 평가를 실시하였는가?</t>
+          <t>(2) 밸브가 급격히 닫힘으로 인해 액체 해머나 배관 파열</t>
         </is>
       </c>
     </row>
@@ -2973,12 +2973,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>(9) 탱크차나 트럭하역 배관에 배관이 연결되지 않은 경우와 배관 연결을 분리하고자 할 때 잠기는 밸브를 설치하였는가?</t>
+          <t>(다) 절차적인 방법 : 밸브를 서서히 잠그도록 운전 절차에 명기</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>(2) 밸브가 급격히 닫힘으로 인해 액체 해머나 배관 파열</t>
+          <t>① 기어비를 통한 밸브를 잠그는 속도 제한</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>(다) 절차적인 방법 : 밸브를 서서히 잠그도록 운전 절차에 명기</t>
+          <t xml:space="preserve">① 밸브나 블라인드 플랜지를 제거 </t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>① 기어비를 통한 밸브를 잠그는 속도 제한</t>
+          <t>③ 수동 볼밸브와 같은 4분의 1씩(Quarter turn) 잠글 수 있는 밸브 대신에 게이 트밸브를 사용</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">① 밸브나 블라인드 플랜지를 제거 </t>
+          <t>(5) 압력방출장치의 흡입 또는 토출 측에 설치된 밸브가 사고로 잠겨 압력 방출기능을 상실 (가) 본질적 방법</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>③ 수동 볼밸브와 같은 4분의 1씩(Quarter turn) 잠글 수 있는 밸브 대신에 게이 트밸브를 사용</t>
+          <t>(나) 적극적 방법 : 없음 (다) 절차적인 방법 : 자물쇠형 밸브(C.S.O 또는 L.O) 사용 (6) 압력방출장치가 중합 또는 고형화에 의한 고형물로 막힘</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>(5) 압력방출장치의 흡입 또는 토출 측에 설치된 밸브가 사고로 잠겨 압력 방출기능을 상실 (가) 본질적 방법</t>
+          <t>① 밸브 후단의 모든 배관과 설비의 설계압력을 밸브 전단의 설계압력으로 설계</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>(나) 적극적 방법 : 없음 (다) 절차적인 방법 : 자물쇠형 밸브(C.S.O 또는 L.O) 사용 (6) 압력방출장치가 중합 또는 고형화에 의한 고형물로 막힘</t>
+          <t>① 압력방출장치 전·후단에 설치된 밸브 제거</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>① 밸브 후단의 모든 배관과 설비의 설계압력을 밸브 전단의 설계압력으로 설계</t>
+          <t xml:space="preserve">① 파열판을 설치하거나 안전밸브와 파열판을 직렬로 설치. 다만, 후자의 경우 파 </t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>① 압력방출장치 전·후단에 설치된 밸브 제거</t>
+          <t>② 밸브가 완전히 개방되지 않도록 정지 장치를 두거나 공기배관 오리피스 설치 (나) 적극적 방법 : 밸브 후단에 압력방출장치의 설치</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">① 파열판을 설치하거나 안전밸브와 파열판을 직렬로 설치. 다만, 후자의 경우 파 </t>
+          <t>② 팽창탱크(Expansion tank) 설치 (다) 절차적인 방법 : 운전을 정지하는 동안에는 배관을 비우도록 절차서에 명기 (4) 자동조절밸브가 고장으로 열려 밸브 후단의 압력이 상승</t>
         </is>
       </c>
     </row>
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>② 밸브가 완전히 개방되지 않도록 정지 장치를 두거나 공기배관 오리피스 설치 (나) 적극적 방법 : 밸브 후단에 압력방출장치의 설치</t>
+          <t>(1) 발열반응에서 핫스포트(Hot spot)를 야기하는 트레이싱이나 자켓팅의 결함 고형물의 축적에 의한 배관, 밸브 또는 화염방지기의 막힘.</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3177,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>② 팽창탱크(Expansion tank) 설치 (다) 절차적인 방법 : 운전을 정지하는 동안에는 배관을 비우도록 절차서에 명기 (4) 자동조절밸브가 고장으로 열려 밸브 후단의 압력이 상승</t>
+          <t>④ 불꽃을 감지하여 신속하게 밸브를 잠그게 하거나 진압시스템 설치</t>
         </is>
       </c>
     </row>
@@ -3194,12 +3194,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>(1) 발열반응에서 핫스포트(Hot spot)를 야기하는 트레이싱이나 자켓팅의 결함 고형물의 축적에 의한 배관, 밸브 또는 화염방지기의 막힘.</t>
+          <t>(2) 자동조절밸브에서 높은 차압이 발생하여 내용물의 손실을 가져올 수 있는 후래싱이나 진동 발생</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>④ 불꽃을 감지하여 신속하게 밸브를 잠그게 하거나 진압시스템 설치</t>
+          <t>① 밸브를 가능한 한 용기 입구에서 가깝게 설치</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>(2) 자동조절밸브에서 높은 차압이 발생하여 내용물의 손실을 가져올 수 있는 후래싱이나 진동 발생</t>
+          <t>① 압력이 낮은 배관에 체크밸브 설치</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>① 밸브를 가능한 한 용기 입구에서 가깝게 설치</t>
+          <t>② 밸브나 오리피스와 같은 여러 개의 중간 감압장치를 사용</t>
         </is>
       </c>
     </row>
@@ -3262,12 +3262,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>① 압력이 낮은 배관에 체크밸브 설치</t>
+          <t>(1) 시료채취 배관, 드레인 밸브 및 다른 부속품을 잠그지 못해 내용물이 방출되어 환경오염 초래</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>② 밸브나 오리피스와 같은 여러 개의 중간 감압장치를 사용</t>
+          <t>(3) 플랜지나 밸브에서 샘, 배관파열, 충돌 또는 부적절한 배관지지로 배관에서 내용물의 손실 발생</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>(1) 시료채취 배관, 드레인 밸브 및 다른 부속품을 잠그지 못해 내용물이 방출되어 환경오염 초래</t>
+          <t>(가) 본질적 방법 : 자체적으로 잠기는 밸브 등 데드맨 설치</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>(3) 플랜지나 밸브에서 샘, 배관파열, 충돌 또는 부적절한 배관지지로 배관에서 내용물의 손실 발생</t>
+          <t>(나) 적극적 방법 : 투시창과 유리로 된 로터미터 파손 시 동작할 수 있는 과유량 방지 체크밸브 설치</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>(가) 본질적 방법 : 자체적으로 잠기는 밸브 등 데드맨 설치</t>
+          <t>(다) 절차적인 방법 : 2 중 밸브, 플러그, 캡 및 블라인드 등을 설치</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>(나) 적극적 방법 : 투시창과 유리로 된 로터미터 파손 시 동작할 수 있는 과유량 방지 체크밸브 설치</t>
+          <t>(다) 절차적인 방법 : 투시창과 유리로 된 로터미터를 사용하지 않는 동안에는 격리 밸브를 잠그도록 절차서에 명기</t>
         </is>
       </c>
     </row>
@@ -3364,12 +3364,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>(다) 절차적인 방법 : 2 중 밸브, 플러그, 캡 및 블라인드 등을 설치</t>
+          <t>① 수동밸브를 위험지역에서 먼 곳에 설치</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>(다) 절차적인 방법 : 투시창과 유리로 된 로터미터를 사용하지 않는 동안에는 격리 밸브를 잠그도록 절차서에 명기</t>
+          <t>② 화재 시 자동폐쇄를 위하여 용융 링크 밸브 설치</t>
         </is>
       </c>
     </row>
@@ -3398,46 +3398,46 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>① 수동밸브를 위험지역에서 먼 곳에 설치</t>
+          <t>① 호스 전단에 과유량 방지 체크밸브 후단에 체크밸브 설치</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>② 화재 시 자동폐쇄를 위하여 용융 링크 밸브 설치</t>
+          <t>(나) “자동 고속작동 밸브시스템(Automatic fast-acting valve systems)”이라 함은 배관 또는 연결 덕트를 통해 전파하는 화염의 경로를 자동적으로 차단시키는 밸브시스템을 말한다.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+          <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>① 호스 전단에 과유량 방지 체크밸브 후단에 체크밸브 설치</t>
+          <t xml:space="preserve">이 지침은 공정설비의 폭발위험이 있는 인화성 및 폭발성 물질(가스, 미스트, 분진 등, 이하 “폭발위험물질”이라 한다)을 취급하는 배관 또는 덕트로 연결된 설비사이에서 설치되는 폭발격리시스템(자동 고속작동 밸브시스템, 화염 분출기, 화염방지기, 로터리 밸브, 액봉, 화염억제시스템)을 대상으로 한다. </t>
         </is>
       </c>
     </row>
@@ -3449,12 +3449,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>(나) “자동 고속작동 밸브시스템(Automatic fast-acting valve systems)”이라 함은 배관 또는 연결 덕트를 통해 전파하는 화염의 경로를 자동적으로 차단시키는 밸브시스템을 말한다.</t>
+          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템을 설계할 때에는 다음 각 호를 포함하는 것이 바람 직하다. </t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 공정설비의 폭발위험이 있는 인화성 및 폭발성 물질(가스, 미스트, 분진 등, 이하 “폭발위험물질”이라 한다)을 취급하는 배관 또는 덕트로 연결된 설비사이에서 설치되는 폭발격리시스템(자동 고속작동 밸브시스템, 화염 분출기, 화염방지기, 로터리 밸브, 액봉, 화염억제시스템)을 대상으로 한다. </t>
+          <t xml:space="preserve">(가) 폭발위험물질의 폭발특성 (나) 용기의 모양, 배치형태 및 운전 특성 (다) 용기와 배관에 사용되는 폭발방호 유형 (라) 배관의 체적, 길이, 단면적, 배치형태 및 강도 (마) 배관 내 폭발위험물질의 유속 (바) 자동 고속차단 밸브시스템의 각 구성품 위치 (사) 밸브의 작동시간 </t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템을 설계할 때에는 다음 각 호를 포함하는 것이 바람 직하다. </t>
+          <t xml:space="preserve">4.1 자동 고속작동 밸브시스템 </t>
         </is>
       </c>
     </row>
@@ -3500,12 +3500,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 폭발위험물질의 폭발특성 (나) 용기의 모양, 배치형태 및 운전 특성 (다) 용기와 배관에 사용되는 폭발방호 유형 (라) 배관의 체적, 길이, 단면적, 배치형태 및 강도 (마) 배관 내 폭발위험물질의 유속 (바) 자동 고속차단 밸브시스템의 각 구성품 위치 (사) 밸브의 작동시간 </t>
+          <t xml:space="preserve">(2) 자동 고속작동 밸브는 폭발감지기와 연동시켜 고속작동 밸브시스템 작동시 폭연이 전파되는 것을 방지하도록 설계한다. </t>
         </is>
       </c>
     </row>
@@ -3517,12 +3517,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 자동 고속작동 밸브시스템 </t>
+          <t xml:space="preserve">(3) 자동 고속작동 밸브와 폭발감지기는 최고허용압력에 견딜 수 있도록 설계한 다. </t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 자동 고속작동 밸브는 폭발감지기와 연동시켜 고속작동 밸브시스템 작동시 폭연이 전파되는 것을 방지하도록 설계한다. </t>
+          <t xml:space="preserve">(4) 고속작동 밸브와 폭발감지기 사이의 위치는 감지기, 밸브 및 장치회로의 반응시간과 덕트 내 예상되는 최고화염속도를 고려하여 설계한다. </t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 자동 고속작동 밸브와 폭발감지기는 최고허용압력에 견딜 수 있도록 설계한 다. </t>
+          <t xml:space="preserve">(5) 자동 고속작동 밸브시스템의 적용과 설계 예는 &lt;그림 1&gt;을 참조한다. </t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 고속작동 밸브와 폭발감지기 사이의 위치는 감지기, 밸브 및 장치회로의 반응시간과 덕트 내 예상되는 최고화염속도를 고려하여 설계한다. </t>
+          <t xml:space="preserve">&lt;그림 1&gt; 자동 고속작동 밸브시스템의 적용과 설계 예 </t>
         </is>
       </c>
     </row>
@@ -3585,12 +3585,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 자동 고속작동 밸브시스템의 적용과 설계 예는 &lt;그림 1&gt;을 참조한다. </t>
+          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템의 각 구성품은 설계자 또는 공급자에 의해 규정된 위치 및 방법에 따라 설치한다. </t>
         </is>
       </c>
     </row>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 1&gt; 자동 고속작동 밸브시스템의 적용과 설계 예 </t>
+          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템의 전원장치에는 비상전력이 공급되어야 하며 비상 전원의 용량은 당해 전원장치에 연결된 고속차단 밸브시스템에 필요한 모든전기기동장치 및 경보기 등을 작동하기에 충분하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템의 각 구성품은 설계자 또는 공급자에 의해 규정된 위치 및 방법에 따라 설치한다. </t>
+          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템이 설치될 설비의 최고 운전온도에서도 기능에 영향이 없는 전기기동장치를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템의 전원장치에는 비상전력이 공급되어야 하며 비상 전원의 용량은 당해 전원장치에 연결된 고속차단 밸브시스템에 필요한 모든전기기동장치 및 경보기 등을 작동하기에 충분하여야 한다. </t>
+          <t xml:space="preserve">(2) 감지기와 고속작동 밸브는 주위환경 또는 진동 등에 의해 결함이 야기 되지 않도록 설치한다. </t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템이 설치될 설비의 최고 운전온도에서도 기능에 영향이 없는 전기기동장치를 설치한다. </t>
+          <t xml:space="preserve">(3) 감지기와 고속작동 밸브는 이물질의 축적 등에 의하여 그 기능이 저하되지 않도록 설치한다. </t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 감지기와 고속작동 밸브는 주위환경 또는 진동 등에 의해 결함이 야기 되지 않도록 설치한다. </t>
+          <t xml:space="preserve">(4) 자동 고속작동 밸브시스템의 각 구성품은 최고허용온도를 초과하지 않는 곳에 설치한다.  </t>
         </is>
       </c>
     </row>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 감지기와 고속작동 밸브는 이물질의 축적 등에 의하여 그 기능이 저하되지 않도록 설치한다. </t>
+          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템이 설치된 장비를 보수할 경우에는 보수작업을 수행하기에 앞서 자동 고속작동 밸브시스템의 기능을 정지시켜야 하며 또한 고속작동 밸브가 설치된 설비의 제어장치와 자동 고속작동 밸브시스템의 전원 장치와는 연동시키어 작동이 되지 않게 한다. </t>
         </is>
       </c>
     </row>
@@ -3704,12 +3704,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 자동 고속작동 밸브시스템의 각 구성품은 최고허용온도를 초과하지 않는 곳에 설치한다.  </t>
+          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템이 작동된 경우에는 모든 구성품을 재검사하고, 필요한 경우 해당 부품을 교체 또는 조정한다. </t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템이 설치된 장비를 보수할 경우에는 보수작업을 수행하기에 앞서 자동 고속작동 밸브시스템의 기능을 정지시켜야 하며 또한 고속작동 밸브가 설치된 설비의 제어장치와 자동 고속작동 밸브시스템의 전원 장치와는 연동시키어 작동이 되지 않게 한다. </t>
+          <t xml:space="preserve">(2) 자동 고속작동 밸브시스템의 부품을 교체하거나 재조립한 경우에는 완전 운전조건으로 그 기능을 복원하기 전에 시험을 실시하여 그 성능을 확인하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -3738,12 +3738,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 자동 고속작동 밸브시스템이 작동된 경우에는 모든 구성품을 재검사하고, 필요한 경우 해당 부품을 교체 또는 조정한다. </t>
+          <t xml:space="preserve">(가) 폭발위험물질의 폭발특성 (나) 방호대상 장치와 이송설비의 용량, 배치형태 및 운전특성 (다) 용기에 사용된 폭발방호 유형 (라) 배관의 체적, 길이, 단면적, 배치형태 및 강도 (마) 배관 내 폭발위험물질의 유속 (바) 화염분출기와 배관의 위치 (사) 난류에 영향을 미치는 관부속품(밸브, 엘보우 등) 및 조도와 같은 배관 특성 (아) 점화원 위치 </t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 자동 고속작동 밸브시스템의 부품을 교체하거나 재조립한 경우에는 완전 운전조건으로 그 기능을 복원하기 전에 시험을 실시하여 그 성능을 확인하여야 한다. </t>
+          <t xml:space="preserve">(1) 로터리 밸브는 분진 취급설비에만 설치하여 사용한다. </t>
         </is>
       </c>
     </row>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 폭발위험물질의 폭발특성 (나) 방호대상 장치와 이송설비의 용량, 배치형태 및 운전특성 (다) 용기에 사용된 폭발방호 유형 (라) 배관의 체적, 길이, 단면적, 배치형태 및 강도 (마) 배관 내 폭발위험물질의 유속 (바) 화염분출기와 배관의 위치 (사) 난류에 영향을 미치는 관부속품(밸브, 엘보우 등) 및 조도와 같은 배관 특성 (아) 점화원 위치 </t>
+          <t xml:space="preserve">(1) 로터리 밸브는 회전자와 밸브하우징 사이에 화염의 통과를 방지하기에 충분히 작은 간격을 두도록 설계한다. 밸브 하우징의 각 면에 최소 2개의 날개는 항상 최소 간격을 보유해야 한다. </t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 로터리 밸브는 분진 취급설비에만 설치하여 사용한다. </t>
+          <t xml:space="preserve">(2) 로터리 밸브는 시험 데이터에 의해 플라스틱 또는 합성물질이 화염 통과를 방지할 수 있다는 것이 입증되지 않는다면 몸체와 날개는 금속 재질을 사용하여 설치한다. </t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 로터리 밸브는 회전자와 밸브하우징 사이에 화염의 통과를 방지하기에 충분히 작은 간격을 두도록 설계한다. 밸브 하우징의 각 면에 최소 2개의 날개는 항상 최소 간격을 보유해야 한다. </t>
+          <t xml:space="preserve">(2) 로터리 밸브를 폭발분리장치로 사용하려면 분진 최소 점화에너지와 점화온도를 고려해야 한다. </t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 로터리 밸브는 시험 데이터에 의해 플라스틱 또는 합성물질이 화염 통과를 방지할 수 있다는 것이 입증되지 않는다면 몸체와 날개는 금속 재질을 사용하여 설치한다. </t>
+          <t xml:space="preserve">(3) 로터리 밸브는 예상되는 최고폭발압력에 견디도록 설계한다. </t>
         </is>
       </c>
     </row>
@@ -3845,92 +3845,92 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 로터리 밸브를 폭발분리장치로 사용하려면 분진 최소 점화에너지와 점화온도를 고려해야 한다. </t>
+          <t xml:space="preserve">4.4 로터리 밸브(Rotary valve) </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침</t>
+          <t xml:space="preserve">배관재질 선정에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 로터리 밸브는 예상되는 최고폭발압력에 견디도록 설계한다. </t>
+          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙”이라 한다) 별표7 “화학설비 및 그 부속설비의 종류” 중 제2호?가?항의 배관?밸브?관?부속류 등화학물질 이송관련 설비(이하?배관류?라 한다)에 적용한다. </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침</t>
+          <t xml:space="preserve">배관재질 선정에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.4 로터리 밸브(Rotary valve) </t>
+          <t>(2) 13Cr 강(410)은 주로 밸브의 트림 재질로 사용된다.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관재질 선정에 관한 기술지침 </t>
+          <t>분진폭발방지에 관한 기술지침</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙”이라 한다) 별표7 “화학설비 및 그 부속설비의 종류” 중 제2호?가?항의 배관?밸브?관?부속류 등화학물질 이송관련 설비(이하?배관류?라 한다)에 적용한다. </t>
+          <t xml:space="preserve">(가) 설비에서 폭발이 발생되었을 때 폭발이 인근 설비로 전달되지 않도록 고속 작동밸브 등을 사용하여 설비를 차단할 수 있는 것으로 이때의 최고 폭발압력에 견딜 수 있는 차단장치 </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관재질 선정에 관한 기술지침 </t>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>(2) 13Cr 강(410)은 주로 밸브의 트림 재질로 사용된다.</t>
+          <t xml:space="preserve">(4) 접시 지붕형 및 폰툰 지붕형탱크의 경우 지붕과 호스 가까이 역지밸브 등을 설치하여 저장물질이 지붕으로 역류되지 않도록 한다. </t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>분진폭발방지에 관한 기술지침</t>
+          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 설비에서 폭발이 발생되었을 때 폭발이 인근 설비로 전달되지 않도록 고속 작동밸브 등을 사용하여 설비를 차단할 수 있는 것으로 이때의 최고 폭발압력에 견딜 수 있는 차단장치 </t>
+          <t xml:space="preserve">(바) “통기밸브 (Breather or bleeder valve)”라 함은 평상시에 닫힌 상태로 있다가 탱크의 압력이 미리 설정된 압력 또는 진공압력에 도달하면 밸브가 열려 탱크 내부의 가스? 증기등을 외부로 방출하거나 또는 탱크 내부로 외부공기를 흡입하기 위하여 설치된 밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 접시 지붕형 및 폰툰 지붕형탱크의 경우 지붕과 호스 가까이 역지밸브 등을 설치하여 저장물질이 지붕으로 역류되지 않도록 한다. </t>
+          <t xml:space="preserve">(사) “림 통기밸브 (Rim breather valve)”라 함은 부유식 지붕의 가장 자리에 설치하여 실링 밑부분의 공기 또는 비 응축성 가스를 외부로 방출하기 위하여 설치된 밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">(바) “통기밸브 (Breather or bleeder valve)”라 함은 평상시에 닫힌 상태로 있다가 탱크의 압력이 미리 설정된 압력 또는 진공압력에 도달하면 밸브가 열려 탱크 내부의 가스? 증기등을 외부로 방출하거나 또는 탱크 내부로 외부공기를 흡입하기 위하여 설치된 밸브를 말한다. </t>
+          <t xml:space="preserve">(아) “자동 통기밸브 (Automatic breather valve)”라 함은 부유식 지붕의 중앙부위에 설치하는 것으로 저장물질의 액면 높이에 따라 자동으로 열리고 닫혀 탱크 내부가 가압 또는 진공이 되는 것을 방지하기 위하여 설치된 밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">(사) “림 통기밸브 (Rim breather valve)”라 함은 부유식 지붕의 가장 자리에 설치하여 실링 밑부분의 공기 또는 비 응축성 가스를 외부로 방출하기 위하여 설치된 밸브를 말한다. </t>
+          <t xml:space="preserve">고정식 지붕탱크에는 KOSHA GUIDE “통기설비에 관한 기술 지침”에 준하여 통기설 비를 설치한다. 다만, 고정식 지붕탱크에 불활성가스 봉입시설을 설치하는 경우에는 KOSHA GUIDE에 상관없이 통기밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -3998,41 +3998,41 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">(아) “자동 통기밸브 (Automatic breather valve)”라 함은 부유식 지붕의 중앙부위에 설치하는 것으로 저장물질의 액면 높이에 따라 자동으로 열리고 닫혀 탱크 내부가 가압 또는 진공이 되는 것을 방지하기 위하여 설치된 밸브를 말한다. </t>
+          <t xml:space="preserve">부유식 지붕탱크에는 최소한 2개 이상의 통기밸브 즉 림 통기밸브와 자동통기밸브를 설치한다. 다만, 림 통기밸브는 부유식 지붕탱크의 실링이 메카니칼 실인 경우에 한하여 설치한다. </t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+          <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">고정식 지붕탱크에는 KOSHA GUIDE “통기설비에 관한 기술 지침”에 준하여 통기설 비를 설치한다. 다만, 고정식 지붕탱크에 불활성가스 봉입시설을 설치하는 경우에는 KOSHA GUIDE에 상관없이 통기밸브를 설치한다. </t>
+          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙"이라 한다) 제267조(배 출물질의 처리)의 규정에 의하여 정상운전 또는 비상 운전시 안전밸브 등에서 배출 되는 수소를 연소 처리하지 못하고 대기로 방출하는 경우, 벤트스택 및 배관을 설계 하는데 필요한 사항을 정하여 대기 중에서 수소 농도가 폭발하한계 이하가 되도록 하여 수소에 의한 화재?폭발을 예방하는데 그 목적이 있다. </t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+          <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">부유식 지붕탱크에는 최소한 2개 이상의 통기밸브 즉 림 통기밸브와 자동통기밸브를 설치한다. 다만, 림 통기밸브는 부유식 지붕탱크의 실링이 메카니칼 실인 경우에 한하여 설치한다. </t>
+          <t xml:space="preserve">(6) 수소 배출원 간의 압력차이가 심하거나 또는 수소 배출원이 다수인 경우에는 하나의 벤트스택 보다는 다수의 벤트스택을 설치하며 이 경우에 밴트스택간의 거리는 최소한 5 m 이상 되어야 한다. 다만, 하나의 벤트스택에 여러 곳에서 배출 되는 수소 벤트배관을 연결하는 경우에는 벤트시스템의 특정 부분의 압력이 증가되지 않고 안전밸브 등과 같은 모든 배출원에서 수소가 안전하게 배출되도록 설계한다. </t>
         </is>
       </c>
     </row>
@@ -4044,12 +4044,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙"이라 한다) 제267조(배 출물질의 처리)의 규정에 의하여 정상운전 또는 비상 운전시 안전밸브 등에서 배출 되는 수소를 연소 처리하지 못하고 대기로 방출하는 경우, 벤트스택 및 배관을 설계 하는데 필요한 사항을 정하여 대기 중에서 수소 농도가 폭발하한계 이하가 되도록 하여 수소에 의한 화재?폭발을 예방하는데 그 목적이 있다. </t>
+          <t xml:space="preserve">(1) 벤트스택의 지름은 벤트스택과 연결된 안전밸브 등에서 분출되는 수소를 충분히 대기로 방출시킬 수 있도록 결정되어야 한다. 따라서 벤트스택의 끝단으로부터안전밸브 등의 후단에 걸리는 압력 손실은 안전밸브 설정압력의 10%를 넘지 않도록 하여야 한다. 다만, 후단압력의 영향을 받지 않도록 제작된 안전밸브 (Balanced type)인 경우에는 벤트스택의 끝단으로부터 안전밸브 등의 후단에 걸리는 압력 손실이 안전밸브 설정압력의 50%를 넘지 않도록 하여 벤트스택의 지름을 결정할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -4061,46 +4061,46 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 수소 배출원 간의 압력차이가 심하거나 또는 수소 배출원이 다수인 경우에는 하나의 벤트스택 보다는 다수의 벤트스택을 설치하며 이 경우에 밴트스택간의 거리는 최소한 5 m 이상 되어야 한다. 다만, 하나의 벤트스택에 여러 곳에서 배출 되는 수소 벤트배관을 연결하는 경우에는 벤트시스템의 특정 부분의 압력이 증가되지 않고 안전밸브 등과 같은 모든 배출원에서 수소가 안전하게 배출되도록 설계한다. </t>
+          <t xml:space="preserve">(2) 수동조작 밸브 등을 통하여 수소를 방출하는 경우에는 수소가 대기 중으로 쉽게확산될 수 있도록 방출속도를 150 m/s 기준하여 벤트스택의 지름을 결정한다. </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 벤트스택의 지름은 벤트스택과 연결된 안전밸브 등에서 분출되는 수소를 충분히 대기로 방출시킬 수 있도록 결정되어야 한다. 따라서 벤트스택의 끝단으로부터안전밸브 등의 후단에 걸리는 압력 손실은 안전밸브 설정압력의 10%를 넘지 않도록 하여야 한다. 다만, 후단압력의 영향을 받지 않도록 제작된 안전밸브 (Balanced type)인 경우에는 벤트스택의 끝단으로부터 안전밸브 등의 후단에 걸리는 압력 손실이 안전밸브 설정압력의 50%를 넘지 않도록 하여 벤트스택의 지름을 결정할 수 있다. </t>
+          <t xml:space="preserve">(가) “수소저장설비”라 함은 수소를 저장하는 저장용기와 이송배관, 안전밸브및 제어기기 등 부속설비를 포함한 일련의 설비를 말한다. </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 수동조작 밸브 등을 통하여 수소를 방출하는 경우에는 수소가 대기 중으로 쉽게확산될 수 있도록 방출속도를 150 m/s 기준하여 벤트스택의 지름을 결정한다. </t>
+          <t xml:space="preserve">(바) “긴급차단밸브”라 함은 원격조작에 의하여 유체의 흐름을 긴급차단 할 수있는 밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -4112,12 +4112,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) “수소저장설비”라 함은 수소를 저장하는 저장용기와 이송배관, 안전밸브및 제어기기 등 부속설비를 포함한 일련의 설비를 말한다. </t>
+          <t xml:space="preserve">(사) 배관, 밸브 및 배관 부속류의 재질은 수소의 압력 및 온도 사용조건에 적합하도록 선정하고 국제적으로 통용되는 배관의 국제규격(ANSI B31.3 등)의 요구사양에 적합하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">(바) “긴급차단밸브”라 함은 원격조작에 의하여 유체의 흐름을 긴급차단 할 수있는 밸브를 말한다. </t>
+          <t xml:space="preserve">(1) 저장용기에는 KOSHA GUIDE “안전밸브 설계 및 설치 등에 관한 기술지 침”의 규정에 따라 안전밸브를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">(사) 배관, 밸브 및 배관 부속류의 재질은 수소의 압력 및 온도 사용조건에 적합하도록 선정하고 국제적으로 통용되는 배관의 국제규격(ANSI B31.3 등)의 요구사양에 적합하여야 한다. </t>
+          <t xml:space="preserve">(2) 안전밸브의 토출측 배관은 주위의 설비 및 근로자에게 영향을 미치지 않도록 안전한 높이까지 설치한다. </t>
         </is>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 저장용기에는 KOSHA GUIDE “안전밸브 설계 및 설치 등에 관한 기술지 침”의 규정에 따라 안전밸브를 설치하여야 한다. </t>
+          <t xml:space="preserve">(3) 안전밸브의 토출측 배관 하단에는 드레인홀 등을 설치하여 동절기 동결로인하여 안전밸브의 작동이 방해받지 않도록 한다. </t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 안전밸브의 토출측 배관은 주위의 설비 및 근로자에게 영향을 미치지 않도록 안전한 높이까지 설치한다. </t>
+          <t xml:space="preserve">(4) 안전밸브 토출측 끝에는 정전기 분산용 환상링을 용접에 의하여 설치한다. </t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 안전밸브의 토출측 배관 하단에는 드레인홀 등을 설치하여 동절기 동결로인하여 안전밸브의 작동이 방해받지 않도록 한다. </t>
+          <t xml:space="preserve">4.2 안전밸브 </t>
         </is>
       </c>
     </row>
@@ -4214,12 +4214,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 안전밸브 토출측 끝에는 정전기 분산용 환상링을 용접에 의하여 설치한다. </t>
+          <t xml:space="preserve">(1) 저장용기, 배관, 밸브 및 계측기기 주변에는 안전통로 또는 계단을 설치하여 운전원이 쉽게 접근할 수 있도록 한다. </t>
         </is>
       </c>
     </row>
@@ -4231,12 +4231,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 안전밸브 </t>
+          <t xml:space="preserve">(1) 저장용기의 인입배관에는 체크밸브를 설치하여 저장용기로부터 수소가역류하지 않도록 한다. </t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 저장용기, 배관, 밸브 및 계측기기 주변에는 안전통로 또는 계단을 설치하여 운전원이 쉽게 접근할 수 있도록 한다. </t>
+          <t xml:space="preserve">(2) 압력조절밸브 후단 배관에는 안전밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 저장용기의 인입배관에는 체크밸브를 설치하여 저장용기로부터 수소가역류하지 않도록 한다. </t>
+          <t xml:space="preserve">(2) 저장용기에서 수소를 연속적으로 반응공정으로 공급하는 경우에는 반응공정의 이상시 수소를 긴급 차단할 수 있도록 긴급차단밸브를 설치하고, 원격작동스위치는 저장용기 외면으로부터 10m 이상 떨어진 위치에 설치한다. </t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 압력조절밸브 후단 배관에는 안전밸브를 설치한다. </t>
+          <t xml:space="preserve">4.4 긴급차단밸브 </t>
         </is>
       </c>
     </row>
@@ -4299,46 +4299,46 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 저장용기에서 수소를 연속적으로 반응공정으로 공급하는 경우에는 반응공정의 이상시 수소를 긴급 차단할 수 있도록 긴급차단밸브를 설치하고, 원격작동스위치는 저장용기 외면으로부터 10m 이상 떨어진 위치에 설치한다. </t>
+          <t xml:space="preserve">(2) 안전밸브는 1년에 한번씩 방출시험을 통하여 설정압력과 그 오차범위 내에서 작동되는지를 확인하고 기록을 유지한다. </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
+          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.4 긴급차단밸브 </t>
+          <t xml:space="preserve">(가) “안전밸브 (Safety valve)”라 함은 밸브 입구쪽의 압력이 설정압력에 도달하면 자동적으로 스프링이 작동하면서 유체가 분출되고 일정압력 이하가 되면 정상 상태로 복원되는 밸브를 말한다. </t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
+          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 안전밸브는 1년에 한번씩 방출시험을 통하여 설정압력과 그 오차범위 내에서 작동되는지를 확인하고 기록을 유지한다. </t>
+          <t xml:space="preserve">(나) "파열판 (Rupture disc)"이라 함은 “안전밸브에 대체할 수 있는 방호장치”로서, 판 입구측의 압력이 설정압력에 도달하면 판이 파열하면서 유체가 분출하도록 용기 등에 설치된 얇은 판을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) “안전밸브 (Safety valve)”라 함은 밸브 입구쪽의 압력이 설정압력에 도달하면 자동적으로 스프링이 작동하면서 유체가 분출되고 일정압력 이하가 되면 정상 상태로 복원되는 밸브를 말한다. </t>
+          <t xml:space="preserve">(다) “설정압력 (Set pressure)”이라 함은 용기 등에 이상 과압이 형성되는 경우, 안전밸브가 작동되도록 설정한 안전밸브 입구측에서의 게이지 압력을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) "파열판 (Rupture disc)"이라 함은 “안전밸브에 대체할 수 있는 방호장치”로서, 판 입구측의 압력이 설정압력에 도달하면 판이 파열하면서 유체가 분출하도록 용기 등에 설치된 얇은 판을 말한다. </t>
+          <t xml:space="preserve">이 지침은 용기 등에 설치되는 안전밸브 및 파열판에 대하여 적용한다. </t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) “설정압력 (Set pressure)”이라 함은 용기 등에 이상 과압이 형성되는 경우, 안전밸브가 작동되도록 설정한 안전밸브 입구측에서의 게이지 압력을 말한다. </t>
+          <t xml:space="preserve">이 지침은 화학 설비 및 그 부속설비(이하 "용기 등"이라 한다)에 설치하는 안전밸브 또는 이에 대체할 수 있는 방호장치(이하 "안전밸브 등"이라 한다)의 설정압력, 배출용량 산출 및 설치 등에 필요한 사항을 제시하는데 그 목적이 있다. </t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 용기 등에 설치되는 안전밸브 및 파열판에 대하여 적용한다. </t>
+          <t xml:space="preserve">(아) “축적압력 (Accumulated pressure)”이라 함은 안전밸브 등이 작동될 때 안전 밸브에 의하여 축적되는 압력으로서 그 설비 내에서 순간적으로 허용될 수 있는 최대 압력을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4418,12 +4418,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 화학 설비 및 그 부속설비(이하 "용기 등"이라 한다)에 설치하는 안전밸브 또는 이에 대체할 수 있는 방호장치(이하 "안전밸브 등"이라 한다)의 설정압력, 배출용량 산출 및 설치 등에 필요한 사항을 제시하는데 그 목적이 있다. </t>
+          <t xml:space="preserve">(자) “배압 (Back pressure)”이라 함은 안전밸브 등의 토출측에 걸리는 압력을 말하는 것으로, 중첩배압과 누적배압의 합을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">(아) “축적압력 (Accumulated pressure)”이라 함은 안전밸브 등이 작동될 때 안전 밸브에 의하여 축적되는 압력으로서 그 설비 내에서 순간적으로 허용될 수 있는 최대 압력을 말한다. </t>
+          <t xml:space="preserve">(차) “시건조치”라 함은 차단밸브를 함부로 열고 닫을 수 없도록 경고조치하는 것을 말하며, 방법으로는 CSO(car sealed open : 밸브가 열려 시건조치 된 상태), CSC(car sealed close : 밸브가 닫혀 시건조치 된 상태)가 있다. </t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve">(자) “배압 (Back pressure)”이라 함은 안전밸브 등의 토출측에 걸리는 압력을 말하는 것으로, 중첩배압과 누적배압의 합을 말한다. </t>
+          <t xml:space="preserve">(카) “중첩배압 (Superimposed back pressure)” 이라 함은 안전밸브가 작동하기 직전에 토출측에 걸리는 정압(Static pressure)을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">(차) “시건조치”라 함은 차단밸브를 함부로 열고 닫을 수 없도록 경고조치하는 것을 말하며, 방법으로는 CSO(car sealed open : 밸브가 열려 시건조치 된 상태), CSC(car sealed close : 밸브가 닫혀 시건조치 된 상태)가 있다. </t>
+          <t xml:space="preserve">(타) “누적배압 (Built-up back pressure)" 이라 함은 안전밸브가 작동한 후에 유체 방출로 인하여 발생하는 토출측에서의 압력증가량을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve">(카) “중첩배압 (Superimposed back pressure)” 이라 함은 안전밸브가 작동하기 직전에 토출측에 걸리는 정압(Static pressure)을 말한다. </t>
+          <t xml:space="preserve">(파) “분출시험압력 (Cold differential test pressure)” 안전밸브 분출시험설비에서 적용되어야 하는 시험용 압력으로 안전밸브 실제 설치위치에서의 배압 또는 운전온도와 시험설비에서의 조건차이로 인한 영향이 반영된 것을 말한다. </t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">(타) “누적배압 (Built-up back pressure)" 이라 함은 안전밸브가 작동한 후에 유체 방출로 인하여 발생하는 토출측에서의 압력증가량을 말한다. </t>
+          <t xml:space="preserve">(1) 안전밸브 등을 설치하여야 할 대상은 안전보건규칙 제261조(안전밸브 등의 설치) 의 규정 등에 따르며, 상세한 사항은 다음과 같다. </t>
         </is>
       </c>
     </row>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">(파) “분출시험압력 (Cold differential test pressure)” 안전밸브 분출시험설비에서 적용되어야 하는 시험용 압력으로 안전밸브 실제 설치위치에서의 배압 또는 운전온도와 시험설비에서의 조건차이로 인한 영향이 반영된 것을 말한다. </t>
+          <t xml:space="preserve">(2) (1)의 규정에 의한 적용대상 용기 등을 연결하는 배관 사이에 체크밸브, 자동제어 밸브, 수동제어밸브 등과 같은 차단밸브가 없는 경우에는 하나의 용기 등으로 간주하여 안전밸브 등을 설치할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 안전밸브 등을 설치하여야 할 대상은 안전보건규칙 제261조(안전밸브 등의 설치) 의 규정 등에 따르며, 상세한 사항은 다음과 같다. </t>
+          <t xml:space="preserve">(라) 배관(배관내의 액체가 2개 밸브 등에 의해 차단되어 대기온도에서 액체의 열팽창에 의하여 구조적으로 배관 파열이 우려되는 배관에 한한다) </t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) (1)의 규정에 의한 적용대상 용기 등을 연결하는 배관 사이에 체크밸브, 자동제어 밸브, 수동제어밸브 등과 같은 차단밸브가 없는 경우에는 하나의 용기 등으로 간주하여 안전밸브 등을 설치할 수 있다. </t>
+          <t xml:space="preserve">(마) 기타 이상화학 반응, 밸브의 막힘 등의 이상상태로 인한 압력상승으로 당해 설비의 설계압력을 구조적으로 초과할 우려가 있는 용기 등에 설치한다. </t>
         </is>
       </c>
     </row>
@@ -4571,12 +4571,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 배관(배관내의 액체가 2개 밸브 등에 의해 차단되어 대기온도에서 액체의 열팽창에 의하여 구조적으로 배관 파열이 우려되는 배관에 한한다) </t>
+          <t xml:space="preserve">(1) 안전밸브 등의 설정압력은 보호하려는 용기 등의 설계압력 또는 최고허용압력 이하이어야 한다(&lt;표 1&gt; 및 &lt;부록 3&gt; 참조) 다만, 다음의 경우와 같이 배출용량이 커서 2 개 이상의 안전밸브 등을 설치하는 경우에는 그러하지 아니하다. </t>
         </is>
       </c>
     </row>
@@ -4588,12 +4588,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">(마) 기타 이상화학 반응, 밸브의 막힘 등의 이상상태로 인한 압력상승으로 당해 설비의 설계압력을 구조적으로 초과할 우려가 있는 용기 등에 설치한다. </t>
+          <t xml:space="preserve">(2) 반응기, 저장탱크 등과 같이 대량의 독성물질이 지속적으로 외부로 유출될 수 있는 구조로 된 경우에는 파열판과 안전밸브를 직렬로 설치하고, 파열판과 안전밸브 사이에는 누출을 탐지할 수 있는 압력지시계 또는 경보장치를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 안전밸브 등의 설정압력은 보호하려는 용기 등의 설계압력 또는 최고허용압력 이하이어야 한다(&lt;표 1&gt; 및 &lt;부록 3&gt; 참조) 다만, 다음의 경우와 같이 배출용량이 커서 2 개 이상의 안전밸브 등을 설치하는 경우에는 그러하지 아니하다. </t>
+          <t xml:space="preserve">(3) 안전밸브 등은 &lt;부록 2&gt; “안전밸브 등의 선정 흐름도”를 참조하여 선정한다. </t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 반응기, 저장탱크 등과 같이 대량의 독성물질이 지속적으로 외부로 유출될 수 있는 구조로 된 경우에는 파열판과 안전밸브를 직렬로 설치하고, 파열판과 안전밸브 사이에는 누출을 탐지할 수 있는 압력지시계 또는 경보장치를 설치하여야 한다. </t>
+          <t xml:space="preserve">(가) 외부 화재가 아닌 다른 압력상승 요인에 대비하여 둘 이상의 안전밸브 등을 설치할 경우에는 하나의 안전밸브 등은 용기 등의 설계압력 또는 최고허용압력 이하로 설정하여야 하고 다른 것은 용기 등의 설계압력 또는 최고허용압력의 105% 이하에 설정할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 안전밸브 등은 &lt;부록 2&gt; “안전밸브 등의 선정 흐름도”를 참조하여 선정한다. </t>
+          <t xml:space="preserve">(나) 독성물질의 누출로 인하여 주위 작업환경을 오염시킬 우려가 있는 경우. 다만, 안전밸브를 설치하고 후단에 배출물질을 처리할 수 있는 설비가 설치된 경우는 파열판을 설치하지 아니할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 외부 화재가 아닌 다른 압력상승 요인에 대비하여 둘 이상의 안전밸브 등을 설치할 경우에는 하나의 안전밸브 등은 용기 등의 설계압력 또는 최고허용압력 이하로 설정하여야 하고 다른 것은 용기 등의 설계압력 또는 최고허용압력의 105% 이하에 설정할 수 있다. </t>
+          <t xml:space="preserve">(나) 외부 화재에 대비하여 둘 이상의 안전밸브 등을 설치할 경우에는 하나의 안전 </t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 독성물질의 누출로 인하여 주위 작업환경을 오염시킬 우려가 있는 경우. 다만, 안전밸브를 설치하고 후단에 배출물질을 처리할 수 있는 설비가 설치된 경우는 파열판을 설치하지 아니할 수 있다. </t>
+          <t xml:space="preserve">(다) 운전 중 안전밸브에 이상물질이 누적되어 안전밸브의 기능을 저하시킬 우려가있는 경우(이 경우는 보호기기의 노즐에 파열판을 설치하여야 함) </t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 외부 화재에 대비하여 둘 이상의 안전밸브 등을 설치할 경우에는 하나의 안전 </t>
+          <t xml:space="preserve">(라) 유체의 부식성이 강하여 안전밸브 재질의 선정에 문제가 있는 경우. </t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) 운전 중 안전밸브에 이상물질이 누적되어 안전밸브의 기능을 저하시킬 우려가있는 경우(이 경우는 보호기기의 노즐에 파열판을 설치하여야 함) </t>
+          <t xml:space="preserve">화재시인 경우 첫번째 밸브나머지 밸브 </t>
         </is>
       </c>
     </row>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 유체의 부식성이 강하여 안전밸브 재질의 선정에 문제가 있는 경우. </t>
+          <t xml:space="preserve">(2) 5. (2)의 규정에 의하여 파열판과 안전밸브를 직렬로 설치하는 경우 안전밸브의 설정압력 및 파열판의 파열압력은 다음과 같이 한다. </t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve">화재시인 경우 첫번째 밸브나머지 밸브 </t>
+          <t xml:space="preserve">(3) 안전밸브 설정압력은 실제 설치위치에서의 운전온도 또는 배압에 대한 영향이 반영된 것으로 분출시험설비에서는 다음 사항들을 고려하여 보정된 압력을 적용하 여야한다. </t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 5. (2)의 규정에 의하여 파열판과 안전밸브를 직렬로 설치하는 경우 안전밸브의 설정압력 및 파열판의 파열압력은 다음과 같이 한다. </t>
+          <t xml:space="preserve">(가) 안전밸브 전단에 파열판을 설치하는 경우 파열판의 파열압력은 안전밸브의 설정압력 이하에서 파열되도록 한다. </t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 안전밸브 설정압력은 실제 설치위치에서의 운전온도 또는 배압에 대한 영향이 반영된 것으로 분출시험설비에서는 다음 사항들을 고려하여 보정된 압력을 적용하 여야한다. </t>
+          <t xml:space="preserve">(가) 안전밸브의 실제 설치 위치에서의 운전온도가 110 ℃ 이상인 경우 또는 운전온도가 영하 60 ℃이하인 경우에는 온도 차이에 따른 분출시험압력을 보정하 여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 안전밸브 전단에 파열판을 설치하는 경우 파열판의 파열압력은 안전밸브의 설정압력 이하에서 파열되도록 한다. </t>
+          <t xml:space="preserve">(나) Kosha Guide D - 26 - 2012에서 정의된 일반형 안전밸브는 설정압력과 중첩배압의 차이를 산출하여 분출시험압력을 보정하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 안전밸브의 실제 설치 위치에서의 운전온도가 110 ℃ 이상인 경우 또는 운전온도가 영하 60 ℃이하인 경우에는 온도 차이에 따른 분출시험압력을 보정하 여야 한다. </t>
+          <t xml:space="preserve">&lt;표 1&gt;안전밸브의 설정압력 및 축적압력 </t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) Kosha Guide D - 26 - 2012에서 정의된 일반형 안전밸브는 설정압력과 중첩배압의 차이를 산출하여 분출시험압력을 보정하여야 한다. </t>
+          <t xml:space="preserve">밸브 등은 용기 등의 설계압력 또는 최고허용압력 이하로 설정하여야 하고 다른것은 용기 등의 설계압력 또는 최고허용압력의 110% 이하로 설정할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;표 1&gt;안전밸브의 설정압력 및 축적압력 </t>
+          <t xml:space="preserve">하나의 안전밸브 설치시 여러개의 안전밸브 설치시 설정압력 축적압력 설정압력 축적압력 </t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve">밸브 등은 용기 등의 설계압력 또는 최고허용압력 이하로 설정하여야 하고 다른것은 용기 등의 설계압력 또는 최고허용압력의 110% 이하로 설정할 수 있다. </t>
+          <t xml:space="preserve">화재시가 아닌 경우 첫번째 밸브나머지 밸브 </t>
         </is>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve">하나의 안전밸브 설치시 여러개의 안전밸브 설치시 설정압력 축적압력 설정압력 축적압력 </t>
+          <t xml:space="preserve">(1) 안전밸브 등의 배출용량을 결정할 때에는 가능한 모든 압력상승 요인에 의해 분출될수 있는 각각의 소요 분출량을 우선적으로 구하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4894,12 +4894,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve">화재시가 아닌 경우 첫번째 밸브나머지 밸브 </t>
+          <t xml:space="preserve">(2) 설치 목적이 화재로부터의 보호인 경우에는 안전밸브의 수량에 관계없이 설계압력 또는 최고허용압력의 121% 이하이어야 한다. </t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 안전밸브 등의 배출용량을 결정할 때에는 가능한 모든 압력상승 요인에 의해 분출될수 있는 각각의 소요 분출량을 우선적으로 구하여야 한다. </t>
+          <t xml:space="preserve">(가) 안전밸브를 1개 설치하는 경우에는 안전밸브의 축적압력은 설계압력 또는 최고허용압력의 110% 이하이어야 한다. </t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 설치 목적이 화재로부터의 보호인 경우에는 안전밸브의 수량에 관계없이 설계압력 또는 최고허용압력의 121% 이하이어야 한다. </t>
+          <t xml:space="preserve">(가) 정변위 펌프 및 정변위 압축기의 토출측 배관에 설치된 밸브가 차단된 경우펌프 및 압축기의 최대 용량 </t>
         </is>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 안전밸브를 1개 설치하는 경우에는 안전밸브의 축적압력은 설계압력 또는 최고허용압력의 110% 이하이어야 한다. </t>
+          <t xml:space="preserve">(나) 안전밸브를 2개 이상 설치하는 경우에는 안전밸브의 축적압력은 설계압력 또는 최고허용압력의 116% 이하로 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 정변위 펌프 및 정변위 압축기의 토출측 배관에 설치된 밸브가 차단된 경우펌프 및 압축기의 최대 용량 </t>
+          <t xml:space="preserve">안전밸브의 축적압력은 다음과 같아야 한다(&lt;표 1&gt; 및 &lt;부록 3&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 안전밸브를 2개 이상 설치하는 경우에는 안전밸브의 축적압력은 설계압력 또는 최고허용압력의 116% 이하로 하여야 한다. </t>
+          <t>(마) 자동제어밸브가 고장난 경우</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브의 축적압력은 다음과 같아야 한다(&lt;표 1&gt; 및 &lt;부록 3&gt; 참조) </t>
+          <t>① 용기 등의 인입배관에 설치된 자동밸브가 고장시에 열린 상태(Failure open)로 되는 경우 : 자동제어밸브의 최대 유입량과 용기 등에서 정상적으로 배출되는 유출량과의 차</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>(마) 자동제어밸브가 고장난 경우</t>
+          <t>② 용기 등의 인입배관 및 출구배관에 설치된 각각의 자동제어밸브가 고장시에열린 상태로 되는 경우 : 최대 유입량과 최대 유출량과의 차</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>① 용기 등의 인입배관에 설치된 자동밸브가 고장시에 열린 상태(Failure open)로 되는 경우 : 자동제어밸브의 최대 유입량과 용기 등에서 정상적으로 배출되는 유출량과의 차</t>
+          <t xml:space="preserve">③ 용기 등의 출구배관에 설치된 자동제어밸브가 고장시에 닫힌 상태(Failure close)로 되는 경우 : 최대 유입량 </t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>② 용기 등의 인입배관 및 출구배관에 설치된 각각의 자동제어밸브가 고장시에열린 상태로 되는 경우 : 최대 유입량과 최대 유출량과의 차</t>
+          <t xml:space="preserve">10. 안전밸브 등의 배출용량 </t>
         </is>
       </c>
     </row>
@@ -5064,12 +5064,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve">③ 용기 등의 출구배관에 설치된 자동제어밸브가 고장시에 닫힌 상태(Failure close)로 되는 경우 : 최대 유입량 </t>
+          <t xml:space="preserve">T 1 : 안전밸브 작동시의 유체 온도(K), ( P 1 /P n )×T n </t>
         </is>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve">10. 안전밸브 등의 배출용량 </t>
+          <t xml:space="preserve">안전밸브 등의 배출용량은 8.에서 산출한 각각의 소요 분출량 중에서 가장 큰 수치를 당해 안전밸브 등의 배출용량으로 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve">T 1 : 안전밸브 작동시의 유체 온도(K), ( P 1 /P n )×T n </t>
+          <t xml:space="preserve">(1) 설치대상 용기 등에서 안전밸브 등의 인입 플랜지까지의 인입배관 내에서의 압력손실은 설정 압력의 3% 이하이어야 한다. 다만, 후단 배관의 자유로운 배출 등을 위하여 안전밸브의 위치를 보호기기 보다 높이 이격시켜 설치할 경우는 안전밸브 전단의 배관직경을 크게 하여 압력손실을 줄일 수 있다(&lt;그림 3&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5115,12 +5115,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량은 8.에서 산출한 각각의 소요 분출량 중에서 가장 큰 수치를 당해 안전밸브 등의 배출용량으로 하여야 한다. </t>
+          <t xml:space="preserve">(1) 안전밸브 등은 보호대상 용기 등의 상부 기상/증기 공간 또는 기상 / 증기 공간에 연결된 배관에 설치하여야 한다(&lt;그림 1&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 설치대상 용기 등에서 안전밸브 등의 인입 플랜지까지의 인입배관 내에서의 압력손실은 설정 압력의 3% 이하이어야 한다. 다만, 후단 배관의 자유로운 배출 등을 위하여 안전밸브의 위치를 보호기기 보다 높이 이격시켜 설치할 경우는 안전밸브 전단의 배관직경을 크게 하여 압력손실을 줄일 수 있다(&lt;그림 3&gt; 참조) </t>
+          <t xml:space="preserve">(2) 안전밸브 등의 인입배관과 토출배관의 호칭지름은 안전밸브 등의 인입플랜지와토출플랜지의 호칭치수와 같거나 그 이상이어야 한다(&lt;그림 4&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 안전밸브 등은 보호대상 용기 등의 상부 기상/증기 공간 또는 기상 / 증기 공간에 연결된 배관에 설치하여야 한다(&lt;그림 1&gt; 참조) </t>
+          <t>(2) 열팽창용 안전밸브는 동일공간에 기상부위가 없고 액상만 존재하며, 정상운전 중유체가 차단되는 경우에 한해 적용한다. 다만, 차단된 상태에서 일광 등에 의해 내부 액체의 체팽창으로 설비의 파손이 우려되는 경우에 설치하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 안전밸브 등의 인입배관과 토출배관의 호칭지름은 안전밸브 등의 인입플랜지와토출플랜지의 호칭치수와 같거나 그 이상이어야 한다(&lt;그림 4&gt; 참조) </t>
+          <t xml:space="preserve">&lt;그림 1&gt; 안전밸브 등의 설치위치 </t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>(2) 열팽창용 안전밸브는 동일공간에 기상부위가 없고 액상만 존재하며, 정상운전 중유체가 차단되는 경우에 한해 적용한다. 다만, 차단된 상태에서 일광 등에 의해 내부 액체의 체팽창으로 설비의 파손이 우려되는 경우에 설치하여야 한다.</t>
+          <t xml:space="preserve">&lt;그림 2&gt; 열팽창 안전밸브의 설치 위치 </t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 1&gt; 안전밸브 등의 설치위치 </t>
+          <t xml:space="preserve">&lt;그림 3&gt; 안전밸브 등의 인입배관 압력손실 </t>
         </is>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 2&gt; 열팽창 안전밸브의 설치 위치 </t>
+          <t xml:space="preserve">&lt;그림 4&gt; 안전밸브 등의 인입 및 토출배관 호칭지름 </t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 3&gt; 안전밸브 등의 인입배관 압력손실 </t>
+          <t>안전밸브 등의 설치방법은 다음과 같다.</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 4&gt; 안전밸브 등의 인입 및 토출배관 호칭지름 </t>
+          <t xml:space="preserve">(3) 2개 이상의 안전밸브 등이 하나의 연결부위에 설치되어 필요한 분출량을 배출하 도록 된 경우에 연결배관의 내부 단면적은 각 안전밸브 등의 인입단면적 합계와같거나 그 이상이어야 한다. 다만, 예비로 설치된 안전밸브 등에는 이를 적용하지 아니한다(&lt;그림 5&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5268,12 +5268,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>안전밸브 등의 설치방법은 다음과 같다.</t>
+          <t>(4) 안전밸브의 토출배관에 걸리는 배압은 안전밸브 설정압력의 10% 이하가 되도록하며, 배압의 영향을 받지 않도록 제작된 벨로우즈형(밸런스형) 안전밸브를 사용 하는 경우에는 설정압력의 50% 이내로 한다. 다만, 벨로우즈형 안전밸브 제작자가 배압 허용한도를 명시한 경우에는 이에 따른다.</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 2개 이상의 안전밸브 등이 하나의 연결부위에 설치되어 필요한 분출량을 배출하 도록 된 경우에 연결배관의 내부 단면적은 각 안전밸브 등의 인입단면적 합계와같거나 그 이상이어야 한다. 다만, 예비로 설치된 안전밸브 등에는 이를 적용하지 아니한다(&lt;그림 5&gt; 참조) </t>
+          <t>(5) 안전밸브의 토출배관은 안전밸브로부터 토출된 유체(액상이나 증기상태로 배출 되는 유체)가 배관 내에 정체되지 않도록 설치하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>(4) 안전밸브의 토출배관에 걸리는 배압은 안전밸브 설정압력의 10% 이하가 되도록하며, 배압의 영향을 받지 않도록 제작된 벨로우즈형(밸런스형) 안전밸브를 사용 하는 경우에는 설정압력의 50% 이내로 한다. 다만, 벨로우즈형 안전밸브 제작자가 배압 허용한도를 명시한 경우에는 이에 따른다.</t>
+          <t>(6) 안전밸브의 토출배관을 옥외에 설치하는 경우에는 빗물 등이 들어가지 않도록 토출배관에 배압의 영향을 받지 않도록 설계된 캡 등을 설치하거나, 토출배관 하부에 빗물 등이 고이지 않도록 구멍(직경 5 mm 정도)을 내는 등의 조치를 하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>(5) 안전밸브의 토출배관은 안전밸브로부터 토출된 유체(액상이나 증기상태로 배출 되는 유체)가 배관 내에 정체되지 않도록 설치하여야 한다.</t>
+          <t xml:space="preserve">(7) 안전밸브는 자체 하중, 안전밸브 전·후단 배관의 하중, 안전밸브 토출시의 충격및 외부 충격 등에 견딜 수 있도록 설치하되 필요시 지지대를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>(6) 안전밸브의 토출배관을 옥외에 설치하는 경우에는 빗물 등이 들어가지 않도록 토출배관에 배압의 영향을 받지 않도록 설계된 캡 등을 설치하거나, 토출배관 하부에 빗물 등이 고이지 않도록 구멍(직경 5 mm 정도)을 내는 등의 조치를 하여야 한다.</t>
+          <t xml:space="preserve">&lt;그림 5&gt; 2개 이상의 안전밸브 등이 설치된 경우 연결배관의 내부단면적 </t>
         </is>
       </c>
     </row>
@@ -5353,12 +5353,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) 안전밸브는 자체 하중, 안전밸브 전·후단 배관의 하중, 안전밸브 토출시의 충격및 외부 충격 등에 견딜 수 있도록 설치하되 필요시 지지대를 설치하여야 한다. </t>
+          <t xml:space="preserve">(1) 인접한 용기 등에 안전밸브 등이 이중으로 설치되어 있는 경우(&lt;그림 6&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5370,12 +5370,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 5&gt; 2개 이상의 안전밸브 등이 설치된 경우 연결배관의 내부단면적 </t>
+          <t>(8) 점도가 높거나 응고되기 쉬운 물질 또는 결빙에 의하여 안전밸브 등의 막힘이있을 수 있는 경우에는, 안전밸브 등과 그 인입배관 및 토출배관에 이를 방지하기 위해 가열?단열 등 적절한 조치를 하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 인접한 용기 등에 안전밸브 등이 이중으로 설치되어 있는 경우(&lt;그림 6&gt; 참조) </t>
+          <t xml:space="preserve">(9) 파열판과 안전밸브가 직렬로 설치되는 경우에는 파열판과 안전밸브 사이에 파열판의 파열 또는 누출을 탐지할 수 있는 압력지시계 또는 경보장치를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>(8) 점도가 높거나 응고되기 쉬운 물질 또는 결빙에 의하여 안전밸브 등의 막힘이있을 수 있는 경우에는, 안전밸브 등과 그 인입배관 및 토출배관에 이를 방지하기 위해 가열?단열 등 적절한 조치를 하여야 한다.</t>
+          <t xml:space="preserve">&lt;그림 6&gt; 인접한 용기 등에 안전밸브 등이 이중으로 설치되어 있는 경우 </t>
         </is>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve">(9) 파열판과 안전밸브가 직렬로 설치되는 경우에는 파열판과 안전밸브 사이에 파열판의 파열 또는 누출을 탐지할 수 있는 압력지시계 또는 경보장치를 설치하여야 한다. </t>
+          <t xml:space="preserve">11.3. 차단밸브 설치 </t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 6&gt; 인접한 용기 등에 안전밸브 등이 이중으로 설치되어 있는 경우 </t>
+          <t xml:space="preserve">안전보건규칙 제266조(차단밸브의 설치금지)의 규정에 의하여 안전밸브 등의 전? 후단에는 차단밸브를 설치하여서는 아니 된다. 다만, 안전보건규칙 제266조의 단서 규정에 해당하는 경우에는 안전밸브 등의 전?후단에 차단밸브를 설치할 수 있으며, 시건조치의 방법으로는 점화원 관리차원에서 플라스틱재질의 케이블끈(Cable tie) 등을 사용하고 열림과 닫힘을 색상으로 구분하는 것이 필요하다. 그 상세한 사항은 다음과 같다. </t>
         </is>
       </c>
     </row>
@@ -5455,12 +5455,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve">11.3. 차단밸브 설치 </t>
+          <t xml:space="preserve">(2) 안전밸브 등의 배출용량의 50% 이상에 해당하는 용량의 자동압력제어밸브(단, 구동용 동력의 공급 차단시 열리는 구조인 것에 한함)와 안전밸브 등이 병렬로 연결된 경우(&lt;그림 7&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5472,12 +5472,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전보건규칙 제266조(차단밸브의 설치금지)의 규정에 의하여 안전밸브 등의 전? 후단에는 차단밸브를 설치하여서는 아니 된다. 다만, 안전보건규칙 제266조의 단서 규정에 해당하는 경우에는 안전밸브 등의 전?후단에 차단밸브를 설치할 수 있으며, 시건조치의 방법으로는 점화원 관리차원에서 플라스틱재질의 케이블끈(Cable tie) 등을 사용하고 열림과 닫힘을 색상으로 구분하는 것이 필요하다. 그 상세한 사항은 다음과 같다. </t>
+          <t xml:space="preserve">(3) 복수방식으로 안전밸브 등이 설치된 경우(&lt;그림 8&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 안전밸브 등의 배출용량의 50% 이상에 해당하는 용량의 자동압력제어밸브(단, 구동용 동력의 공급 차단시 열리는 구조인 것에 한함)와 안전밸브 등이 병렬로 연결된 경우(&lt;그림 7&gt; 참조) </t>
+          <t xml:space="preserve">&lt;그림 7&gt; 안전밸브 등의 배출용량의 50% 이상에 해당하는 용량의 자동압력제어밸브와 안전밸브 등이 병렬로 연결된 경우 </t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 복수방식으로 안전밸브 등이 설치된 경우(&lt;그림 8&gt; 참조) </t>
+          <t xml:space="preserve">&lt;그림 8&gt; 복수방식으로 안전밸브 등이 설치된 경우 </t>
         </is>
       </c>
     </row>
@@ -5523,12 +5523,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 7&gt; 안전밸브 등의 배출용량의 50% 이상에 해당하는 용량의 자동압력제어밸브와 안전밸브 등이 병렬로 연결된 경우 </t>
+          <t xml:space="preserve">(4) 예비용 용기 등이 설치되고 각각의 용기에 안전밸브 등이 설치된 경우 (&lt;그림 9&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 8&gt; 복수방식으로 안전밸브 등이 설치된 경우 </t>
+          <t xml:space="preserve">(5) 열팽창에 의한 압력상승을 방출하기 위한 안전밸브의 경우(&lt;그림 10&gt; 참조) </t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 예비용 용기 등이 설치되고 각각의 용기에 안전밸브 등이 설치된 경우 (&lt;그림 9&gt; 참조) </t>
+          <t xml:space="preserve">&lt;그림 10&gt; 열팽창에 의한 압력상승을 방출하기 위한 안전밸브의 경우 </t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 열팽창에 의한 압력상승을 방출하기 위한 안전밸브의 경우(&lt;그림 10&gt; 참조) </t>
+          <t xml:space="preserve">&lt;그림 9&gt; 예비용 용기 등이 설치되고 각각의 용기에 안전밸브 등이 설치된 경우 </t>
         </is>
       </c>
     </row>
@@ -5591,12 +5591,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 10&gt; 열팽창에 의한 압력상승을 방출하기 위한 안전밸브의 경우 </t>
+          <t xml:space="preserve">(6) 하나의 플레어스택(Flare stack)에 둘 이상의 단위공정의 플레어헤더(Flare header)를 연결하여 사용하는 경우로서 각각의 단위공정의 플레어헤더에 설치된 차단밸브의 열림·닫힘 상태를 중앙제어실에서 알 수 있도록 조치한 경우(&lt;그림 </t>
         </is>
       </c>
     </row>
@@ -5608,12 +5608,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 9&gt; 예비용 용기 등이 설치되고 각각의 용기에 안전밸브 등이 설치된 경우 </t>
+          <t xml:space="preserve">안전밸브 등으로부터 배출되는 위험물질은 연소, 흡수, 세정, 포집 또는 회수 등의 방법으로 처리하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 하나의 플레어스택(Flare stack)에 둘 이상의 단위공정의 플레어헤더(Flare header)를 연결하여 사용하는 경우로서 각각의 단위공정의 플레어헤더에 설치된 차단밸브의 열림·닫힘 상태를 중앙제어실에서 알 수 있도록 조치한 경우(&lt;그림 </t>
+          <t xml:space="preserve">(5) 회수에 의한 처리 배출물질과 동일한 물질을 취급하는 설비로 수거하는 방법이며, 배출물질의 양과안전밸브의 배압이 고려되어야 한다. </t>
         </is>
       </c>
     </row>
@@ -5642,46 +5642,46 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등으로부터 배출되는 위험물질은 연소, 흡수, 세정, 포집 또는 회수 등의 방법으로 처리하여야 한다. </t>
+          <t xml:space="preserve">(7) 기타안전밸브에서 순간적으로 배출되는 물질을 환경처리설비(RTO, RCO 등)에 연결 하여 처리할 경우 화재나 폭발의 위험이 있으므로 연결에 앞서 위험성평가가 이루어져야 한다. </t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">안전밸브 배출배관의 설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 회수에 의한 처리 배출물질과 동일한 물질을 취급하는 설비로 수거하는 방법이며, 배출물질의 양과안전밸브의 배압이 고려되어야 한다. </t>
+          <t>(가) “최대 허용배압 (MABP, Maximum allowable back pressure”이라 함은 안전밸브 작동 시 배압에 의해 안전밸브의 기능이 저하되지 않도록 안전밸브 토출측에 작용될 수 있는 최대의 배압을 말하며, 일반적으로 일반형(Conventional type) 안전밸브의 경우에는 안전밸브 설정압력의 10% 이내이며, 벨로우즈형 안전밸브의 경우에는 안전밸브 설정압력의 50% 이내로 허용된다.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">안전밸브 배출배관의 설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) 기타안전밸브에서 순간적으로 배출되는 물질을 환경처리설비(RTO, RCO 등)에 연결 하여 처리할 경우 화재나 폭발의 위험이 있으므로 연결에 앞서 위험성평가가 이루어져야 한다. </t>
+          <t>(나) “중첩배압 (Superimposed back pressure)”이라 함은 안전밸브가 작동하기 직전에 토출측에 걸리는 정압(Static pressure)을 말한다.</t>
         </is>
       </c>
     </row>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>(가) “최대 허용배압 (MABP, Maximum allowable back pressure”이라 함은 안전밸브 작동 시 배압에 의해 안전밸브의 기능이 저하되지 않도록 안전밸브 토출측에 작용될 수 있는 최대의 배압을 말하며, 일반적으로 일반형(Conventional type) 안전밸브의 경우에는 안전밸브 설정압력의 10% 이내이며, 벨로우즈형 안전밸브의 경우에는 안전밸브 설정압력의 50% 이내로 허용된다.</t>
+          <t>(다) “누적배압 (Built-up back pressure)"이라 함은 안전밸브가 작동한 후에 유체방출로 인하여 발생하는 토출측에서의 압력증가량을 말한다.</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>(나) “중첩배압 (Superimposed back pressure)”이라 함은 안전밸브가 작동하기 직전에 토출측에 걸리는 정압(Static pressure)을 말한다.</t>
+          <t>(라) “일반형 안전밸브 (Conventional safety valve)”라 함은 밸브의 토출측 배압의 변화에 의하여 직접적으로 성능특성에 영향을 받도록 만들어진 스프링 직동식 안전밸브를 말한다.</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>(다) “누적배압 (Built-up back pressure)"이라 함은 안전밸브가 작동한 후에 유체방출로 인하여 발생하는 토출측에서의 압력증가량을 말한다.</t>
+          <t xml:space="preserve">(마) “벨로우즈형 안전밸브 (Balanced bellows safety valve)”라 함은 밸브의 토출측배압의 변화에 의하여 성능특성에 영향을 받지 않도록 만들어진 스프링 직동식 안전밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>(라) “일반형 안전밸브 (Conventional safety valve)”라 함은 밸브의 토출측 배압의 변화에 의하여 직접적으로 성능특성에 영향을 받도록 만들어진 스프링 직동식 안전밸브를 말한다.</t>
+          <t xml:space="preserve">이 지침은 안전밸브 배출배관의 설계에 필요한 사항을 정하는데 그 목적이 있다. </t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve">(마) “벨로우즈형 안전밸브 (Balanced bellows safety valve)”라 함은 밸브의 토출측배압의 변화에 의하여 성능특성에 영향을 받지 않도록 만들어진 스프링 직동식 안전밸브를 말한다. </t>
+          <t xml:space="preserve">이 지침은 안전밸브 토출측을 대기로 배출하거나 배기처리설비로 연결하는 배출 배관에 적용될 수 있다. </t>
         </is>
       </c>
     </row>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 안전밸브 배출배관의 설계에 필요한 사항을 정하는데 그 목적이 있다. </t>
+          <t>(1) 안전밸브 배출배관의 흐름은 등온과정이 단열과정보다 보수적인 결과를 제시하므로 등온과정으로 가정하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -5795,12 +5795,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 안전밸브 토출측을 대기로 배출하거나 배기처리설비로 연결하는 배출 배관에 적용될 수 있다. </t>
+          <t>(바) “파일롯트조작형 안전밸브 (Pilot-operated safety valve)”라 함은 안전밸브 자체에 내장된 보조의 안전밸브 작동에 의하여 작동되는 안전밸브를 말한다.</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>(1) 안전밸브 배출배관의 흐름은 등온과정이 단열과정보다 보수적인 결과를 제시하므로 등온과정으로 가정하는 것이 좋다.</t>
+          <t xml:space="preserve">4.1 안전밸브 배출배관 설계 시 고려사항 </t>
         </is>
       </c>
     </row>
@@ -5829,12 +5829,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>(바) “파일롯트조작형 안전밸브 (Pilot-operated safety valve)”라 함은 안전밸브 자체에 내장된 보조의 안전밸브 작동에 의하여 작동되는 안전밸브를 말한다.</t>
+          <t>(1) 안전밸브 배출배관 중 지름이 동일한 구간의 분기되는 지점을 별도의 구간으로 나눈 후에 길이를 산정한다.</t>
         </is>
       </c>
     </row>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 안전밸브 배출배관 설계 시 고려사항 </t>
+          <t xml:space="preserve">(10) 고온 또는 저온물질을 방출하는 경우에는 열응력을 고려하여야 하고, 안전 밸브 배출 시 발생하는 진동의 영향도 고려하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>(1) 안전밸브 배출배관 중 지름이 동일한 구간의 분기되는 지점을 별도의 구간으로 나눈 후에 길이를 산정한다.</t>
+          <t>(9) 안전밸브 또는 파열판 작동 시의 하중이 배출배관에 과도하게 걸리는 것을피하고, 내용물이 배출되는 동안 배관지지물의 반력을 적절히 지지할 수 있어야 한다.</t>
         </is>
       </c>
     </row>
@@ -5880,12 +5880,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10) 고온 또는 저온물질을 방출하는 경우에는 열응력을 고려하여야 하고, 안전 밸브 배출 시 발생하는 진동의 영향도 고려하여야 한다. </t>
+          <t>(2) 안전밸브별 분자량, 온도, 점도 및 배출용량을 구한다.</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>(9) 안전밸브 또는 파열판 작동 시의 하중이 배출배관에 과도하게 걸리는 것을피하고, 내용물이 배출되는 동안 배관지지물의 반력을 적절히 지지할 수 있어야 한다.</t>
+          <t>(4) 안전밸브별 최대 허용배압을 구한다.</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>(2) 안전밸브별 분자량, 온도, 점도 및 배출용량을 구한다.</t>
+          <t xml:space="preserve">5. 안전밸브 배출배관의 설계 </t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>(4) 안전밸브별 최대 허용배압을 구한다.</t>
+          <t>안전밸브 배출배관의 설계단계는 아래와 같다.</t>
         </is>
       </c>
     </row>
@@ -5948,12 +5948,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. 안전밸브 배출배관의 설계 </t>
+          <t>(1) 각각의 안전밸브에서 최종 배기처리시설로 연결되는 배관에 대해 계통도를 작성한다. 계통도 작성 예는 &lt;부록 1&gt;의 &lt;그림 1&gt;과 같다.</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5965,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>안전밸브 배출배관의 설계단계는 아래와 같다.</t>
+          <t xml:space="preserve">(3) 계통도에 포함될 수 있는 사항은 아래와 같으나, 안전밸브번호 및 배출배관의 연결지점 외의 내용은 별도의 시트에 작성할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>(1) 각각의 안전밸브에서 최종 배기처리시설로 연결되는 배관에 대해 계통도를 작성한다. 계통도 작성 예는 &lt;부록 1&gt;의 &lt;그림 1&gt;과 같다.</t>
+          <t>(8) 안전밸브 출구측 압력과 최대 허용배압을 비교한다.</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 계통도에 포함될 수 있는 사항은 아래와 같으나, 안전밸브번호 및 배출배관의 연결지점 외의 내용은 별도의 시트에 작성할 수 있다. </t>
+          <t>(가) 각각의 안전밸브별로 계산된 안전밸브 출구측 압력과 최대 허용배압을 비교한다.</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>(8) 안전밸브 출구측 압력과 최대 허용배압을 비교한다.</t>
+          <t xml:space="preserve">(나) 안전밸브 출구측 압력이 최대 허용배압보다 클 경우에는 배관의 지름을크게 하여 상기의 과정을 반복하거나 또는 안전밸브 형식을 변경(예, 일반형인 경우에는 벨로우즈형식)하여 비교한다. </t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>(가) 각각의 안전밸브별로 계산된 안전밸브 출구측 압력과 최대 허용배압을 비교한다.</t>
+          <t>(다) 계속해서 안전밸브 연결지점의 검토구간에 도달할 때까지 각 검토구간에 대해 (6)항의 과정을 반복한다.</t>
         </is>
       </c>
     </row>
@@ -6050,12 +6050,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 안전밸브 출구측 압력이 최대 허용배압보다 클 경우에는 배관의 지름을크게 하여 상기의 과정을 반복하거나 또는 안전밸브 형식을 변경(예, 일반형인 경우에는 벨로우즈형식)하여 비교한다. </t>
+          <t>(1) 각 안전밸브별 토출측의 최대 허용배압을 계산한다.</t>
         </is>
       </c>
     </row>
@@ -6067,12 +6067,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>(다) 계속해서 안전밸브 연결지점의 검토구간에 도달할 때까지 각 검토구간에 대해 (6)항의 과정을 반복한다.</t>
+          <t>(1) 안전밸브 배출지점의 아래와 같은 물성치를 구한다.</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>(1) 각 안전밸브별 토출측의 최대 허용배압을 계산한다.</t>
+          <t>(가) 안전밸브 관련정보 : 안전밸브 번호, 설정압력, 입구 및 출구측 사이즈, 안전밸브 타입(일반형, 벨로우즈형, 파일럿 작동형)</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>(1) 안전밸브 배출지점의 아래와 같은 물성치를 구한다.</t>
+          <t>(가) 안전밸브 배출용량(Required capacity) [kg/hr, lb/hr] (나) 분자량(혼합물인 경우에는 평균분자량) (다) 온도 (라) 점도(Viscosity) [cP] (2) 안전밸브 배출배관의 연결지점의 물성치는 5.2.5항의 식을 통해 구한다.</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>(가) 안전밸브 관련정보 : 안전밸브 번호, 설정압력, 입구 및 출구측 사이즈, 안전밸브 타입(일반형, 벨로우즈형, 파일럿 작동형)</t>
+          <t xml:space="preserve">(나) 안전밸브의 배출배관이 만나는 지점의 위치 </t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>(가) 안전밸브 배출용량(Required capacity) [kg/hr, lb/hr] (나) 분자량(혼합물인 경우에는 평균분자량) (다) 온도 (라) 점도(Viscosity) [cP] (2) 안전밸브 배출배관의 연결지점의 물성치는 5.2.5항의 식을 통해 구한다.</t>
+          <t xml:space="preserve">5.2.2 안전밸브별 물성치 파악 </t>
         </is>
       </c>
     </row>
@@ -6152,12 +6152,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 안전밸브의 배출배관이 만나는 지점의 위치 </t>
+          <t>(1) 배출배관을 분석하기 위해서는 최종 배출지점에서 안전밸브까지 거슬러 올라가면서 수행하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6169,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.2.2 안전밸브별 물성치 파악 </t>
+          <t xml:space="preserve">여기서, W : 최종 배출지점의 유량. 연결된 안전밸브 전체의 배출용량 [kg/hr, lb/hr] Ma 2 : 배출측의 마하수(Mach number, 무차원) P 2 : 배출측의 압력(절대압력) [kPa, psi] d : 배출배관의 내경 [m, ft] Z : 가스 압축계수(=1) (무차원) M : 분자량 </t>
         </is>
       </c>
     </row>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>(1) 배출배관을 분석하기 위해서는 최종 배출지점에서 안전밸브까지 거슬러 올라가면서 수행하는 것이 좋다.</t>
+          <t>(1) 5.2.7항에서 최종적으로 구한 입구측 압력(P 1 )과 해당 안전밸브의 최대 허용 배압을 비교한다.</t>
         </is>
       </c>
     </row>
@@ -6203,12 +6203,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t xml:space="preserve">여기서, W : 최종 배출지점의 유량. 연결된 안전밸브 전체의 배출용량 [kg/hr, lb/hr] Ma 2 : 배출측의 마하수(Mach number, 무차원) P 2 : 배출측의 압력(절대압력) [kPa, psi] d : 배출배관의 내경 [m, ft] Z : 가스 압축계수(=1) (무차원) M : 분자량 </t>
+          <t>(2) 최종적으로 구한 입구측 압력(P 1 )이 해당 안전밸브의 최대 허용배압보다 작으면 배출배관의 분석은 완료된다.</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>(1) 5.2.7항에서 최종적으로 구한 입구측 압력(P 1 )과 해당 안전밸브의 최대 허용 배압을 비교한다.</t>
+          <t xml:space="preserve">(4) 만약 계산된 입구측 압력이 최대 허용배압보다 현저히 작을 경우에는 안전 밸브 배출배관 중 길이가 가장 긴 배관의 사이즈를 줄여 입구측 압력이 최대 허용배압에 근접하도록 조치할 필요가 있다. </t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>(2) 최종적으로 구한 입구측 압력(P 1 )이 해당 안전밸브의 최대 허용배압보다 작으면 배출배관의 분석은 완료된다.</t>
+          <t xml:space="preserve">(5) 최종적으로 안전밸브 배출측에 도달될 때까지 하나씩 검토구간을 순차적으로 분석한다. </t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 만약 계산된 입구측 압력이 최대 허용배압보다 현저히 작을 경우에는 안전 밸브 배출배관 중 길이가 가장 긴 배관의 사이즈를 줄여 입구측 압력이 최대 허용배압에 근접하도록 조치할 필요가 있다. </t>
+          <t>(가) 안전밸브 토출측 배관의 사이즈를 증대시킨다.</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 최종적으로 안전밸브 배출측에 도달될 때까지 하나씩 검토구간을 순차적으로 분석한다. </t>
+          <t>(나) 만약 안전밸브의 형식이 일반형(Conventional)이면, 벨로우즈형으로 변경하여 최대 허용배압을 증대시켜 비교한다.</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>(가) 안전밸브 토출측 배관의 사이즈를 증대시킨다.</t>
+          <t xml:space="preserve">5.3 안전밸브 배출배관 설계 (예) </t>
         </is>
       </c>
     </row>
@@ -6310,41 +6310,41 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>(나) 만약 안전밸브의 형식이 일반형(Conventional)이면, 벨로우즈형으로 변경하여 최대 허용배압을 증대시켜 비교한다.</t>
+          <t xml:space="preserve">안전밸브 배출배관의 설계 예는 [부록 1]에 있다. </t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 배출배관의 설계에 관한 기술지침 </t>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.3 안전밸브 배출배관 설계 (예) </t>
+          <t xml:space="preserve">(3) 탱크로리 등과 연결된 배관의 플랜지 및 밸브 등에서의 누출 </t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 배출배관의 설계에 관한 기술지침 </t>
+          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 배출배관의 설계 예는 [부록 1]에 있다. </t>
+          <t xml:space="preserve">- 밸브 및 펌프를 차단해야 하는 경우 : 조치시간 약 10초 (스위치 및밸브의 위치에 따라 다를 수 있으므로 작업현장의 여건을 고려하여 결정하여야 한다.) </t>
         </is>
       </c>
     </row>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 탱크로리 등과 연결된 배관의 플랜지 및 밸브 등에서의 누출 </t>
+          <t xml:space="preserve">(가) 작업자의 현장 대응과 별도로 원격으로 작업현장을 감시하면서 조정실에서 긴급차단밸브 및 펌프(탱크로리 등의 차량에 부착된 펌프 제외)를 차단할 수 있는 경우에는 차단시간을 현저히 줄일 수 있으며, 차단시간은 설치된 시스템에 따라 다를 수 있다. </t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t xml:space="preserve">- 밸브 및 펌프를 차단해야 하는 경우 : 조치시간 약 10초 (스위치 및밸브의 위치에 따라 다를 수 있으므로 작업현장의 여건을 고려하여 결정하여야 한다.) </t>
+          <t xml:space="preserve">o 화학물질 누출 원인 : 이송 호스의 파열 o 화학물질 이송량 : 0.568 ㎥/min (150 갤런/min) o 펌프 정지스위치의 접근 가능성 : 작업자가 접근하여 정지 가능 o 이송배관에 연결된 밸브의 위치 : 작업자가 접근하여 차단 가능 o 비상대응소요시간 : 안전하게 10초 이내에 펌프 및 밸브를 차단할수 있음 (과거의 경험 등에 기초) o 산출에 사용하는 비상대응소요시간 : 보수적으로 잡아 15초로 산정 o 누출량 : 0.568 (㎥/min) * 15 초/60 = 0.142 ㎥ (37.5 갤런) o 트렌치 용량 선정 : 트렌치의 용량은 0.142 ㎥ 보다는 커야 함. </t>
         </is>
       </c>
     </row>
@@ -6390,12 +6390,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 작업자의 현장 대응과 별도로 원격으로 작업현장을 감시하면서 조정실에서 긴급차단밸브 및 펌프(탱크로리 등의 차량에 부착된 펌프 제외)를 차단할 수 있는 경우에는 차단시간을 현저히 줄일 수 있으며, 차단시간은 설치된 시스템에 따라 다를 수 있다. </t>
+          <t xml:space="preserve">o 참고사항 : 비상대응시간은 펌프 정지 스위치 및 차단밸브의 위치에 따라 영향을 받으며, 현장에 대기하는 작업자가 보호 구를 착용한 상태에서 대기하느냐 그렇지 않으냐에 따라 달라질 수 있음. 따라서 그와 같은 경우에는 추가적인 대응시간을 고려하여 산출해야 함. </t>
         </is>
       </c>
     </row>
@@ -6407,12 +6407,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t xml:space="preserve">o 화학물질 누출 원인 : 이송 호스의 파열 o 화학물질 이송량 : 0.568 ㎥/min (150 갤런/min) o 펌프 정지스위치의 접근 가능성 : 작업자가 접근하여 정지 가능 o 이송배관에 연결된 밸브의 위치 : 작업자가 접근하여 차단 가능 o 비상대응소요시간 : 안전하게 10초 이내에 펌프 및 밸브를 차단할수 있음 (과거의 경험 등에 기초) o 산출에 사용하는 비상대응소요시간 : 보수적으로 잡아 15초로 산정 o 누출량 : 0.568 (㎥/min) * 15 초/60 = 0.142 ㎥ (37.5 갤런) o 트렌치 용량 선정 : 트렌치의 용량은 0.142 ㎥ 보다는 커야 함. </t>
+          <t xml:space="preserve">(다) 트렌치에 피트 또는 집수조가 설치되어 있거나 또는 밸브 등의 차단장치 없이 폐수처리장 등에 연결되어 있을 경우에는 해당 시설의 용량을 트렌치 용량에 포함하여 계산할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t xml:space="preserve">o 참고사항 : 비상대응시간은 펌프 정지 스위치 및 차단밸브의 위치에 따라 영향을 받으며, 현장에 대기하는 작업자가 보호 구를 착용한 상태에서 대기하느냐 그렇지 않으냐에 따라 달라질 수 있음. 따라서 그와 같은 경우에는 추가적인 대응시간을 고려하여 산출해야 함. </t>
+          <t xml:space="preserve">① 하역 또는 출하작업 전에 폐수처리장 등과 연결된 배관상의 차단밸브 </t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) 트렌치에 피트 또는 집수조가 설치되어 있거나 또는 밸브 등의 차단장치 없이 폐수처리장 등에 연결되어 있을 경우에는 해당 시설의 용량을 트렌치 용량에 포함하여 계산할 수 있다. </t>
+          <t xml:space="preserve">② 하역 또는 출하작업이 완료된 경우에는 트렌치와 폐수처리장 등으로연결된 배관의 밸브는 차단하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -6458,46 +6458,46 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t xml:space="preserve">① 하역 또는 출하작업 전에 폐수처리장 등과 연결된 배관상의 차단밸브 </t>
+          <t xml:space="preserve">(5) 피트 또는 집수조에서 폐수처리장 등으로 연결되는 배관 등을 설치할 경우 에는 빗물이 유입되지 않도록 평소에는 차단밸브 등을 닫아 두어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t xml:space="preserve">② 하역 또는 출하작업이 완료된 경우에는 트렌치와 폐수처리장 등으로연결된 배관의 밸브는 차단하여야 한다. </t>
+          <t xml:space="preserve">(1) 열매유가 열화되면 고체탄소가 생성되어 안전밸브가 막히거나 열매유 보일러 튜브벽에 부착되어 튜브 파열의 원인이 되므로 고온, 산소, 습기 및 녹과의 접촉을 차 </t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 피트 또는 집수조에서 폐수처리장 등으로 연결되는 배관 등을 설치할 경우 에는 빗물이 유입되지 않도록 평소에는 차단밸브 등을 닫아 두어야 한다. </t>
+          <t xml:space="preserve">(5) 제어실 및 열매유 보일러와 가까운 위치에서 주요장치 및 밸브의 조작이 모두 가능 하도록 해야 한다. </t>
         </is>
       </c>
     </row>
@@ -6509,12 +6509,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 열매유가 열화되면 고체탄소가 생성되어 안전밸브가 막히거나 열매유 보일러 튜브벽에 부착되어 튜브 파열의 원인이 되므로 고온, 산소, 습기 및 녹과의 접촉을 차 </t>
+          <t xml:space="preserve">(6) 열매유의 사용환경, 온도, 압력과 물성에 따라 연결부의 가스킷 재질, 밸브나 펌프의 패킹재질을 선정한다. </t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 제어실 및 열매유 보일러와 가까운 위치에서 주요장치 및 밸브의 조작이 모두 가능 하도록 해야 한다. </t>
+          <t xml:space="preserve">(2) 열매유의 분무나 미스트형 분출로 인한 화재 및 폭발을 방지하기 위하여 씰, 플랜 지, 밸브패킹 및 잠재적 누출원의 주위에 확산차단용 보호판을 설치한다. 잠재적 </t>
         </is>
       </c>
     </row>
@@ -6543,12 +6543,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 열매유의 사용환경, 온도, 압력과 물성에 따라 연결부의 가스킷 재질, 밸브나 펌프의 패킹재질을 선정한다. </t>
+          <t xml:space="preserve">(6) 열매유 보일러의 가스 및 오일버너 연료 공급배관에는 열에 대한 방호기능이 있는차단밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -6560,12 +6560,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 열매유의 분무나 미스트형 분출로 인한 화재 및 폭발을 방지하기 위하여 씰, 플랜 지, 밸브패킹 및 잠재적 누출원의 주위에 확산차단용 보호판을 설치한다. 잠재적 </t>
+          <t xml:space="preserve">(8) 전기, 계장용 공기 등 유틸리티의 공급중단에 대비하여 조절밸브 및 중요한 계장설 비는 페일 세이프(Fail safe) 설계를 한다. </t>
         </is>
       </c>
     </row>
@@ -6577,12 +6577,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 열매유 보일러의 가스 및 오일버너 연료 공급배관에는 열에 대한 방호기능이 있는차단밸브를 설치한다. </t>
+          <t xml:space="preserve">(5) 밀폐식 배관계의 팽창탱크에는 압력조절밸브 및 안전밸브를 부착한다. </t>
         </is>
       </c>
     </row>
@@ -6594,12 +6594,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) 전기, 계장용 공기 등 유틸리티의 공급중단에 대비하여 조절밸브 및 중요한 계장설 비는 페일 세이프(Fail safe) 설계를 한다. </t>
+          <t xml:space="preserve">(8) 용량 1 ㎥ 이상의 팽창탱크가 위치가 높은 곳에 설치된 경우에는 팽창탱크의 최하 단에 드레인 밸브를 설치하여 팽창탱크 보다 낮은 곳에 설치된 저장탱크로 열매유가 자연 배출되도록 한다. </t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 밀폐식 배관계의 팽창탱크에는 압력조절밸브 및 안전밸브를 부착한다. </t>
+          <t xml:space="preserve">(다) 팽창탱크에 과충진 예방 배관을 설치하여 저장탱크로 연결하고, 과충진 배관에 밸브가 없는 경우에는 팽창탱크 주변의 방유턱 설치를 생략할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -6628,12 +6628,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) 용량 1 ㎥ 이상의 팽창탱크가 위치가 높은 곳에 설치된 경우에는 팽창탱크의 최하 단에 드레인 밸브를 설치하여 팽창탱크 보다 낮은 곳에 설치된 저장탱크로 열매유가 자연 배출되도록 한다. </t>
+          <t xml:space="preserve">(1) 누출된 열매유가 보온재에 흡수되지 않고 흘러내릴 수 있도록 밸브 스템을 수평으로 설치한다. </t>
         </is>
       </c>
     </row>
@@ -6645,12 +6645,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) 팽창탱크에 과충진 예방 배관을 설치하여 저장탱크로 연결하고, 과충진 배관에 밸브가 없는 경우에는 팽창탱크 주변의 방유턱 설치를 생략할 수 있다. </t>
+          <t xml:space="preserve">(2) 누출을 최소화하기 위해 더블 씰 밸브를 사용한다. </t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 누출된 열매유가 보온재에 흡수되지 않고 흘러내릴 수 있도록 밸브 스템을 수평으로 설치한다. </t>
+          <t xml:space="preserve">(4) 온도 177 ℃이상, 또는 온도 104 ℃이상 압력 0.69 MPa(g) 이상으로 운전되는 열매 유배관은 용접배관으로 하고, 기계적 연결은 펌프, 밸브, 설비연결 등에 한정하도록한다. </t>
         </is>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 누출을 최소화하기 위해 더블 씰 밸브를 사용한다. </t>
+          <t xml:space="preserve">6.5 밸브 </t>
         </is>
       </c>
     </row>
@@ -6696,12 +6696,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 온도 177 ℃이상, 또는 온도 104 ℃이상 압력 0.69 MPa(g) 이상으로 운전되는 열매 유배관은 용접배관으로 하고, 기계적 연결은 펌프, 밸브, 설비연결 등에 한정하도록한다. </t>
+          <t xml:space="preserve">(3) 밸브재질은 주강 또는 단조강을 사용한다. </t>
         </is>
       </c>
     </row>
@@ -6713,12 +6713,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t xml:space="preserve">6.5 밸브 </t>
+          <t xml:space="preserve">(4) 글로브 밸브는 밸브 패킹에서의 누출을 방지하기 위하여 외부 스크류 형을 사용한다. </t>
         </is>
       </c>
     </row>
@@ -6730,12 +6730,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 밸브재질은 주강 또는 단조강을 사용한다. </t>
+          <t xml:space="preserve">다만, 배관 플랜지가 없고 용접만으로 이루어지거나 밸브, 펌프 등 누출될만한 부속설비가 없는 경우 단열재의 제한은 없다. 통상적인 단열재는 &lt;표 2&gt;와 같다. </t>
         </is>
       </c>
     </row>
@@ -6747,12 +6747,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 글로브 밸브는 밸브 패킹에서의 누출을 방지하기 위하여 외부 스크류 형을 사용한다. </t>
+          <t xml:space="preserve">(1) 팽창탱크 상부, 열매유 보일러의 열매유 공급 출구배관 및 열팽창의 우려가 있는 배관에는 적절한 안전밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -6764,12 +6764,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t xml:space="preserve">다만, 배관 플랜지가 없고 용접만으로 이루어지거나 밸브, 펌프 등 누출될만한 부속설비가 없는 경우 단열재의 제한은 없다. 통상적인 단열재는 &lt;표 2&gt;와 같다. </t>
+          <t xml:space="preserve">(2) 안전밸브의 용량 선정, 설치 등에 관한 사항은 KOSHA GUIDE “안전밸브 설계 및설치 등에 관한 기술지침”, KOSHA GUIDE “공정용 안전밸브의 기술기준” 및 KOSHA GUIDE “열팽창용 안전밸브의 기술지침”에 따른다. </t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 팽창탱크 상부, 열매유 보일러의 열매유 공급 출구배관 및 열팽창의 우려가 있는 배관에는 적절한 안전밸브를 설치한다. </t>
+          <t xml:space="preserve">(3) 유동점이 높은 열매유를 안전밸브를 통하여 옥외로 방출하는 경우에는 열매유의 응고, 동결 등에 의한 안전밸브의 막힘이 없도록 단열, 가열 등의 조치를 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 안전밸브의 용량 선정, 설치 등에 관한 사항은 KOSHA GUIDE “안전밸브 설계 및설치 등에 관한 기술지침”, KOSHA GUIDE “공정용 안전밸브의 기술기준” 및 KOSHA GUIDE “열팽창용 안전밸브의 기술지침”에 따른다. </t>
+          <t xml:space="preserve">(4) 안전밸브 최종 방출구는 우천 시 비가 들어오지 않도록 후드를 씌우거나 적절한방법으로 말단 처리한다. </t>
         </is>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 유동점이 높은 열매유를 안전밸브를 통하여 옥외로 방출하는 경우에는 열매유의 응고, 동결 등에 의한 안전밸브의 막힘이 없도록 단열, 가열 등의 조치를 하여야 한다. </t>
+          <t xml:space="preserve">(5) 파열판을 안전밸브 전단에 부착할 경우 안전밸브와 파열판 사이에 압력계 등을설 치하여 파열판의 파손여부를 확인할 수 있도록 한다. </t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 안전밸브 최종 방출구는 우천 시 비가 들어오지 않도록 후드를 씌우거나 적절한방법으로 말단 처리한다. </t>
+          <t xml:space="preserve">8.1 안전밸브 </t>
         </is>
       </c>
     </row>
@@ -6849,12 +6849,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 파열판을 안전밸브 전단에 부착할 경우 안전밸브와 파열판 사이에 압력계 등을설 치하여 파열판의 파손여부를 확인할 수 있도록 한다. </t>
+          <t>(1) 열매유 보일러 화재 시에는 열매유 사용설비로 공급되는 열매유배관에 자동 차단밸브나 삼방(3way)밸브를 설치하여 열매유 사용설비로 공급되는 열매유를 차단한다.</t>
         </is>
       </c>
     </row>
@@ -6866,12 +6866,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.1 안전밸브 </t>
+          <t xml:space="preserve">(2) 열매유 보일러 및 사용설비 사이의 열매유배관 등에 열매유 보유량이 많은 경우 (2000L이상) 누출 잠재량을 줄일 수 있도록 다음을 고려하여 차단밸브를 추가 설치한 다. </t>
         </is>
       </c>
     </row>
@@ -6883,12 +6883,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>(1) 열매유 보일러 화재 시에는 열매유 사용설비로 공급되는 열매유배관에 자동 차단밸브나 삼방(3way)밸브를 설치하여 열매유 사용설비로 공급되는 열매유를 차단한다.</t>
+          <t xml:space="preserve">(나) 탱크나 배관의 설치 높이 차이로 인한 자연낙차로 인하여, 배관 파손 또는 밸브열림 시 등 많은 량의 열매유 누출이 예상되는 경우 </t>
         </is>
       </c>
     </row>
@@ -6900,12 +6900,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 열매유 보일러 및 사용설비 사이의 열매유배관 등에 열매유 보유량이 많은 경우 (2000L이상) 누출 잠재량을 줄일 수 있도록 다음을 고려하여 차단밸브를 추가 설치한 다. </t>
+          <t xml:space="preserve">(7) 열매유배관의 열매유 자동 차단밸브는 공압식 또는 페일 세이프(Fail safe) 형식의밸브를 사용한다. 공압식 밸브를 사용할 경우 공기공급 배관에 일정온도에서 녹는가용(Fusible) 플러그 등을 설치하여 주변의 화재발생시 자동적으로 작동되도록 한다. </t>
         </is>
       </c>
     </row>
@@ -6917,12 +6917,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 탱크나 배관의 설치 높이 차이로 인한 자연낙차로 인하여, 배관 파손 또는 밸브열림 시 등 많은 량의 열매유 누출이 예상되는 경우 </t>
+          <t xml:space="preserve">(8) 열매유배관이 설치된 공간을 관통하는 가연성가스 배관이 설치되는 경우 안전하게작동할 수 있는 위치에 가스 비상차단밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -6934,12 +6934,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) 열매유배관의 열매유 자동 차단밸브는 공압식 또는 페일 세이프(Fail safe) 형식의밸브를 사용한다. 공압식 밸브를 사용할 경우 공기공급 배관에 일정온도에서 녹는가용(Fusible) 플러그 등을 설치하여 주변의 화재발생시 자동적으로 작동되도록 한다. </t>
+          <t xml:space="preserve">(2) 열매유사용 설비의 밸브, 플랜지, 부속류, 펌프 등 옥외 배관으로부터의 누출위험이 있고 누출로 인한 화재가 건물 또는 주요 구조부에 심각한 위험을 초래한다고 판단될 경우 적절한 소방시설을 설치한다. </t>
         </is>
       </c>
     </row>
@@ -6951,12 +6951,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) 열매유배관이 설치된 공간을 관통하는 가연성가스 배관이 설치되는 경우 안전하게작동할 수 있는 위치에 가스 비상차단밸브를 설치한다. </t>
+          <t xml:space="preserve">(가) 배관에 플랜지 이음부가 없고 모든 이음부를 용접한 경우 (나) 밸브, 펌프 또는 이와 유사한 누출원이 없는 경우 (다) 자동 또는 수동 차단밸브가 설치된 주철배관을 사용한 경우 </t>
         </is>
       </c>
     </row>
@@ -6968,12 +6968,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 열매유사용 설비의 밸브, 플랜지, 부속류, 펌프 등 옥외 배관으로부터의 누출위험이 있고 누출로 인한 화재가 건물 또는 주요 구조부에 심각한 위험을 초래한다고 판단될 경우 적절한 소방시설을 설치한다. </t>
+          <t xml:space="preserve">(3) 연료공급을 차단한 후 열매유 보일러실의 연소실 내부를 검사하여 튜브 내부의 막힘이나 연소물의 적체로 인한 적열부분, 열매유누출로 인한 이상연소 흔적 및 차단밸브의 차단기능 이상 유무를 확인한다. </t>
         </is>
       </c>
     </row>
@@ -6985,12 +6985,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 배관에 플랜지 이음부가 없고 모든 이음부를 용접한 경우 (나) 밸브, 펌프 또는 이와 유사한 누출원이 없는 경우 (다) 자동 또는 수동 차단밸브가 설치된 주철배관을 사용한 경우 </t>
+          <t xml:space="preserve">(1) 열매유의 누출은 규모에 관계없이 반드시 수리되어야 하며 수리는 응급조치가 아닌 밸브교체, 가스킷의 교체 등 완벽하고 항구적으로 쓸 수 있는 방법을 사용해 야한다. 또한 누출이나 안전밸브의 작동 등으로 누출된 열매유가 고온부위와 접촉할 위험이 있는 경우 누출된 열매유를 신속히 청소하거나 제거하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7002,12 +7002,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 연료공급을 차단한 후 열매유 보일러실의 연소실 내부를 검사하여 튜브 내부의 막힘이나 연소물의 적체로 인한 적열부분, 열매유누출로 인한 이상연소 흔적 및 차단밸브의 차단기능 이상 유무를 확인한다. </t>
+          <t xml:space="preserve">(6) 정상 운전압력의 1.5배의 압력 또는 펌프 최대압력 중 높은 압력(안전밸브 작동압력 이하)으로 설비전체에 대한 기밀시험을 실시한다. 시험용 매체로 열매유를 사용할 경우 열매유를 주위온도로 하여 실시한다. </t>
         </is>
       </c>
     </row>
@@ -7019,12 +7019,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 열매유의 누출은 규모에 관계없이 반드시 수리되어야 하며 수리는 응급조치가 아닌 밸브교체, 가스킷의 교체 등 완벽하고 항구적으로 쓸 수 있는 방법을 사용해 야한다. 또한 누출이나 안전밸브의 작동 등으로 누출된 열매유가 고온부위와 접촉할 위험이 있는 경우 누출된 열매유를 신속히 청소하거나 제거하여야 한다. </t>
+          <t xml:space="preserve">(3) 비상대응팀 및 화재진압담당자들은 열매유배관 및 비상차단밸브가 설치된 위치와열매유특성에 맞는 적절한 화재진압방법을 숙지하도록 한다. </t>
         </is>
       </c>
     </row>
@@ -7036,46 +7036,46 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 정상 운전압력의 1.5배의 압력 또는 펌프 최대압력 중 높은 압력(안전밸브 작동압력 이하)으로 설비전체에 대한 기밀시험을 실시한다. 시험용 매체로 열매유를 사용할 경우 열매유를 주위온도로 하여 실시한다. </t>
+          <t xml:space="preserve">주1) 비상바이패스 : 밸브 1 및 2(열림), 밸브 3 및 4 (닫힘) 주2) 비상배유 : 밸브 1 및 5(열림), 밸브 2, 3, 4(닫힘) </t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 비상대응팀 및 화재진압담당자들은 열매유배관 및 비상차단밸브가 설치된 위치와열매유특성에 맞는 적절한 화재진압방법을 숙지하도록 한다. </t>
+          <t xml:space="preserve">(가) “열팽창용 안전밸브(Liquid thermal relief valve)”라 함은 2개 이상의 밸브 또는 맹판(Blind flange) 등으로 차단된 배관내의 액체가 외부 열원에 의한 열팽창으로 인해 배관이 파열되는 것을 방지하기 위하여 설치하는 안전밸브를 말한다. </t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t xml:space="preserve">주1) 비상바이패스 : 밸브 1 및 2(열림), 밸브 3 및 4 (닫힘) 주2) 비상배유 : 밸브 1 및 5(열림), 밸브 2, 3, 4(닫힘) </t>
+          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙”이라 한다) 제261 조(안전밸브 등의 설치)의 규정에 의거 열팽창용 안전밸브의 설치 등에 관한 기술적 사항을 정함을 목적으로 한다. </t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) “열팽창용 안전밸브(Liquid thermal relief valve)”라 함은 2개 이상의 밸브 또는 맹판(Blind flange) 등으로 차단된 배관내의 액체가 외부 열원에 의한 열팽창으로 인해 배관이 파열되는 것을 방지하기 위하여 설치하는 안전밸브를 말한다. </t>
+          <t xml:space="preserve">이 지침은 액체를 취급하는 배관에 설치하는 열팽창용 안전밸브의 설치대상, 배출용량, 크기, 설정압력 및 배출물질의 처리 등에 적용한다. </t>
         </is>
       </c>
     </row>
@@ -7104,12 +7104,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 “안전보건규칙”이라 한다) 제261 조(안전밸브 등의 설치)의 규정에 의거 열팽창용 안전밸브의 설치 등에 관한 기술적 사항을 정함을 목적으로 한다. </t>
+          <t xml:space="preserve">(마) “최고허용압력(Maximum allowable working pressure)”이라 함은 용기, 배관, 밸브, 플랜지 등의 제작에 사용된 재질의 두께(부식여유 제외)를 기준하여 산출된 허용가능한 최고의 압력을 말한다. </t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 액체를 취급하는 배관에 설치하는 열팽창용 안전밸브의 설치대상, 배출용량, 크기, 설정압력 및 배출물질의 처리 등에 적용한다. </t>
+          <t xml:space="preserve">(사) “배압(Back pressure)”이라 함은 안전밸브의 토출측에 걸리는 압력을 말한다. </t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t xml:space="preserve">(마) “최고허용압력(Maximum allowable working pressure)”이라 함은 용기, 배관, 밸브, 플랜지 등의 제작에 사용된 재질의 두께(부식여유 제외)를 기준하여 산출된 허용가능한 최고의 압력을 말한다. </t>
+          <t xml:space="preserve">4.1항의 규정에도 불구하고 다음 각호의 1과 같은 안전상의 조치를 하는 경우에는 열팽창용 안전밸브의 설치를 생략할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t xml:space="preserve">(사) “배압(Back pressure)”이라 함은 안전밸브의 토출측에 걸리는 압력을 말한다. </t>
+          <t xml:space="preserve">다만, 물을 취급하는 경우에는 열교환기의 냉각용 배관계에 한하여 열팽창용 안전밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1항의 규정에도 불구하고 다음 각호의 1과 같은 안전상의 조치를 하는 경우에는 열팽창용 안전밸브의 설치를 생략할 수 있다. </t>
+          <t>열팽창용 안전밸브는 인화성 물질, 가연성 가스, 독성물질 및 물 등을 액체 상태로 취급하는 배관계가 2개의 밸브로 차단되어 다음 각호와 같은 열원에 의해 가열되는 경우에 설치한다.</t>
         </is>
       </c>
     </row>
@@ -7189,12 +7189,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t xml:space="preserve">다만, 물을 취급하는 경우에는 열교환기의 냉각용 배관계에 한하여 열팽창용 안전밸브를 설치한다. </t>
+          <t xml:space="preserve">(1) 차단된 배관계에 열팽창을 흡수할 수 있는 용기를 설치하는 경우 (2) 액체의 흐름이 완전히 차단되지 않도록 밸브 자체에 기계적 조치 등을한 경우 (3) 전기 등을 이용하여 배관계를 가열할 때 배관내의 액체가 운전온도 이상 으로 과열되지 않도록 온도 조절장치 또는 전원 차단장치를 설치한 경우 (4) 태양의 복사열 또는 대기온도 상승에 의한 열원이 배관계내로 유입되는 것을 방지할 수 있도록 배관을 지하에 매설한 경우 </t>
         </is>
       </c>
     </row>
@@ -7206,12 +7206,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>열팽창용 안전밸브는 인화성 물질, 가연성 가스, 독성물질 및 물 등을 액체 상태로 취급하는 배관계가 2개의 밸브로 차단되어 다음 각호와 같은 열원에 의해 가열되는 경우에 설치한다.</t>
+          <t xml:space="preserve">배관계의 용량이 크거나 또는 열팽창용 안전밸브에서 과도한 상변화가 예상되는 경우에는 다음의 공식을 이용하여 배출용량을 결정한다. 다만, 열팽창용 안전 밸브에서 배출되는 물질의 상 변화가 없으며 배관계 내의 용량이 적은 경우에는 배출용량 계산을 생략할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 차단된 배관계에 열팽창을 흡수할 수 있는 용기를 설치하는 경우 (2) 액체의 흐름이 완전히 차단되지 않도록 밸브 자체에 기계적 조치 등을한 경우 (3) 전기 등을 이용하여 배관계를 가열할 때 배관내의 액체가 운전온도 이상 으로 과열되지 않도록 온도 조절장치 또는 전원 차단장치를 설치한 경우 (4) 태양의 복사열 또는 대기온도 상승에 의한 열원이 배관계내로 유입되는 것을 방지할 수 있도록 배관을 지하에 매설한 경우 </t>
+          <t xml:space="preserve">열팽창용 안전밸브는 배관계가 밸브 등에 의하여 차단될 수 있는 위치에 설치 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t xml:space="preserve">배관계의 용량이 크거나 또는 열팽창용 안전밸브에서 과도한 상변화가 예상되는 경우에는 다음의 공식을 이용하여 배출용량을 결정한다. 다만, 열팽창용 안전 밸브에서 배출되는 물질의 상 변화가 없으며 배관계 내의 용량이 적은 경우에는 배출용량 계산을 생략할 수 있다. </t>
+          <t xml:space="preserve">선정한다. 통상적으로 열팽창용 안전밸브에서 배출되는 물질의 상변화가 없으며배관계 내의 내용적이 작은 경우에는 열팽창용 안전밸브의 인입측 배관 호칭지름은 15㎜ 또는 20㎜, 토출측 배관 호칭지름은 20㎜ 또는 25㎜로 하며, 오리피스의 크기는 최소한 36㎜ 2 로 한다. </t>
         </is>
       </c>
     </row>
@@ -7257,12 +7257,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브는 배관계가 밸브 등에 의하여 차단될 수 있는 위치에 설치 하여야 한다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브에서 배출되는 물질이 상변화 없이 액체로 배출되는 경우에는 5.1항의 배출용량을 충분히 배출시킬 수 있도록 열팽창용 안전밸브의 크기를 </t>
         </is>
       </c>
     </row>
@@ -7274,12 +7274,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t xml:space="preserve">선정한다. 통상적으로 열팽창용 안전밸브에서 배출되는 물질의 상변화가 없으며배관계 내의 내용적이 작은 경우에는 열팽창용 안전밸브의 인입측 배관 호칭지름은 15㎜ 또는 20㎜, 토출측 배관 호칭지름은 20㎜ 또는 25㎜로 하며, 오리피스의 크기는 최소한 36㎜ 2 로 한다. </t>
+          <t>밸브 또는 맹판 등에 의하여 차단될 수 있는 배관계내의 배관, 밸브, 플랜지및 용기 등과 같은 모든 화학설비 중에서 설계압력이 가장 낮은 화학설비의 설계압력을 열팽창용 안전밸브의 설정압력으로 하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -7291,12 +7291,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브에서 배출되는 물질이 상변화 없이 액체로 배출되는 경우에는 5.1항의 배출용량을 충분히 배출시킬 수 있도록 열팽창용 안전밸브의 크기를 </t>
+          <t xml:space="preserve">열팽창용 안전밸브에서 배출되는 물질의 상변화가 예상되는 경우 즉, 취급하고 있는 물질이 증기-액체 평형을 이루고 있는 경우에는 열팽창용 안전밸브에서 배출되는 증기 및 액체의 양을 각각 고려하여 열팽창용 안전밸브의 크기를 계산하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>밸브 또는 맹판 등에 의하여 차단될 수 있는 배관계내의 배관, 밸브, 플랜지및 용기 등과 같은 모든 화학설비 중에서 설계압력이 가장 낮은 화학설비의 설계압력을 열팽창용 안전밸브의 설정압력으로 하여야 한다.</t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 저장탱크, 밀폐된 용기, 펌프 인입측 배관 등밀폐계로 연결하여 배출물질을 처리하는 경우에는 열팽창용 안전밸브 후단에미치는 배압을 고려하여 열팽창용 안전밸브를 선정한다. </t>
         </is>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브에서 배출되는 물질의 상변화가 예상되는 경우 즉, 취급하고 있는 물질이 증기-액체 평형을 이루고 있는 경우에는 열팽창용 안전밸브에서 배출되는 증기 및 액체의 양을 각각 고려하여 열팽창용 안전밸브의 크기를 계산하여야 한다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 후단에 걸리는 압력이 열팽창용 안전밸브 설정압력의 10%를 초과하지 않는 경우에는 일반 열팽창용 안전밸브를 사용한다. </t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 저장탱크, 밀폐된 용기, 펌프 인입측 배관 등밀폐계로 연결하여 배출물질을 처리하는 경우에는 열팽창용 안전밸브 후단에미치는 배압을 고려하여 열팽창용 안전밸브를 선정한다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 후단에 걸리는 압력이 열팽창용 안전밸브 설정압력의 10～30% 이내인 경우에는 배압의 영향을 받지 않도록 제작된 벨로우즈형 열팽창용 안전밸브를 사용한다. </t>
         </is>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 후단에 걸리는 압력이 열팽창용 안전밸브 설정압력의 10%를 초과하지 않는 경우에는 일반 열팽창용 안전밸브를 사용한다. </t>
+          <t xml:space="preserve">일반적으로 플랜지의 최고허용압력을 열팽창용 안전밸브의 설정압력으로 하는 경우에는 관련 배관계 내의 밸브, 배관 및 화학설비의 최고허용압력 또는 설계압력은 플랜지의 최고허용압력과 같거나 그 이상으로 한다. </t>
         </is>
       </c>
     </row>
@@ -7376,12 +7376,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 후단에 걸리는 압력이 열팽창용 안전밸브 설정압력의 10～30% 이내인 경우에는 배압의 영향을 받지 않도록 제작된 벨로우즈형 열팽창용 안전밸브를 사용한다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브에서 배출되는 물질이 안전보건규칙 별표 1의 제7호에서 규정 하는 급성독성물질인 경우에는 다음 각호의 1과 같은 방법을 선정하여 처리한 다. </t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t xml:space="preserve">일반적으로 플랜지의 최고허용압력을 열팽창용 안전밸브의 설정압력으로 하는 경우에는 관련 배관계 내의 밸브, 배관 및 화학설비의 최고허용압력 또는 설계압력은 플랜지의 최고허용압력과 같거나 그 이상으로 한다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 밀폐용기로 연결하여 배출물질을 회수 한다. </t>
         </is>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브에서 배출되는 물질이 안전보건규칙 별표 1의 제7호에서 규정 하는 급성독성물질인 경우에는 다음 각호의 1과 같은 방법을 선정하여 처리한 다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 밸브 또는 맹판 등에 의하여 차단되지 않는 저장탱크 또는 저압용기 등의 인입 또는 출구배관등으로 연결하여 공정계 내로 회수할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 밀폐용기로 연결하여 배출물질을 회수 한다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 세정탑 등에 연결하여 세정후 대기로 배출할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 밸브 또는 맹판 등에 의하여 차단되지 않는 저장탱크 또는 저압용기 등의 인입 또는 출구배관등으로 연결하여 공정계 내로 회수할 수 있다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 후레아 헤다 등에 연결하여 후레아 스텍또는 소각설비에서 연소처리 할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -7466,41 +7466,41 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 세정탑 등에 연결하여 세정후 대기로 배출할 수 있다. </t>
+          <t xml:space="preserve">열팽창용 안전밸브의 토출측 후단에 걸리는 압력이 열팽창용 안전밸브 설정압력의 30%를 초과하는 경우에는 열팽창용 안전밸브의 설정압력을 상향조정하여 배압이 설정압력의 30%를 초과하지 않도록 한다. 다만, 설정압력을 상향조정하는 경우에는 관련 배관계의 설계압력이 열팽창용 안전밸브의 설정압력 이상이 되도록 하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
+          <t>염소저장설비에 관한 기술 지침</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 배관을 후레아 헤다 등에 연결하여 후레아 스텍또는 소각설비에서 연소처리 할 수 있다. </t>
+          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 "안전보건규칙"이라 한다) 제 229조(독성이 있는 물질의 누출 방지), 제258조(밸브 등의 개폐방향의 표시 등), 제260조(공급 원재료의 종류 등의 표시), 제273조(계측장치 등의 설치) 및제432조(부식의 방지조치) 내지 제435조(긴급차단장치의 설치 등)의 규정에 의하여 염소저장에 관한 기술지침을 정하는데 있다. </t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
+          <t>염소저장설비에 관한 기술 지침</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t xml:space="preserve">열팽창용 안전밸브의 토출측 후단에 걸리는 압력이 열팽창용 안전밸브 설정압력의 30%를 초과하는 경우에는 열팽창용 안전밸브의 설정압력을 상향조정하여 배압이 설정압력의 30%를 초과하지 않도록 한다. 다만, 설정압력을 상향조정하는 경우에는 관련 배관계의 설계압력이 열팽창용 안전밸브의 설정압력 이상이 되도록 하여야 한다. </t>
+          <t xml:space="preserve">(4) 액체염소의 인입 및 토출측 배관에는 배관파열 등으로 인한 염소의 누출을 방지할 수 있도록 원격조작이 가능한 긴급차단밸브를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7512,12 +7512,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 산업안전보건기준에 관한 규칙(이하 "안전보건규칙"이라 한다) 제 229조(독성이 있는 물질의 누출 방지), 제258조(밸브 등의 개폐방향의 표시 등), 제260조(공급 원재료의 종류 등의 표시), 제273조(계측장치 등의 설치) 및제432조(부식의 방지조치) 내지 제435조(긴급차단장치의 설치 등)의 규정에 의하여 염소저장에 관한 기술지침을 정하는데 있다. </t>
+          <t>(가) 안전밸브는 복수방식으로 설치하여야 하며 이 경우 저장설비와 안전밸 브사이의 차단밸브는 자물쇠형으로 하거나 또는 차단밸브를 기계적으로 연동하여 어느 한 쪽만이 열리도록 하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 액체염소의 인입 및 토출측 배관에는 배관파열 등으로 인한 염소의 누출을 방지할 수 있도록 원격조작이 가능한 긴급차단밸브를 설치하여야 한다. </t>
+          <t>(나) 복수방식으로 안전밸브를 설치하는 경우 각 안전밸브의 크기는 총 배출용량을 각각 방출할 수 있어야 한다.</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>(가) 안전밸브는 복수방식으로 설치하여야 하며 이 경우 저장설비와 안전밸 브사이의 차단밸브는 자물쇠형으로 하거나 또는 차단밸브를 기계적으로 연동하여 어느 한 쪽만이 열리도록 하여야 한다.</t>
+          <t xml:space="preserve">(다) 안전밸브 전단에는 안전밸브의 부식을 방지하기 위한 안전판을 설치하 여야 하며 안전밸브와 안전판 사이에는 안전판의 파열 및 누출을 감지할 수 있는 압력경보장치를 설치하여야 한다. 다만, 안전밸브의 재질이 염소에 대하여 내식성이 있는 경우에는 그러하지 아니하다. </t>
         </is>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>(나) 복수방식으로 안전밸브를 설치하는 경우 각 안전밸브의 크기는 총 배출용량을 각각 방출할 수 있어야 한다.</t>
+          <t xml:space="preserve">4.8 안전밸브 등 </t>
         </is>
       </c>
     </row>
@@ -7580,12 +7580,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) 안전밸브 전단에는 안전밸브의 부식을 방지하기 위한 안전판을 설치하 여야 하며 안전밸브와 안전판 사이에는 안전판의 파열 및 누출을 감지할 수 있는 압력경보장치를 설치하여야 한다. 다만, 안전밸브의 재질이 염소에 대하여 내식성이 있는 경우에는 그러하지 아니하다. </t>
+          <t xml:space="preserve">(2) 액체염소 배관에는 염소의 열팽창에 의한 과압을 방지할 수 있도록 열팽창 안전밸브 또는 이와 동등 이상의 성능을 갖는 것을 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.8 안전밸브 등 </t>
+          <t xml:space="preserve">(라) 저장설비에 안전밸브를 설치하는 경우 안전밸브의 소요 분출량은 KOSHA GUIDE (안전밸브 등의 설정압력?배출용량 산출 및 설치 등에 관한 기술지침)에서 정하는 식에 의하여 계산하여야 한다. 다만, 저장 설비에 염소용으로 특별히 제작된 안전밸브를 설치하는 경우에는 다음 식에 의하여 안전밸브의 배출용량을 산출할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 액체염소 배관에는 염소의 열팽창에 의한 과압을 방지할 수 있도록 열팽창 안전밸브 또는 이와 동등 이상의 성능을 갖는 것을 설치하여야 한다. </t>
+          <t xml:space="preserve">4.9 밸브 </t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 저장설비에 안전밸브를 설치하는 경우 안전밸브의 소요 분출량은 KOSHA GUIDE (안전밸브 등의 설정압력?배출용량 산출 및 설치 등에 관한 기술지침)에서 정하는 식에 의하여 계산하여야 한다. 다만, 저장 설비에 염소용으로 특별히 제작된 안전밸브를 설치하는 경우에는 다음 식에 의하여 안전밸브의 배출용량을 산출할 수 있다. </t>
+          <t xml:space="preserve">밸브는 완전히 차단될 수 있는 구조로서 KOSHA GUIDE (배관 재질사양작성지침)을 참고하여 취급하는 염소의 운전온도 및 운전압력에 적합한 재질의 것을 사용하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7648,46 +7648,46 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.9 밸브 </t>
+          <t xml:space="preserve">안전밸브의 토출측 배관 및 벤트 배관 등에서 배출되는 염소가 대기중으로 방출되지 않도록 염소에 적합한 세정설비를 설치하여야 한다. 또한 세정액을 순환시키는 펌프 및 세정설비 흡입휀에는 비상전원을 연결하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>염소저장설비에 관한 기술 지침</t>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t xml:space="preserve">밸브는 완전히 차단될 수 있는 구조로서 KOSHA GUIDE (배관 재질사양작성지침)을 참고하여 취급하는 염소의 운전온도 및 운전압력에 적합한 재질의 것을 사용하여야 한다. </t>
+          <t xml:space="preserve">(4) 펌프의 성능은 정격토출량의 150%로 운전시 정격토출압력의 65% 이상이 되어야 하고, 성능시험배관은 펌프 토출측에 설치된 개폐밸브 이전에서 분기하여야 하며, 유량 측정장치는 성능시험배관의 직관부에 설치하되 펌프 정격 토출량의 175%까지 측정할 수 있어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>염소저장설비에 관한 기술 지침</t>
+          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브의 토출측 배관 및 벤트 배관 등에서 배출되는 염소가 대기중으로 방출되지 않도록 염소에 적합한 세정설비를 설치하여야 한다. 또한 세정액을 순환시키는 펌프 및 세정설비 흡입휀에는 비상전원을 연결하여야 한다. </t>
+          <t xml:space="preserve">(5) 가압송수장치에는 토출측 밸브를 잠근상태로 운전시 수온의 상승을방지하기 위 하 여 체 크 밸 브 와 펌 프 사 이 에 순 환 배 관 을 설 치 하 고릴 리 프 밸 브 를 설 치 하 여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 펌프의 성능은 정격토출량의 150%로 운전시 정격토출압력의 65% 이상이 되어야 하고, 성능시험배관은 펌프 토출측에 설치된 개폐밸브 이전에서 분기하여야 하며, 유량 측정장치는 성능시험배관의 직관부에 설치하되 펌프 정격 토출량의 175%까지 측정할 수 있어야 한다. </t>
+          <t xml:space="preserve">(1) 제 1 선택밸브 (주 선택밸브) 주배관에서 각 방호 구역으로 절환되는 밸브로서 펌프실 또는 주배관으로부터의 분기점에 설치한다. </t>
         </is>
       </c>
     </row>
@@ -7716,12 +7716,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 가압송수장치에는 토출측 밸브를 잠근상태로 운전시 수온의 상승을방지하기 위 하 여 체 크 밸 브 와 펌 프 사 이 에 순 환 배 관 을 설 치 하 고릴 리 프 밸 브 를 설 치 하 여야 한다. </t>
+          <t xml:space="preserve">(3) 펌프 토출측에 역류 방지용 체크 밸브를 설치해야 한다. </t>
         </is>
       </c>
     </row>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 제 1 선택밸브 (주 선택밸브) 주배관에서 각 방호 구역으로 절환되는 밸브로서 펌프실 또는 주배관으로부터의 분기점에 설치한다. </t>
+          <t xml:space="preserve">(4) 배관에 설치되어 있는 개폐밸브는 그 개폐 상태를 확인할 수 있도록 스위치를 설치하거나 개폐 밸브를 개방한 상태에서 자물쇠 장치를 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 펌프 토출측에 역류 방지용 체크 밸브를 설치해야 한다. </t>
+          <t xml:space="preserve">(5) 송액관은 포 방출 종료 후 배관내의 액을 배출하기 위하여 적당한기울기를 유지하도록 하고 낮은 부분에 배액 밸브를 설치해야 한다. </t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 배관에 설치되어 있는 개폐밸브는 그 개폐 상태를 확인할 수 있도록 스위치를 설치하거나 개폐 밸브를 개방한 상태에서 자물쇠 장치를 하여야 한다. </t>
+          <t xml:space="preserve">8.2. 선택밸브 </t>
         </is>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 송액관은 포 방출 종료 후 배관내의 액을 배출하기 위하여 적당한기울기를 유지하도록 하고 낮은 부분에 배액 밸브를 설치해야 한다. </t>
+          <t xml:space="preserve">8.2.1. 선택밸브의 종류 </t>
         </is>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.2. 선택밸브 </t>
+          <t xml:space="preserve">포 소화설비에 설치하여 방호구역 또는 방호 대상물에 공급하는 포 수용액의 방출을 제어하는 선택밸브는 위치 및 기능에 따라 두 가지가 있으며, 자동 또는 수동으로 개방할 수 있어야 하며 다음의 설치기준에 따라야 한다. </t>
         </is>
       </c>
     </row>
@@ -7818,12 +7818,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.2.1. 선택밸브의 종류 </t>
+          <t xml:space="preserve">(1) 제 1 선택밸브와 제 2 선택밸브에는 당해 밸브가 제어하는 방호구역또는 방호대상물을 명기한 표지판을 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -7835,12 +7835,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t xml:space="preserve">포 소화설비에 설치하여 방호구역 또는 방호 대상물에 공급하는 포 수용액의 방출을 제어하는 선택밸브는 위치 및 기능에 따라 두 가지가 있으며, 자동 또는 수동으로 개방할 수 있어야 하며 다음의 설치기준에 따라야 한다. </t>
+          <t xml:space="preserve">(2) 선택밸브는 방유제 밖에 설치하여야 하며, 방유제가 없는 경우에는직경이 15m 미만의 탱크의 경우 에는 수평거리 15m 이상, 직경이 15m 이상인 탱크의 경우에는 탱크 직경 이상의 거리를 두어야 한다. </t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 제 1 선택밸브와 제 2 선택밸브에는 당해 밸브가 제어하는 방호구역또는 방호대상물을 명기한 표지판을 설치하여야 한다. </t>
+          <t xml:space="preserve">(2) 제 2 선택밸브 방호 대상물마다 절환되는 선택밸브로서 화재 발생시 안전하게 조작할 수 있는 곳에 설치한다. </t>
         </is>
       </c>
     </row>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 선택밸브는 방유제 밖에 설치하여야 하며, 방유제가 없는 경우에는직경이 15m 미만의 탱크의 경우 에는 수평거리 15m 이상, 직경이 15m 이상인 탱크의 경우에는 탱크 직경 이상의 거리를 두어야 한다. </t>
+          <t xml:space="preserve">&lt; 그림 2 &gt; 선택 밸브의 위치 </t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 제 2 선택밸브 방호 대상물마다 절환되는 선택밸브로서 화재 발생시 안전하게 조작할 수 있는 곳에 설치한다. </t>
+          <t xml:space="preserve">8.2.2. 선택밸브의 설치 </t>
         </is>
       </c>
     </row>
@@ -7903,12 +7903,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt; 그림 2 &gt; 선택 밸브의 위치 </t>
+          <t xml:space="preserve">펌프의 토출관과 흡입관 사이에 설치한 혼합기에 펌프에서 토출된 물의 일부를 보내고, 농도 조정밸브에서 조정된 약제의 필요량을 약제탱크에서 펌프 흡입측으로 보내어 이를 혼합하는 방식 </t>
         </is>
       </c>
     </row>
@@ -7920,46 +7920,46 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.2.2. 선택밸브의 설치 </t>
+          <t xml:space="preserve">수동식 기동장치는 직접조작 또는 원격조작에 의하여 가압송수장치, 개방 밸브 및 소화약제 혼합장치를 기동할 수 있는 것으로 기동장치의 조작부는 화재시 쉽게 접근할 수 있는 곳에 설치하되, 바닥으로부터 0.8m 이상 1.5m 이하의 위치에 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+          <t xml:space="preserve">원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t xml:space="preserve">펌프의 토출관과 흡입관 사이에 설치한 혼합기에 펌프에서 토출된 물의 일부를 보내고, 농도 조정밸브에서 조정된 약제의 필요량을 약제탱크에서 펌프 흡입측으로 보내어 이를 혼합하는 방식 </t>
+          <t>(마) “체절압력 (Shutoff pressure)”이란 원심펌프에서 펌프 토출측의 밸브를 닫은 상태(유량이 흐르지 않은 상태)에서 펌프를 운전할 때의 압력을 말하며, 이는 원심펌프에서 최대의 압력값이다.</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+          <t xml:space="preserve">원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t xml:space="preserve">수동식 기동장치는 직접조작 또는 원격조작에 의하여 가압송수장치, 개방 밸브 및 소화약제 혼합장치를 기동할 수 있는 것으로 기동장치의 조작부는 화재시 쉽게 접근할 수 있는 곳에 설치하되, 바닥으로부터 0.8m 이상 1.5m 이하의 위치에 설치하여야 한다. </t>
+          <t>(라) 모터에 직결하여 고속으로 운전할 수 있고, 밸브 또는 기어 등을 연결하여 감속 또는 증속하여 속도를 조절할 수 있다.</t>
         </is>
       </c>
     </row>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>(마) “체절압력 (Shutoff pressure)”이란 원심펌프에서 펌프 토출측의 밸브를 닫은 상태(유량이 흐르지 않은 상태)에서 펌프를 운전할 때의 압력을 말하며, 이는 원심펌프에서 최대의 압력값이다.</t>
+          <t>(가) 차압이 저압인 펌프는 고정식 오리피스를 우선 적용하고, 설치순서는 차단밸브, 오리피스, 차단밸브 순으로 설치한다.</t>
         </is>
       </c>
     </row>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>(라) 모터에 직결하여 고속으로 운전할 수 있고, 밸브 또는 기어 등을 연결하여 감속 또는 증속하여 속도를 조절할 수 있다.</t>
+          <t>(나) 차압이 고압인 펌프(다단 펌프 또는 고속운전 펌프)는 유량조절밸브 (Fail open 구조)를 설치하여 최소유량을 관리한다.</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>(가) 차압이 저압인 펌프는 고정식 오리피스를 우선 적용하고, 설치순서는 차단밸브, 오리피스, 차단밸브 순으로 설치한다.</t>
+          <t>(1) 최소유량배관에 오리피스와 On/off 밸브를 설치하고, 펌프 토출측의 유량이 최소유량으로 떨어지면, On/off 밸브를 완전개방하여 바이패스하는 방법이 다.</t>
         </is>
       </c>
     </row>
@@ -8022,12 +8022,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>(나) 차압이 고압인 펌프(다단 펌프 또는 고속운전 펌프)는 유량조절밸브 (Fail open 구조)를 설치하여 최소유량을 관리한다.</t>
+          <t>(1) 펌프구동모터의 동력이 18.5 kW 이상인 경우 최소유량 조절은 콘트롤밸브로 조절하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>(1) 최소유량배관에 오리피스와 On/off 밸브를 설치하고, 펌프 토출측의 유량이 최소유량으로 떨어지면, On/off 밸브를 완전개방하여 바이패스하는 방법이 다.</t>
+          <t>(2) 오리피스 보수 등을 위해 오리피스 전·후단에 차단밸브를 설치하는 것이좋다.</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>(1) 펌프구동모터의 동력이 18.5 kW 이상인 경우 최소유량 조절은 콘트롤밸브로 조절하는 것이 좋다.</t>
+          <t>(3) On/off 밸브의 완전개방 및 완전차단 시에 발생되는 수충격(Hydraulic shock)에 의해 민감한 시스템은 영향을 받을 수 있다.</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>(2) 오리피스 보수 등을 위해 오리피스 전·후단에 차단밸브를 설치하는 것이좋다.</t>
+          <t xml:space="preserve">5.5.5.2 On/off 밸브로 바이패스방법 </t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>(3) On/off 밸브의 완전개방 및 완전차단 시에 발생되는 수충격(Hydraulic shock)에 의해 민감한 시스템은 영향을 받을 수 있다.</t>
+          <t>하는 방법이며, 오리피스 보수 등을 위해 오리피스 전·후단에 차단밸브를 설치하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.5.5.2 On/off 밸브로 바이패스방법 </t>
+          <t>(1) [그림 8]과 같이 스프링으로 작동되는 체크밸브와 변동하는 콘트롤밸브를조합한 밸브인 자동 재순환(ARC, Automatic recirculation)밸브를 사용하여 바이패스시키는 방법이다.</t>
         </is>
       </c>
     </row>
@@ -8124,12 +8124,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>하는 방법이며, 오리피스 보수 등을 위해 오리피스 전·후단에 차단밸브를 설치하는 것이 좋다.</t>
+          <t>(2) [그림 9]와 같이 펌프 토출측 유량이 최소유량으로 떨어지면 ARC 밸브의 바이패스 포트가 개방되어 유량이 바이패스된다.</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>(1) [그림 8]과 같이 스프링으로 작동되는 체크밸브와 변동하는 콘트롤밸브를조합한 밸브인 자동 재순환(ARC, Automatic recirculation)밸브를 사용하여 바이패스시키는 방법이다.</t>
+          <t xml:space="preserve">(4) ARC 밸브는 펌프의 전체 운전범위에서 안정적으로 작동되며, 저유량의 2 대 이상의 펌프가 병렬로 운전될 때 유용하게 사용된다. </t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>(2) [그림 9]와 같이 펌프 토출측 유량이 최소유량으로 떨어지면 ARC 밸브의 바이패스 포트가 개방되어 유량이 바이패스된다.</t>
+          <t xml:space="preserve">[그림 8] ARC 밸브의 구조 </t>
         </is>
       </c>
     </row>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) ARC 밸브는 펌프의 전체 운전범위에서 안정적으로 작동되며, 저유량의 2 대 이상의 펌프가 병렬로 운전될 때 유용하게 사용된다. </t>
+          <t xml:space="preserve">5.5.5.3 자동 재순환밸브를 사용하는 방법 </t>
         </is>
       </c>
     </row>
@@ -8192,12 +8192,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 8] ARC 밸브의 구조 </t>
+          <t>(2) [그림 5-10]과 같이 최소유량배관에 자동조절밸브를 설치하여 펌프 토출측 배관의 유량이 최소유량에 도달하면 자동조절밸브가 개방되어 바이패스시키는 방법이다.</t>
         </is>
       </c>
     </row>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.5.5.3 자동 재순환밸브를 사용하는 방법 </t>
+          <t xml:space="preserve">(4) 유체에 고체 성분이 포함되어 ARC 밸브를 사용할 수 없을 때 사용된다. </t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>(2) [그림 5-10]과 같이 최소유량배관에 자동조절밸브를 설치하여 펌프 토출측 배관의 유량이 최소유량에 도달하면 자동조절밸브가 개방되어 바이패스시키는 방법이다.</t>
+          <t xml:space="preserve">[그림 9] 자동 재순환밸브(ARC Valve)를 사용하는 방법 </t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 유체에 고체 성분이 포함되어 ARC 밸브를 사용할 수 없을 때 사용된다. </t>
+          <t xml:space="preserve">5.5.5.4 자동조절밸브를 사용하는 방법 </t>
         </is>
       </c>
     </row>
@@ -8260,12 +8260,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 9] 자동 재순환밸브(ARC Valve)를 사용하는 방법 </t>
+          <t xml:space="preserve">(3) 배관에서 공기가 유입되거나 또는 공기가 고이지 않도록 하고, 배관의 상부지점에는 벤트밸브를 설치한다. </t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.5.5.4 자동조절밸브를 사용하는 방법 </t>
+          <t xml:space="preserve">[그림 10] 자동조절밸브를 사용하여 바이패스시키는 방법 </t>
         </is>
       </c>
     </row>
@@ -8294,12 +8294,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 배관에서 공기가 유입되거나 또는 공기가 고이지 않도록 하고, 배관의 상부지점에는 벤트밸브를 설치한다. </t>
+          <t>(1) 모든 펌프의 인입측에는 펌프 보수를 위해 차단밸브를 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 10] 자동조절밸브를 사용하여 바이패스시키는 방법 </t>
+          <t>(2) 모든 펌프의 토출측에는 펌프 보수를 위해 차단밸브를 설치한다. 다만, 펌프 토출측이 낮은 지점, 대기 개방 등과 같이 역류의 가능성이 없는 경우에는 그러하지 아니 하다.</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>(1) 모든 펌프의 인입측에는 펌프 보수를 위해 차단밸브를 설치한다.</t>
+          <t>(3) 펌프의 토출측에 압력계기, 체크밸브 및 차단밸브가 필요한 경우에는 펌프 에서 압력계기, 체크밸브 및 차단밸브의 순서로 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>(2) 모든 펌프의 토출측에는 펌프 보수를 위해 차단밸브를 설치한다. 다만, 펌프 토출측이 낮은 지점, 대기 개방 등과 같이 역류의 가능성이 없는 경우에는 그러하지 아니 하다.</t>
+          <t xml:space="preserve">(4) 펌프의 토출측에는 역류방지를 위해 아래와 같이 체크밸브를 설치한다. 다만, 펌프 토출측이 위치적으로 낮은 곳이거나 또는 압력이 낮은 곳으로 연결되어 역류의 가능성이 없는 경우는 제외한다. </t>
         </is>
       </c>
     </row>
@@ -8362,12 +8362,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>(3) 펌프의 토출측에 압력계기, 체크밸브 및 차단밸브가 필요한 경우에는 펌프 에서 압력계기, 체크밸브 및 차단밸브의 순서로 설치한다.</t>
+          <t>(10) 펌프 인입측 및 토출측 밸브의 사이즈는 배관의 압력손실을 최소화하기 위해 인입측 및 토출측의 배관 사이즈와 같은 것을 사용하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 펌프의 토출측에는 역류방지를 위해 아래와 같이 체크밸브를 설치한다. 다만, 펌프 토출측이 위치적으로 낮은 곳이거나 또는 압력이 낮은 곳으로 연결되어 역류의 가능성이 없는 경우는 제외한다. </t>
+          <t>(5) 예비펌프의 예열(Warming-up) 필요시 미소개방(Throttle open)의 목적으로 체크밸브에 바이패스밸브를 설치할 경우 밸브 타입은 글로브밸브로 설치한 다. 다만, 예열이 필요하지 않은 경우에는 체크밸브와 차단밸브 사이에 드레인밸브만 설치할 수 있다.</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>(10) 펌프 인입측 및 토출측 밸브의 사이즈는 배관의 압력손실을 최소화하기 위해 인입측 및 토출측의 배관 사이즈와 같은 것을 사용하는 것이 좋다.</t>
+          <t>(6) 펌프 케이싱에 벤트가 없는 경우에는 펌프 가동정지 시의 펌프 케이싱 및토출배관 내의 유체 배출 및 공기, 질소 등의 배출을 위해 체크밸브 전단에 벤트라인을 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>(5) 예비펌프의 예열(Warming-up) 필요시 미소개방(Throttle open)의 목적으로 체크밸브에 바이패스밸브를 설치할 경우 밸브 타입은 글로브밸브로 설치한 다. 다만, 예열이 필요하지 않은 경우에는 체크밸브와 차단밸브 사이에 드레인밸브만 설치할 수 있다.</t>
+          <t>(7) 펌프 토출측 압력계기는 체크밸브 전단에 설치하며, 정확한 압력을 알기 위해서는 가능한 한 펌프 가까이에 설치한다. 만약, 압력계기를 체크밸브 후단에 설치할 경우 체크밸브 후단의 다른 펌프 또는 배관의 압력에 영향을받는다.</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>(6) 펌프 케이싱에 벤트가 없는 경우에는 펌프 가동정지 시의 펌프 케이싱 및토출배관 내의 유체 배출 및 공기, 질소 등의 배출을 위해 체크밸브 전단에 벤트라인을 설치한다.</t>
+          <t>(가) 예비펌프가 있는 경우에는 운전 중의 압력이 예비펌프에 영향을 미치는것을 방지하기 위해 체크밸브를 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>(7) 펌프 토출측 압력계기는 체크밸브 전단에 설치하며, 정확한 압력을 알기 위해서는 가능한 한 펌프 가까이에 설치한다. 만약, 압력계기를 체크밸브 후단에 설치할 경우 체크밸브 후단의 다른 펌프 또는 배관의 압력에 영향을받는다.</t>
+          <t>(나) 최저 주위온도보다 높은 유동점을 갖는 유체인 경우에는 동절기의 펌프 보수 시 체크밸브와 차단밸브 사이의 유체가 굳는 현상을 예방하기 위해 체크밸브와 차단밸브를 가깝게 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>(가) 예비펌프가 있는 경우에는 운전 중의 압력이 예비펌프에 영향을 미치는것을 방지하기 위해 체크밸브를 설치한다.</t>
+          <t>(11) 펌프의 토출배관이 인인배관보다 압력등급(Pressure rating class)이 높은경우, 압력등급의 변경지점은 인입측 차단밸브의 인입 플랜지가 된다. 즉, 인입측 차단밸브는 높은 압력등급(펌프 토출측 등급)에 따라 설계할 필요가 있다.</t>
         </is>
       </c>
     </row>
@@ -8481,12 +8481,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>(나) 최저 주위온도보다 높은 유동점을 갖는 유체인 경우에는 동절기의 펌프 보수 시 체크밸브와 차단밸브 사이의 유체가 굳는 현상을 예방하기 위해 체크밸브와 차단밸브를 가깝게 설치한다.</t>
+          <t>(16) 펌프 토출측 배관의 압력-온도 등급(Pressure-temperature rating)이 높은경우에는 기밀유지를 위해 아래와 같이 차단밸브를 설치하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>(11) 펌프의 토출배관이 인인배관보다 압력등급(Pressure rating class)이 높은경우, 압력등급의 변경지점은 인입측 차단밸브의 인입 플랜지가 된다. 즉, 인입측 차단밸브는 높은 압력등급(펌프 토출측 등급)에 따라 설계할 필요가 있다.</t>
+          <t>(17) 증기압이 높은 탄화수소를 이송하는 펌프의 케이싱 벤트라인 및 플레어스택 연결라인의 차단밸브는 (16)항과 같이 이중밸브를 설치하는 것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>(16) 펌프 토출측 배관의 압력-온도 등급(Pressure-temperature rating)이 높은경우에는 기밀유지를 위해 아래와 같이 차단밸브를 설치하는 것이 좋다.</t>
+          <t>(가) ANSI 900 lb 이상인 경우에는 차단밸브를 이중으로 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>(17) 증기압이 높은 탄화수소를 이송하는 펌프의 케이싱 벤트라인 및 플레어스택 연결라인의 차단밸브는 (16)항과 같이 이중밸브를 설치하는 것이 좋다.</t>
+          <t>(가) 펌프 인입측 및 토츨측 차단밸브는 펌프 내부의 고착 및 드레인 곤란을 방지하기 위해 예비펌프의 분리지점(Tee)에서 최대한 펌프에 가깝게 설치한다.</t>
         </is>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>(가) ANSI 900 lb 이상인 경우에는 차단밸브를 이중으로 설치한다.</t>
+          <t>(나) ANSI 1500 lb 이상인 경우에는 차단밸브를 이중으로 설치하되, Y타입-글로브밸브로 선정한다.</t>
         </is>
       </c>
     </row>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>(가) 펌프 인입측 및 토츨측 차단밸브는 펌프 내부의 고착 및 드레인 곤란을 방지하기 위해 예비펌프의 분리지점(Tee)에서 최대한 펌프에 가깝게 설치한다.</t>
+          <t>(5) 펌프 토출측 밸브의 개폐상태를 아래와 같이 확인한다.</t>
         </is>
       </c>
     </row>
@@ -8583,12 +8583,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>(나) ANSI 1500 lb 이상인 경우에는 차단밸브를 이중으로 설치하되, Y타입-글로브밸브로 선정한다.</t>
+          <t>(8) 냉각유체(Cooling or quenching) 및 청소유체(Flushing) 등의 각 배관이 설치되어 있을 때에는 각 밸브를 열어 압력 및 유량이 적절한가를 관련 배관 도면 및 데이터 시트를 보고 확인한다.</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>(5) 펌프 토출측 밸브의 개폐상태를 아래와 같이 확인한다.</t>
+          <t>(9) 라인 베어링이 설치되어 있는 경우에는 냉각수 배관의 밸브를 열어 주수한다</t>
         </is>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>(8) 냉각유체(Cooling or quenching) 및 청소유체(Flushing) 등의 각 배관이 설치되어 있을 때에는 각 밸브를 열어 압력 및 유량이 적절한가를 관련 배관 도면 및 데이터 시트를 보고 확인한다.</t>
+          <t>(가) 원심펌프는 토출밸브를 닫고 기동한다.</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>(9) 라인 베어링이 설치되어 있는 경우에는 냉각수 배관의 밸브를 열어 주수한다</t>
+          <t>(나) 사류펌프는 토출밸브를 닫고 운전하는 것이 원칙이나, 병렬운전을 하는 펌프는 1/3 정도 열고 기동한다.</t>
         </is>
       </c>
     </row>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>(가) 원심펌프는 토출밸브를 닫고 기동한다.</t>
+          <t>(다) 축류펌프는 토출밸브를 열고 기동한다.</t>
         </is>
       </c>
     </row>
@@ -8668,12 +8668,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>(나) 사류펌프는 토출밸브를 닫고 운전하는 것이 원칙이나, 병렬운전을 하는 펌프는 1/3 정도 열고 기동한다.</t>
+          <t>(13) 벤트밸브를 전부 닫는다.</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>(다) 축류펌프는 토출밸브를 열고 기동한다.</t>
+          <t>(14) 최소유량배관이 설치되어 있지 않을 때에는 펌프 데이터 시트에 기재되어 있는 최소운전유량보다 적은 유량으로 운전되지 않도록 토출밸브를 조금열어둔다.</t>
         </is>
       </c>
     </row>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>(13) 벤트밸브를 전부 닫는다.</t>
+          <t>(가) 흡입측이 가압인 경우에는 흡입밸브를 열어 펌프 속에 유체를 채운다.</t>
         </is>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>(14) 최소유량배관이 설치되어 있지 않을 때에는 펌프 데이터 시트에 기재되어 있는 최소운전유량보다 적은 유량으로 운전되지 않도록 토출밸브를 조금열어둔다.</t>
+          <t>(다) 본체 또는 배관에 설치된 벤트밸브를 열어 액체가 가득 차게 되면 회전 체를 손으로 돌려 회전차 내의 기체를 완전히 빼내고 펌프 내부가 액체로 채워져 있는가를 확인한다.</t>
         </is>
       </c>
     </row>
@@ -8736,46 +8736,46 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>(가) 흡입측이 가압인 경우에는 흡입밸브를 열어 펌프 속에 유체를 채운다.</t>
+          <t>하지 않을 경우에는 드레인 밸브를 열어 온도가 균일하도록 조치한다.</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t xml:space="preserve">원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침 </t>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>(다) 본체 또는 배관에 설치된 벤트밸브를 열어 액체가 가득 차게 되면 회전 체를 손으로 돌려 회전차 내의 기체를 완전히 빼내고 펌프 내부가 액체로 채워져 있는가를 확인한다.</t>
+          <t xml:space="preserve">(3) 모든 직원은 워터 스프레이 시스템에 대해 제어 밸브를 포함한 구내 화재 소화설비의 각 형태의 제한점과 사용에 대해 폭넓게 교육받아야 한다.  </t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t xml:space="preserve">원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침 </t>
+          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>하지 않을 경우에는 드레인 밸브를 열어 온도가 균일하도록 조치한다.</t>
+          <t xml:space="preserve">(2) 드레인 밸브는 누출을 방지하기 위해 플러그(Plug)가 제공되어야 한다. </t>
         </is>
       </c>
     </row>
@@ -8787,12 +8787,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 모든 직원은 워터 스프레이 시스템에 대해 제어 밸브를 포함한 구내 화재 소화설비의 각 형태의 제한점과 사용에 대해 폭넓게 교육받아야 한다.  </t>
+          <t xml:space="preserve">4.3.2 배관, 밸브 및 부속류 </t>
         </is>
       </c>
     </row>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 드레인 밸브는 누출을 방지하기 위해 플러그(Plug)가 제공되어야 한다. </t>
+          <t xml:space="preserve">(가) 용제 펌프 또는 밸브가 제공된 용제 처리 설비 부근, 용기에 이송되는 용제가 있는 구역은 0종 또는 1종의 위험지역으로 고려되어야 한다. </t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.3.2 배관, 밸브 및 부속류 </t>
+          <t xml:space="preserve">(5) 비상 압력 배출 밸브(Emergency pressure relief valve) 토출측 배관에는 화염 방지기를 설치하지 않는다. </t>
         </is>
       </c>
     </row>
@@ -8838,12 +8838,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 용제 펌프 또는 밸브가 제공된 용제 처리 설비 부근, 용기에 이송되는 용제가 있는 구역은 0종 또는 1종의 위험지역으로 고려되어야 한다. </t>
+          <t xml:space="preserve">(6) 차단밸브(Shutoff valve)는 일반 또는 비상통기 라인에 설치해서는 안 된다. </t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 비상 압력 배출 밸브(Emergency pressure relief valve) 토출측 배관에는 화염 방지기를 설치하지 않는다. </t>
+          <t xml:space="preserve">(7) 차단밸브(Shutoff valve)는 용기와 탱크의 익류라인에 설치해서는 안 된다. </t>
         </is>
       </c>
     </row>
@@ -8872,46 +8872,46 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 차단밸브(Shutoff valve)는 일반 또는 비상통기 라인에 설치해서는 안 된다. </t>
+          <t xml:space="preserve">(3) 탱크의 하부에는 수동 차단 밸브를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) 차단밸브(Shutoff valve)는 용기와 탱크의 익류라인에 설치해서는 안 된다. </t>
+          <t xml:space="preserve">(1) 모든 저장 용기에는 압력방출장치 등을 설치하여야 하며 압력방출장치 등의전 후단에 차단밸브를 설치하여서는 아니된다. 다만, 안전보건규칙 제266조 (차단밸브의 설치 금지) 단서 조항에 의하여 허용되는 경우에는 그러하지 아니한다. </t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 탱크의 하부에는 수동 차단 밸브를 설치하여야 한다. </t>
+          <t>(3) 증기처리설비와 상압저장탱크 사이에는 차단밸브를 설치하여서는 안된다.</t>
         </is>
       </c>
     </row>
@@ -8928,41 +8928,41 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 모든 저장 용기에는 압력방출장치 등을 설치하여야 하며 압력방출장치 등의전 후단에 차단밸브를 설치하여서는 아니된다. 다만, 안전보건규칙 제266조 (차단밸브의 설치 금지) 단서 조항에 의하여 허용되는 경우에는 그러하지 아니한다. </t>
+          <t xml:space="preserve">다만, 차단밸브가 잠긴 상태에서 상압저장탱크의 내부에 압력이 형성되지 않도록 된 경우에는 그러하지 아니한다. </t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>(3) 증기처리설비와 상압저장탱크 사이에는 차단밸브를 설치하여서는 안된다.</t>
+          <t xml:space="preserve">(2) 황산저장탱크의 출구 노즐에 연결된 출구 배관에는 탱크 가까이 출구 밸브를 설치한다. </t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t xml:space="preserve">다만, 차단밸브가 잠긴 상태에서 상압저장탱크의 내부에 압력이 형성되지 않도록 된 경우에는 그러하지 아니한다. </t>
+          <t xml:space="preserve">(3) 출구 밸브 전에 엘보우를 설치하는 경우에는 곡율 반경이 큰 것을 사용한다. 이경우 엘보우의 두께는 출구 밸브 후단에 설치한 배관의 두께보다 3㎜ 더 두꺼운 것을 사용하는 것이 좋다. </t>
         </is>
       </c>
     </row>
@@ -8974,12 +8974,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 황산저장탱크의 출구 노즐에 연결된 출구 배관에는 탱크 가까이 출구 밸브를 설치한다. </t>
+          <t xml:space="preserve">(2) 농도 70% 이상인 황산취급 배관에는 일반적으로 합금강 20(Alloy 20) 재질의 플러그(Plug) 밸브 또는 볼(Ball) 밸브를 사용한다. </t>
         </is>
       </c>
     </row>
@@ -8991,46 +8991,46 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 출구 밸브 전에 엘보우를 설치하는 경우에는 곡율 반경이 큰 것을 사용한다. 이경우 엘보우의 두께는 출구 밸브 후단에 설치한 배관의 두께보다 3㎜ 더 두꺼운 것을 사용하는 것이 좋다. </t>
+          <t xml:space="preserve">5.9 배관 및 밸브 </t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 농도 70% 이상인 황산취급 배관에는 일반적으로 합금강 20(Alloy 20) 재질의 플러그(Plug) 밸브 또는 볼(Ball) 밸브를 사용한다. </t>
+          <t>(가) “체크밸브 (Check valve)”라 함은 배관 상에서 오직 한 방향으로 흐름을 유지해야 할 필요가 있는 경우에 역류를 방지하기 위하여 사용하는 밸브를 말하며, 역지밸브 또는 넌리턴밸브(Non-Return valve)라고도 말한다.</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.9 배관 및 밸브 </t>
+          <t>(다) “슬램 (Slam)”이라 함은 체크밸브의 디스크가 닫힐 때 '쾅'하고 닫히는 현상을 말한다.</t>
         </is>
       </c>
     </row>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>(가) “체크밸브 (Check valve)”라 함은 배관 상에서 오직 한 방향으로 흐름을 유지해야 할 필요가 있는 경우에 역류를 방지하기 위하여 사용하는 밸브를 말하며, 역지밸브 또는 넌리턴밸브(Non-Return valve)라고도 말한다.</t>
+          <t xml:space="preserve">(라) “최소유속 (Minimum flow velocity)”이라 함은 유체가 체크밸브 속을 통과할 때 밸브의 디스크가 완전개방 상태(Fully opened)를 유지하도록 요구되는 최소의 유체속도를 말한다.  </t>
         </is>
       </c>
     </row>
@@ -9064,7 +9064,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>(다) “슬램 (Slam)”이라 함은 체크밸브의 디스크가 닫힐 때 '쾅'하고 닫히는 현상을 말한다.</t>
+          <t xml:space="preserve">이 지침은 배관의 역류방지를 위해 설치하는 체크밸브 설치에 필요한 사항을 정하는데 그 목적이 있다. </t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) “최소유속 (Minimum flow velocity)”이라 함은 유체가 체크밸브 속을 통과할 때 밸브의 디스크가 완전개방 상태(Fully opened)를 유지하도록 요구되는 최소의 유체속도를 말한다.  </t>
+          <t xml:space="preserve">이 지침은 유체의 역류방지를 위해 체크밸브가 필요한 모든 종류의 배관에 적용될 수 있다. </t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 배관의 역류방지를 위해 설치하는 체크밸브 설치에 필요한 사항을 정하는데 그 목적이 있다. </t>
+          <t xml:space="preserve">(1) 스윙 체크밸브는 밸브 디스크가 힌지 핀을 지지점으로 하는 암에 의해 원호 모양의 운동을 하면서 밸브가 개폐되는 구조의 체크밸브이다. </t>
         </is>
       </c>
     </row>
@@ -9110,12 +9110,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 유체의 역류방지를 위해 체크밸브가 필요한 모든 종류의 배관에 적용될 수 있다. </t>
+          <t>(2) 체크밸브 전후단의 압력강하는 허용범위 내에 있어야 한다.</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 스윙 체크밸브는 밸브 디스크가 힌지 핀을 지지점으로 하는 암에 의해 원호 모양의 운동을 하면서 밸브가 개폐되는 구조의 체크밸브이다. </t>
+          <t xml:space="preserve">4.1 체크밸브의 기능 </t>
         </is>
       </c>
     </row>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>(2) 체크밸브 전후단의 압력강하는 허용범위 내에 있어야 한다.</t>
+          <t xml:space="preserve">4.2 체크밸브의 종류 </t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.1 체크밸브의 기능 </t>
+          <t xml:space="preserve">4.2.1 스윙 체크밸브(Swing check valve) </t>
         </is>
       </c>
     </row>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2 체크밸브의 종류 </t>
+          <t xml:space="preserve">일반적으로 체크밸브는 아래와 같이 구분된다. </t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.1 스윙 체크밸브(Swing check valve) </t>
+          <t>체크밸브는 역류방지 및 과도한 압력강하 없이 유체를 흐르게 해야 하므로 이를 만족시키기 위해서는 아래와 같은 사항이 필요하다.</t>
         </is>
       </c>
     </row>
@@ -9212,12 +9212,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t xml:space="preserve">일반적으로 체크밸브는 아래와 같이 구분된다. </t>
+          <t>(1) 리프트 체크밸브는 밸브 디스크가 밸브 몸통 또는 뚜껑에 설치된 가이드에의해 밸브 시트에 대하여 수직으로 작동하는 구조의 체크밸브이다.</t>
         </is>
       </c>
     </row>
@@ -9229,12 +9229,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>체크밸브는 역류방지 및 과도한 압력강하 없이 유체를 흐르게 해야 하므로 이를 만족시키기 위해서는 아래와 같은 사항이 필요하다.</t>
+          <t xml:space="preserve">(1) 스톱 체크밸브는 스톱밸브와 체크밸브의 기능을 겸비한 구조의 체크밸브이 다. </t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>(1) 리프트 체크밸브는 밸브 디스크가 밸브 몸통 또는 뚜껑에 설치된 가이드에의해 밸브 시트에 대하여 수직으로 작동하는 구조의 체크밸브이다.</t>
+          <t>(1) 웨이퍼 디스크 체크밸브는 반원판 모양인 2개의 밸브 디스크가 스프링과함께 하나의 힌지 핀에 의하여 개폐되는 구조의 체크밸브이다.</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 스톱 체크밸브는 스톱밸브와 체크밸브의 기능을 겸비한 구조의 체크밸브이 다. </t>
+          <t>(1) 틸팅 디스크 체크밸브는 스윙 체크밸브와 유사한 구조이나 유체의 흐름저항이 적고 스윙 길이가 짧아 스윙 체크밸브보다 빨리 닫힐 수 있어 디스크의 슬램현상이 감소되는 구조의 밸브이다.</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>(1) 웨이퍼 디스크 체크밸브는 반원판 모양인 2개의 밸브 디스크가 스프링과함께 하나의 힌지 핀에 의하여 개폐되는 구조의 체크밸브이다.</t>
+          <t xml:space="preserve">(2) 리프트 체크밸브의 구조 및 특성은 &lt;부록&gt; 2항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>(1) 틸팅 디스크 체크밸브는 스윙 체크밸브와 유사한 구조이나 유체의 흐름저항이 적고 스윙 길이가 짧아 스윙 체크밸브보다 빨리 닫힐 수 있어 디스크의 슬램현상이 감소되는 구조의 밸브이다.</t>
+          <t xml:space="preserve">(2) 스윙 체크밸브의 구조와 특성은 &lt;부록&gt; 1항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 리프트 체크밸브의 구조 및 특성은 &lt;부록&gt; 2항에 설명되어 있다. </t>
+          <t>(2) 이 밸브는 폴딩 디스크 체크밸브(Folding disc check valve), 듀얼 플레이트체크밸브(Dual plate check valve), 듀오 체크밸브(DUO-Check valve), 더블 도아 체크밸브(Double door check valve), 플래퍼 체크밸브(Flapper check valve) 등으로도 불린다.</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 스윙 체크밸브의 구조와 특성은 &lt;부록&gt; 1항에 설명되어 있다. </t>
+          <t xml:space="preserve">(2) 틸팅 디스크 체크밸브의 구조 및 특성은 &lt;부록&gt; 3항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>(2) 이 밸브는 폴딩 디스크 체크밸브(Folding disc check valve), 듀얼 플레이트체크밸브(Dual plate check valve), 듀오 체크밸브(DUO-Check valve), 더블 도아 체크밸브(Double door check valve), 플래퍼 체크밸브(Flapper check valve) 등으로도 불린다.</t>
+          <t xml:space="preserve">(3) 웨이퍼 디스크 체크밸브의 구조와 특성은 &lt;부록&gt; 4항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9370,7 +9370,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 틸팅 디스크 체크밸브의 구조 및 특성은 &lt;부록&gt; 3항에 설명되어 있다. </t>
+          <t xml:space="preserve">4.2.2 리프트 체크밸브(Lift check valve) </t>
         </is>
       </c>
     </row>
@@ -9387,7 +9387,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 웨이퍼 디스크 체크밸브의 구조와 특성은 &lt;부록&gt; 4항에 설명되어 있다. </t>
+          <t xml:space="preserve">4.2.3 틸팅 디스크 체크밸브(Tilting disc check valve) </t>
         </is>
       </c>
     </row>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.2 리프트 체크밸브(Lift check valve) </t>
+          <t xml:space="preserve">4.2.4 웨이퍼 디스크 체크밸브(Wafer disc check valve) </t>
         </is>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.3 틸팅 디스크 체크밸브(Tilting disc check valve) </t>
+          <t xml:space="preserve">4.2.5 스톱 체크밸브(Stop check valve) </t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.4 웨이퍼 디스크 체크밸브(Wafer disc check valve) </t>
+          <t>(1) 노즐 체크밸브는 밸브가 열릴 때에 유로가 유선형의 노즐로 구성되어 압력 손실이 낮으며, 스프링의 압축력에 의해 디스크가 신속하게 닫히는 구조의 체크밸브이다.</t>
         </is>
       </c>
     </row>
@@ -9450,12 +9450,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.5 스톱 체크밸브(Stop check valve) </t>
+          <t>(1) 사일런트 타입 체크밸브는 유체흐름에 수직으로 설치된 원형의 디스크에스프링의 작용으로 기밀을 유지하는 구조의 체크밸브이다.</t>
         </is>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>(1) 노즐 체크밸브는 밸브가 열릴 때에 유로가 유선형의 노즐로 구성되어 압력 손실이 낮으며, 스프링의 압축력에 의해 디스크가 신속하게 닫히는 구조의 체크밸브이다.</t>
+          <t>(1) 인라인 체크밸브는 일종의 리프트 체크밸브의 형태로써 볼(ball)이나 풀 가이드 디스크(Full guide disc)를 스프링으로 유지하는 구조의 체크밸브이다.</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>(1) 사일런트 타입 체크밸브는 유체흐름에 수직으로 설치된 원형의 디스크에스프링의 작용으로 기밀을 유지하는 구조의 체크밸브이다.</t>
+          <t>(2) 노즐 체크밸브는 축류(Axial flow) 체크밸브로도 불린다.</t>
         </is>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>(1) 인라인 체크밸브는 일종의 리프트 체크밸브의 형태로써 볼(ball)이나 풀 가이드 디스크(Full guide disc)를 스프링으로 유지하는 구조의 체크밸브이다.</t>
+          <t xml:space="preserve">(2) 사일런트 타입 체크밸브의 구조와 특성은 &lt;부록&gt; 7항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>(2) 노즐 체크밸브는 축류(Axial flow) 체크밸브로도 불린다.</t>
+          <t xml:space="preserve">(2) 스톱 체크밸브의 구조와 특성은 &lt;부록&gt; 5항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 사일런트 타입 체크밸브의 구조와 특성은 &lt;부록&gt; 7항에 설명되어 있다. </t>
+          <t xml:space="preserve">(2) 인라인 체크밸브의 구조와 특성은 &lt;부록&gt; 6항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 스톱 체크밸브의 구조와 특성은 &lt;부록&gt; 5항에 설명되어 있다. </t>
+          <t xml:space="preserve">(3) 노즐 체크밸브의 구조와 특성은 &lt;부록&gt; 8항에 설명되어 있다. </t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 인라인 체크밸브의 구조와 특성은 &lt;부록&gt; 6항에 설명되어 있다. </t>
+          <t xml:space="preserve">4.2.6 인라인 체크밸브(In-line check valve) </t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 노즐 체크밸브의 구조와 특성은 &lt;부록&gt; 8항에 설명되어 있다. </t>
+          <t xml:space="preserve">4.2.7 사일런트 타입 체크밸브(Silent type check valve) </t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.6 인라인 체크밸브(In-line check valve) </t>
+          <t xml:space="preserve">4.2.8 노즐 체크밸브(Nozzle check valve) </t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.7 사일런트 타입 체크밸브(Silent type check valve) </t>
+          <t xml:space="preserve">4.3 체크밸브 선정 시 고려사항 </t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.2.8 노즐 체크밸브(Nozzle check valve) </t>
+          <t>체크밸브는 다른 밸브와는 달리 한번 설치되면 보수 등의 문제를 간과하기 쉬우므로 최초선정 시 주의가 필요하며, 선정 시 고려할 사항은 아래와 같다.</t>
         </is>
       </c>
     </row>
@@ -9654,12 +9654,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.3 체크밸브 선정 시 고려사항 </t>
+          <t>(1) 체크밸브의 몸체에는 유체의 흐름방향이 표시되어야 한다.</t>
         </is>
       </c>
     </row>
@@ -9671,12 +9671,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>체크밸브는 다른 밸브와는 달리 한번 설치되면 보수 등의 문제를 간과하기 쉬우므로 최초선정 시 주의가 필요하며, 선정 시 고려할 사항은 아래와 같다.</t>
+          <t>(2) 체크밸브를 완전히 개방시킬 정도의 유량이 흐르지 않으면 체크밸브에 과도한 마모가 발생될 수 있다.</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>(1) 체크밸브의 몸체에는 유체의 흐름방향이 표시되어야 한다.</t>
+          <t xml:space="preserve">(3) 부분개방 시의 디스크의 안정성 및 상류측(Upstream) 변동에 대한 디스크의 민감성 (4) 시스템의 역류율에 대한 체크밸브의 닫힘속도 (5) 기밀의 유효성 및 유지보수의 용이성 (6) 캐비테이션 억제 (7) 체크밸브의 설치위치 등 </t>
         </is>
       </c>
     </row>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>(2) 체크밸브를 완전히 개방시킬 정도의 유량이 흐르지 않으면 체크밸브에 과도한 마모가 발생될 수 있다.</t>
+          <t>(3) 스윙 체크밸브를 수직배관에 설치할 때 유량이 위쪽으로 흐르는 지점에 설치하여야 한다. 만약 아래로 흐르는 지점에 설치할 경우 완전히 닫히지 않을 수 있다.</t>
         </is>
       </c>
     </row>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 부분개방 시의 디스크의 안정성 및 상류측(Upstream) 변동에 대한 디스크의 민감성 (4) 시스템의 역류율에 대한 체크밸브의 닫힘속도 (5) 기밀의 유효성 및 유지보수의 용이성 (6) 캐비테이션 억제 (7) 체크밸브의 설치위치 등 </t>
+          <t>(4) 체크밸브는 차단밸브 대신 기밀의 목적으로 사용되지 않아야 한다.</t>
         </is>
       </c>
     </row>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>(3) 스윙 체크밸브를 수직배관에 설치할 때 유량이 위쪽으로 흐르는 지점에 설치하여야 한다. 만약 아래로 흐르는 지점에 설치할 경우 완전히 닫히지 않을 수 있다.</t>
+          <t>(5) 웨이퍼 체크밸브 및 스윙 체크밸브는 왕복동 펌프 및 왕복동 압축기의 인입측과 토출측 또는 이와 유사한 맥동이 발생되는 곳에는 적절하지 않다.</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>(4) 체크밸브는 차단밸브 대신 기밀의 목적으로 사용되지 않아야 한다.</t>
+          <t>(6) 스윙 체크밸브는 병렬로 설치된 펌프 또는 압축기 시스템의 토출측에는 적절하지 않다.</t>
         </is>
       </c>
     </row>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>(5) 웨이퍼 체크밸브 및 스윙 체크밸브는 왕복동 펌프 및 왕복동 압축기의 인입측과 토출측 또는 이와 유사한 맥동이 발생되는 곳에는 적절하지 않다.</t>
+          <t>(7) 수직배관에 설치된 체크밸브는 유체가 위로 흐르도록 설치되어야 하며, 체크밸브 위에는 내부유체를 드레인할 수 있는 드레인밸브 또는 드레인 홀 (Hole)을 설치할 필요가 있다.</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>(6) 스윙 체크밸브는 병렬로 설치된 펌프 또는 압축기 시스템의 토출측에는 적절하지 않다.</t>
+          <t xml:space="preserve">(8) 저압의 유체가 고압의 시스템으로 흐르도록 의도된 경우, 저압측에 체크밸 브가 설치되어야 하며, 이 체크밸브의 압력등급(Pressure rating)은 고압측의 등급을 따라야 한다. </t>
         </is>
       </c>
     </row>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>(7) 수직배관에 설치된 체크밸브는 유체가 위로 흐르도록 설치되어야 하며, 체크밸브 위에는 내부유체를 드레인할 수 있는 드레인밸브 또는 드레인 홀 (Hole)을 설치할 필요가 있다.</t>
+          <t xml:space="preserve">4.4 체크밸브 설치 시의 고려사항 </t>
         </is>
       </c>
     </row>
@@ -9824,12 +9824,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) 저압의 유체가 고압의 시스템으로 흐르도록 의도된 경우, 저압측에 체크밸 브가 설치되어야 하며, 이 체크밸브의 압력등급(Pressure rating)은 고압측의 등급을 따라야 한다. </t>
+          <t>(1) 일반적으로 역류방지 또는 역류최소화를 위해 아래와 같은 장소에는 체크 밸브를 설치를 검토할 필요가 있다.</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.4 체크밸브 설치 시의 고려사항 </t>
+          <t xml:space="preserve">(10) 펌프 등의 토출측에 압력계기, 체크밸브 및 차단밸브가 필요한 경우에는 펌프 등에서 압력계기, 체크밸브 및 차단밸브의 순서로 설치하는 것이 좋다 </t>
         </is>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>(1) 일반적으로 역류방지 또는 역류최소화를 위해 아래와 같은 장소에는 체크 밸브를 설치를 검토할 필요가 있다.</t>
+          <t>(11) 간헐적인 서비스용 체크밸브 또는 일체형 시스템(Skid-mounted system) 에 설치된 체크밸브를 제외하곤, 호칭경 80A(NPS 3) 이상인 모든 체크밸브의 상류측과 하류측에는 난류영향 배제(Turbulance-free)를 위한 아래와 같은 최소거리 이내에는 배관 핏팅류(엘보우, 레듀셔, 티 등) 또는 유량제한장 치(오리피스, 콘트롤밸브 등)를 설치하지 않는 것이 좋다. 이 거리는 체크밸브 종류 및 제작업체에 따라 다를 수 있다.</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10) 펌프 등의 토출측에 압력계기, 체크밸브 및 차단밸브가 필요한 경우에는 펌프 등에서 압력계기, 체크밸브 및 차단밸브의 순서로 설치하는 것이 좋다 </t>
+          <t>(9) 고압시스템의 갑작스런 압력강하로 인해 저압측의 유체가 의도되지 않게고압시스템으로 유입될 수 있으면, 고압시스템에도 체크밸브가 설치할 수있다.</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>(11) 간헐적인 서비스용 체크밸브 또는 일체형 시스템(Skid-mounted system) 에 설치된 체크밸브를 제외하곤, 호칭경 80A(NPS 3) 이상인 모든 체크밸브의 상류측과 하류측에는 난류영향 배제(Turbulance-free)를 위한 아래와 같은 최소거리 이내에는 배관 핏팅류(엘보우, 레듀셔, 티 등) 또는 유량제한장 치(오리피스, 콘트롤밸브 등)를 설치하지 않는 것이 좋다. 이 거리는 체크밸브 종류 및 제작업체에 따라 다를 수 있다.</t>
+          <t xml:space="preserve">5. 체크밸브 설치대상 </t>
         </is>
       </c>
     </row>
@@ -9909,12 +9909,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>(9) 고압시스템의 갑작스런 압력강하로 인해 저압측의 유체가 의도되지 않게고압시스템으로 유입될 수 있으면, 고압시스템에도 체크밸브가 설치할 수있다.</t>
+          <t xml:space="preserve">(1) 아래와 같은 경우에는 펌프의 역류방지를 위해 체크밸브 설치를 검토할 필요가 있다. </t>
         </is>
       </c>
     </row>
@@ -9926,12 +9926,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. 체크밸브 설치대상 </t>
+          <t>(1) 왕복동 펌프 및 왕복동 압축기의 토출측에 체크밸브가 필요하며, 일반적으로 설비 제조자에 의해 일체형(Built-in) 체크밸브가 설치되어 제공된다.</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 아래와 같은 경우에는 펌프의 역류방지를 위해 체크밸브 설치를 검토할 필요가 있다. </t>
+          <t xml:space="preserve">(2) (1)항의 설치대상 중 공정특성 또는 운전특성 등을 고려하여 체크밸브 설치를 생략할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>(1) 왕복동 펌프 및 왕복동 압축기의 토출측에 체크밸브가 필요하며, 일반적으로 설비 제조자에 의해 일체형(Built-in) 체크밸브가 설치되어 제공된다.</t>
+          <t xml:space="preserve">(2) 진공펌프의 인입측에 체크밸브가 필요하며, 일반적으로 설비 제조자에 의해 일체형 체크밸브가 설치되어 제공된다. </t>
         </is>
       </c>
     </row>
@@ -9977,12 +9977,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) (1)항의 설치대상 중 공정특성 또는 운전특성 등을 고려하여 체크밸브 설치를 생략할 수 있다. </t>
+          <t>(가) 역류로 인한 펌프의 보호가 필요할 때 (나) 가스의 역류 가능성이 있을 때 (다) 정상운전조건에서 토출측 액체의 기화 가능성이 있을 때 (라) 정상적인 펌프의 차압보다 더 큰 차압이 예상될 때 (마) 이송되는 물질이 펌프 케이싱의 설계조건(온도, 압력)을 초과하는 다른 유체와 만날 수 있을 때 (2) 체크밸브 설치 시 세부적으로 고려할 사항을 아래와 같다.</t>
         </is>
       </c>
     </row>
@@ -9994,12 +9994,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 진공펌프의 인입측에 체크밸브가 필요하며, 일반적으로 설비 제조자에 의해 일체형 체크밸브가 설치되어 제공된다. </t>
+          <t>(가) 유체(액체 또는 기체)가 역류될 수 있는 시스템 내로 이송할 경우에는 로타리 펌프, 수직형 원심펌프, 수평형 다단 원심펌프의 개별 토출측 배관에는 체크밸브가 각각 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>(가) 역류로 인한 펌프의 보호가 필요할 때 (나) 가스의 역류 가능성이 있을 때 (다) 정상운전조건에서 토출측 액체의 기화 가능성이 있을 때 (라) 정상적인 펌프의 차압보다 더 큰 차압이 예상될 때 (마) 이송되는 물질이 펌프 케이싱의 설계조건(온도, 압력)을 초과하는 다른 유체와 만날 수 있을 때 (2) 체크밸브 설치 시 세부적으로 고려할 사항을 아래와 같다.</t>
+          <t>(나) 토출측의 압력 또는 유량이 펌프의 역회전 손상을 일으킬 수 있는 곳에는 수평형 원심펌프 또는 예비펌프의 공통배관에도 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>(가) 유체(액체 또는 기체)가 역류될 수 있는 시스템 내로 이송할 경우에는 로타리 펌프, 수직형 원심펌프, 수평형 다단 원심펌프의 개별 토출측 배관에는 체크밸브가 각각 필요하다.</t>
+          <t>(다) 병렬로 운전되는 펌프에는 개별적인 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>(나) 토출측의 압력 또는 유량이 펌프의 역회전 손상을 일으킬 수 있는 곳에는 수평형 원심펌프 또는 예비펌프의 공통배관에도 체크밸브가 필요하다.</t>
+          <t>(라) 단단 또는 다단펌프에서 펌프 토출측 최종지점의 압력이 펌프 인입측 압력 이하인 펌프 시스템에는 체크밸브가 필요하지 않다.</t>
         </is>
       </c>
     </row>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>(다) 병렬로 운전되는 펌프에는 개별적인 체크밸브가 필요하다.</t>
+          <t>(마) 펌프의 최소유량배관(Minimum flow line)이 없는 비중 0.6 (15 ℃) 이하인 가벼운 탄화수소를 이송하는 다단펌프의 토출측에는 각 단마다 체크 밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>(라) 단단 또는 다단펌프에서 펌프 토출측 최종지점의 압력이 펌프 인입측 압력 이하인 펌프 시스템에는 체크밸브가 필요하지 않다.</t>
+          <t>(바) 펌프 인입측 압력보다 높은 곳으로 연결된 공통 토출배관에는 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>(마) 펌프의 최소유량배관(Minimum flow line)이 없는 비중 0.6 (15 ℃) 이하인 가벼운 탄화수소를 이송하는 다단펌프의 토출측에는 각 단마다 체크 밸브가 필요하다.</t>
+          <t>(사) 용량 50 %로 2대 또는 3대의 펌프를 운전하는 시스템에는 개별 펌프의토출측마다 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>(바) 펌프 인입측 압력보다 높은 곳으로 연결된 공통 토출배관에는 체크밸브가 필요하다.</t>
+          <t xml:space="preserve">(아) 다음과 같은 경우에는 개별 펌프마다 체크밸브가 필요하다. </t>
         </is>
       </c>
     </row>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>(사) 용량 50 %로 2대 또는 3대의 펌프를 운전하는 시스템에는 개별 펌프의토출측마다 체크밸브가 필요하다.</t>
+          <t xml:space="preserve">③ 체크밸브 미설치로 인한 펌프의 고장이 공정 상 문제를 일으킬 수 있는 경우 </t>
         </is>
       </c>
     </row>
@@ -10147,12 +10147,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t xml:space="preserve">(아) 다음과 같은 경우에는 개별 펌프마다 체크밸브가 필요하다. </t>
+          <t>(1) 아래와 같은 배관에는 역류방지를 위해 체크밸브 설치를 검토할 필요가 있다.</t>
         </is>
       </c>
     </row>
@@ -10164,12 +10164,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t xml:space="preserve">③ 체크밸브 미설치로 인한 펌프의 고장이 공정 상 문제를 일으킬 수 있는 경우 </t>
+          <t>(1) 역회전으로 인해 압축기 또는 구동기의 손상을 초래할 우려가 있는 경우에는 토출측에 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>(1) 아래와 같은 배관에는 역류방지를 위해 체크밸브 설치를 검토할 필요가 있다.</t>
+          <t>(2) 압축기 토출측에서 유체가 오염될 때 압축기의 손상을 초래하거나, 압축기인입측 또는 압축기 저단 토출측의 유체를 오염시킬 우려가 있을 경우에는 토출측에 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>(1) 역회전으로 인해 압축기 또는 구동기의 손상을 초래할 우려가 있는 경우에는 토출측에 체크밸브가 필요하다.</t>
+          <t>(2) 유틸리티 배관의 체크밸브 설치위치는 아래와 같다.</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>(2) 압축기 토출측에서 유체가 오염될 때 압축기의 손상을 초래하거나, 압축기인입측 또는 압축기 저단 토출측의 유체를 오염시킬 우려가 있을 경우에는 토출측에 체크밸브가 필요하다.</t>
+          <t>(3) 압축기 후단에서 유체의 온도(고온 또는 저온)가 압축기 설계온도를 초과할수 있는 경우에는 체크밸브가 필요하다. 이때 고온은 압축기 토출측 용기의 최대운전온도로 가정하고, 저온은 토출온도 및 토출압력에서 인입압력으로 등엔탈피과정으로 교축(Throttled)되는 것으로 가정하여 계산될 수 있다.</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>(2) 유틸리티 배관의 체크밸브 설치위치는 아래와 같다.</t>
+          <t>(4) 압축기 토출측의 역류로 인해 압축기 인입측 또는 저단측에 과압이 발생될수 있는 경우에는 체크밸브가 필요하다.</t>
         </is>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>(3) 압축기 후단에서 유체의 온도(고온 또는 저온)가 압축기 설계온도를 초과할수 있는 경우에는 체크밸브가 필요하다. 이때 고온은 압축기 토출측 용기의 최대운전온도로 가정하고, 저온은 토출온도 및 토출압력에서 인입압력으로 등엔탈피과정으로 교축(Throttled)되는 것으로 가정하여 계산될 수 있다.</t>
+          <t xml:space="preserve">(5) 병렬로 설치된 압축기에는 개별 압축기의 토출측에는 체크밸브가 필요하다. </t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>(4) 압축기 토출측의 역류로 인해 압축기 인입측 또는 저단측에 과압이 발생될수 있는 경우에는 체크밸브가 필요하다.</t>
+          <t>(가) 유틸리티 배관에 체크밸브를 설치할 경우 &lt;그림 1&gt;과 같이 체크밸브 전단에는 내부물질을 배출하기 위한 드레인밸브를 설치할 필요가 있다.</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 병렬로 설치된 압축기에는 개별 압축기의 토출측에는 체크밸브가 필요하다. </t>
+          <t xml:space="preserve">(나) 차단밸브를 1개만 설치할 경우에는 차단밸브 후단에 체크밸브를 설치하는 것이 좋다. </t>
         </is>
       </c>
     </row>
@@ -10300,12 +10300,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>(가) 유틸리티 배관에 체크밸브를 설치할 경우 &lt;그림 1&gt;과 같이 체크밸브 전단에는 내부물질을 배출하기 위한 드레인밸브를 설치할 필요가 있다.</t>
+          <t>(3) 공정배관에 유틸리티 배관을 연결할 경우 배관의 등급은 &lt;그림 1&gt; 및 &lt;그림 2&gt;와 같이 체크밸브 또는 체크밸브 후단의 차단밸브까지 공정측 배관의등급으로 설치하여야 한다. 단, 유틸리티 배관의 등급이 공정측 배관의 등급보다 높을 경우에는 공정측 배관에 접속되는 최종 밸브까지 유틸리티 배관의 등급으로 설치하여야 한다.</t>
         </is>
       </c>
     </row>
@@ -10317,12 +10317,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 차단밸브를 1개만 설치할 경우에는 차단밸브 후단에 체크밸브를 설치하는 것이 좋다. </t>
+          <t xml:space="preserve">(4) 치환 등의 목적으로 유틸리티 배관을 설치하여 특정 시기에만 사용하고 평상 시에 사용하지 않을 경우에는 &lt;그림 2&gt;와 같이 체크밸브 전단에 스펙터클 블라인드를 설치하여 체크밸브를 통한 누설을 방지할 수 있으며, 드레 </t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>(3) 공정배관에 유틸리티 배관을 연결할 경우 배관의 등급은 &lt;그림 1&gt; 및 &lt;그림 2&gt;와 같이 체크밸브 또는 체크밸브 후단의 차단밸브까지 공정측 배관의등급으로 설치하여야 한다. 단, 유틸리티 배관의 등급이 공정측 배관의 등급보다 높을 경우에는 공정측 배관에 접속되는 최종 밸브까지 유틸리티 배관의 등급으로 설치하여야 한다.</t>
+          <t xml:space="preserve">(나) 차단밸브를 2개 설치할 경우에는 차단밸브 사이에 체크밸브를 설치하는것이 좋다. </t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 치환 등의 목적으로 유틸리티 배관을 설치하여 특정 시기에만 사용하고 평상 시에 사용하지 않을 경우에는 &lt;그림 2&gt;와 같이 체크밸브 전단에 스펙터클 블라인드를 설치하여 체크밸브를 통한 누설을 방지할 수 있으며, 드레 </t>
+          <t>[그림 1] 배관용 체크밸브의 설치 위치</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) 차단밸브를 2개 설치할 경우에는 차단밸브 사이에 체크밸브를 설치하는것이 좋다. </t>
+          <t xml:space="preserve">[그림 2] 스펙터클 블라인드를 적용한 체크밸브의 설치 위치 </t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>[그림 1] 배관용 체크밸브의 설치 위치</t>
+          <t xml:space="preserve">블라인드 전단에 드레인밸브 설치 </t>
         </is>
       </c>
     </row>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 2] 스펙터클 블라인드를 적용한 체크밸브의 설치 위치 </t>
+          <t xml:space="preserve">블라인드 후단에 드레인밸브 설치 </t>
         </is>
       </c>
     </row>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t xml:space="preserve">블라인드 전단에 드레인밸브 설치 </t>
+          <t xml:space="preserve">인밸브의 위치는 필요에 따라 스펙터클 블라인드 전단 또는 후단에 설치할수 있다. </t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t xml:space="preserve">블라인드 후단에 드레인밸브 설치 </t>
+          <t xml:space="preserve">차단밸브 1개 설치 차단밸브 2개 설치 </t>
         </is>
       </c>
     </row>
@@ -10453,12 +10453,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t xml:space="preserve">인밸브의 위치는 필요에 따라 스펙터클 블라인드 전단 또는 후단에 설치할수 있다. </t>
+          <t xml:space="preserve">[그림 1] 스윙 체크밸브의 구조 </t>
         </is>
       </c>
     </row>
@@ -10470,12 +10470,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t xml:space="preserve">차단밸브 1개 설치 차단밸브 2개 설치 </t>
+          <t xml:space="preserve">1. 스윙 체크밸브(Swing check valve) 1.1 구조 </t>
         </is>
       </c>
     </row>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 1] 스윙 체크밸브의 구조 </t>
+          <t xml:space="preserve">스윙 체크밸브는 &lt;그림 1&gt;과 같이 유체의 흐름량(유속)에 따라 힌지핀을 중심으로 디스크가 디스크가 들려서 개방되고, 유체가 정지하면 밸브 출구측의 압력과 디스크의 무게에 의해 닫히는 구조이다. </t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. 스윙 체크밸브(Swing check valve) 1.1 구조 </t>
+          <t xml:space="preserve">체크밸브(check valve)의 종류별 특성 </t>
         </is>
       </c>
     </row>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t xml:space="preserve">스윙 체크밸브는 &lt;그림 1&gt;과 같이 유체의 흐름량(유속)에 따라 힌지핀을 중심으로 디스크가 디스크가 들려서 개방되고, 유체가 정지하면 밸브 출구측의 압력과 디스크의 무게에 의해 닫히는 구조이다. </t>
+          <t xml:space="preserve">체크밸브는 외양 및 작동 특성별로 스윙 체크밸브, 리프트 체크밸브, 틸팅 디스크 체크밸브, 폴딩 디스크 체크밸브, 인라인 체크밸브, 스톱 체크밸브 등으로 구분될수 있다. </t>
         </is>
       </c>
     </row>
@@ -10538,12 +10538,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t xml:space="preserve">체크밸브(check valve)의 종류별 특성 </t>
+          <t>(1) 체크밸브 중에서 가장 널리 쓰이고 있는 형식으로써 간단한 구조와 신뢰성있는 동작을 특징으로 하며, 외부형태에 따라 T형, Y형 및 웨이퍼(Wafer) 형이 있으나, 대부분은 T형이다.</t>
         </is>
       </c>
     </row>
@@ -10555,12 +10555,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t xml:space="preserve">체크밸브는 외양 및 작동 특성별로 스윙 체크밸브, 리프트 체크밸브, 틸팅 디스크 체크밸브, 폴딩 디스크 체크밸브, 인라인 체크밸브, 스톱 체크밸브 등으로 구분될수 있다. </t>
+          <t>(2) 유체흐름의 중심과 힌지 핀의 거리가 다른 종류의 체크밸브보다 길어 유체 계통의 손상에 의한 급격한 역류 발생 시 밸브닫힘(디스크 닫힘)시간이 비교적 길게 되고, 밸브 디스크와 힌지 핀을 연결하는 디스크와 암 등에 큰충격력이 작용된다.</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>(1) 체크밸브 중에서 가장 널리 쓰이고 있는 형식으로써 간단한 구조와 신뢰성있는 동작을 특징으로 하며, 외부형태에 따라 T형, Y형 및 웨이퍼(Wafer) 형이 있으나, 대부분은 T형이다.</t>
+          <t>(4) 스윙의 각도를 압력손실이 허용되는 범위 내에서 가능한 한 작게 하면 유체의 역류 시 보다 신속하게 밸브를 닫을 수 있다.</t>
         </is>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>(2) 유체흐름의 중심과 힌지 핀의 거리가 다른 종류의 체크밸브보다 길어 유체 계통의 손상에 의한 급격한 역류 발생 시 밸브닫힘(디스크 닫힘)시간이 비교적 길게 되고, 밸브 디스크와 힌지 핀을 연결하는 디스크와 암 등에 큰충격력이 작용된다.</t>
+          <t>(5) 밸브가 닫힐 때 발생되는 슬램(Slam)현상과 불규칙한 유체흐름 시 디스크의 빈번한 운동으로 인한 힌지 핀의 마모가 예상된다.</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>(4) 스윙의 각도를 압력손실이 허용되는 범위 내에서 가능한 한 작게 하면 유체의 역류 시 보다 신속하게 밸브를 닫을 수 있다.</t>
+          <t>(6) 밸브 구조상 완벽한 기밀 유지가 곤란하다.</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>(5) 밸브가 닫힐 때 발생되는 슬램(Slam)현상과 불규칙한 유체흐름 시 디스크의 빈번한 운동으로 인한 힌지 핀의 마모가 예상된다.</t>
+          <t>(9) 디스크가 몸체 시트에 평면으로 접촉되므로 밸브가 닫힐 때 높은 소음(슬 램현상)이 발생될 수 있다.</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>(6) 밸브 구조상 완벽한 기밀 유지가 곤란하다.</t>
+          <t xml:space="preserve">2. 리프트 체크밸브(Lift check valve) 2.1 구조 </t>
         </is>
       </c>
     </row>
@@ -10657,12 +10657,12 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>(9) 디스크가 몸체 시트에 평면으로 접촉되므로 밸브가 닫힐 때 높은 소음(슬 램현상)이 발생될 수 있다.</t>
+          <t>(1) 글로브밸브의 외양과 비슷하며 디스크 모양에 따라 피스톤 또는 포펫 (Poppet)형식과 볼 형태의 것이 있으며, 스프링을 적용한 것도 있다.</t>
         </is>
       </c>
     </row>
@@ -10674,12 +10674,12 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t xml:space="preserve">2. 리프트 체크밸브(Lift check valve) 2.1 구조 </t>
+          <t>(1) 스윙 체크밸브에 비하여 유체의 속도가 비교적 빠른 조건에서 사용할 수있으며 내누설 특성이 양호하다.</t>
         </is>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>(1) 글로브밸브의 외양과 비슷하며 디스크 모양에 따라 피스톤 또는 포펫 (Poppet)형식과 볼 형태의 것이 있으며, 스프링을 적용한 것도 있다.</t>
+          <t xml:space="preserve">(2) &lt;그림 2&gt;는 리트프 체크밸브의 예이다. </t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>(1) 스윙 체크밸브에 비하여 유체의 속도가 비교적 빠른 조건에서 사용할 수있으며 내누설 특성이 양호하다.</t>
+          <t>(4) 비교적 간단하고 신뢰성 높은 구조이므로 스윙 체크밸브의 적용이 곤란한경우 넓게 쓰인다.</t>
         </is>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) &lt;그림 2&gt;는 리트프 체크밸브의 예이다. </t>
+          <t xml:space="preserve">(6) 밸브 몸체와 디스크의 안내면이 원활하지 않으면 밸브가 닫히지 않는 고착 </t>
         </is>
       </c>
     </row>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>(4) 비교적 간단하고 신뢰성 높은 구조이므로 스윙 체크밸브의 적용이 곤란한경우 넓게 쓰인다.</t>
+          <t xml:space="preserve">[그림 2] 리프트 체크밸브 </t>
         </is>
       </c>
     </row>
@@ -10759,12 +10759,12 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 밸브 몸체와 디스크의 안내면이 원활하지 않으면 밸브가 닫히지 않는 고착 </t>
+          <t>(7) 유체가 디스크 및 시트를 통과할 때 생기는 와류에 의해 디스크가 제자리 회전하는 스피닝(Spinning)이 생길 수 있는 경우에는 디스크 상부의 챔버와 밸브 출구 사이를 연결하는 바이패스 배관을 설치하여 디스크가 열릴 때디스크 상부 챔버의 잔류 유체가 빠져 나가는 구조의 리프트 체크밸브를선정할 필요가 있다.</t>
         </is>
       </c>
     </row>
@@ -10776,12 +10776,12 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 2] 리프트 체크밸브 </t>
+          <t xml:space="preserve">(8) 적정한 배관유속이 유지되지 않을 경우 유체의 파동에 의한 힌지 핀이나 디스크 핀 같은 구동부(Moving Part)의 점진적인 마모가 발생될 수 있고, 이로 인해 체크밸브의 내부 누설 등의 성능저하가 발생될 수 있다. </t>
         </is>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>(7) 유체가 디스크 및 시트를 통과할 때 생기는 와류에 의해 디스크가 제자리 회전하는 스피닝(Spinning)이 생길 수 있는 경우에는 디스크 상부의 챔버와 밸브 출구 사이를 연결하는 바이패스 배관을 설치하여 디스크가 열릴 때디스크 상부 챔버의 잔류 유체가 빠져 나가는 구조의 리프트 체크밸브를선정할 필요가 있다.</t>
+          <t>(Cock 또는 Stick)현상이 발생될 수 있으므로 이러한 현상을 완화시키기 위해서는 스프링을 채택한 체크밸브(Spring loaded check valve)로 변경하는것이 좋다.</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) 적정한 배관유속이 유지되지 않을 경우 유체의 파동에 의한 힌지 핀이나 디스크 핀 같은 구동부(Moving Part)의 점진적인 마모가 발생될 수 있고, 이로 인해 체크밸브의 내부 누설 등의 성능저하가 발생될 수 있다. </t>
+          <t xml:space="preserve">[그림 3] 틸팅 디스크 체크밸브 </t>
         </is>
       </c>
     </row>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>(Cock 또는 Stick)현상이 발생될 수 있으므로 이러한 현상을 완화시키기 위해서는 스프링을 채택한 체크밸브(Spring loaded check valve)로 변경하는것이 좋다.</t>
+          <t xml:space="preserve">3. 틸팅 디스크 체크밸브(Tilting disc check valve) 3.1 구조 </t>
         </is>
       </c>
     </row>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 3] 틸팅 디스크 체크밸브 </t>
+          <t xml:space="preserve">기본적인 구조는 스윙 체크밸브와 유사하나, 유체의 흐름저항이 적고 스윙 길이가 짧아 스윙 체크밸브보다 빨리 닫힐 수 있어 디스크의 슬램현상이 감소되는 구조이며, &lt;그림 3&gt;과 같다. </t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t xml:space="preserve">3. 틸팅 디스크 체크밸브(Tilting disc check valve) 3.1 구조 </t>
+          <t>(1) 스윙 체크밸브와 리프트 체크밸브의 장점을 절충하여 슬램(Slam)현상에 의한 영향을 최소화시킨 구조의 밸브이다.</t>
         </is>
       </c>
     </row>
@@ -10878,12 +10878,12 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t xml:space="preserve">기본적인 구조는 스윙 체크밸브와 유사하나, 유체의 흐름저항이 적고 스윙 길이가 짧아 스윙 체크밸브보다 빨리 닫힐 수 있어 디스크의 슬램현상이 감소되는 구조이며, &lt;그림 3&gt;과 같다. </t>
+          <t>(1) 체크밸브의 디스크를 두 개로 분리하여 디스크 두 개가 동시에 열리고 닫히는 구조의 체크밸브이며, 기본적인 구조는 &lt;그림 4&gt;와 같다.</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>(1) 스윙 체크밸브와 리프트 체크밸브의 장점을 절충하여 슬램(Slam)현상에 의한 영향을 최소화시킨 구조의 밸브이다.</t>
+          <t xml:space="preserve">(2) 이 밸브는 폴딩 디스크 체크밸브(Folding disc check valve), 듀얼 플레이트체크밸브(Dual plate check valve), 듀오 체크밸브(DUO-Check valve), 더블 도아 체크밸브(Double door check valve), 플래퍼 체크밸브(Flapper check valve) 등으로 불리고 있다. </t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>(1) 체크밸브의 디스크를 두 개로 분리하여 디스크 두 개가 동시에 열리고 닫히는 구조의 체크밸브이며, 기본적인 구조는 &lt;그림 4&gt;와 같다.</t>
+          <t xml:space="preserve">(3) 압력 및 온도가 높고 유속이 빠른 고에너지 유체계통에서 적응성이 높은 밸브이다. </t>
         </is>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 이 밸브는 폴딩 디스크 체크밸브(Folding disc check valve), 듀얼 플레이트체크밸브(Dual plate check valve), 듀오 체크밸브(DUO-Check valve), 더블 도아 체크밸브(Double door check valve), 플래퍼 체크밸브(Flapper check valve) 등으로 불리고 있다. </t>
+          <t xml:space="preserve">[그림 4] 웨이퍼 디스크 체크밸브(Wafer-type disc check valve) </t>
         </is>
       </c>
     </row>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 압력 및 온도가 높고 유속이 빠른 고에너지 유체계통에서 적응성이 높은 밸브이다. </t>
+          <t xml:space="preserve">4. 웨이퍼 디스크 체크밸브(Wafer-type disc check valve) </t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 4] 웨이퍼 디스크 체크밸브(Wafer-type disc check valve) </t>
+          <t>(1) 동일 배관 크기에 있어서 경량, 소형으로 설계제작이 가능하여 가격, 배관 설치비, 공간절약, 운송 등 경제적인 효과가 다른 체크밸브보다 훨씬 유리 하다.</t>
         </is>
       </c>
     </row>
@@ -10980,12 +10980,12 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t xml:space="preserve">4. 웨이퍼 디스크 체크밸브(Wafer-type disc check valve) </t>
+          <t xml:space="preserve">(10) 밸브의 메카니즘상 스프링의 피로문제가 있다. </t>
         </is>
       </c>
     </row>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>(1) 동일 배관 크기에 있어서 경량, 소형으로 설계제작이 가능하여 가격, 배관 설치비, 공간절약, 운송 등 경제적인 효과가 다른 체크밸브보다 훨씬 유리 하다.</t>
+          <t>(5) 스프링으로 두 개의 핀을 폐쇄시키는 구조이므로 스프링 손상 시 밸브의기능에 문제가 발생되며, 스프링의 손상 가능성은 스윙 체크밸브의 힌지 핀또는 힌지의 손상 가능성에 비하여 높아 신뢰도 측면에서는 스윙 체크밸브 보다 낮다.</t>
         </is>
       </c>
     </row>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10) 밸브의 메카니즘상 스프링의 피로문제가 있다. </t>
+          <t>(8) 디스크 하나로 유체흐름을 제어하는 것보다 디스크 두 개로 힘을 나누어유체흐름을 제어할 수 있어 밸브 구조를 단순하고 작게 할 수 있다.</t>
         </is>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>(5) 스프링으로 두 개의 핀을 폐쇄시키는 구조이므로 스프링 손상 시 밸브의기능에 문제가 발생되며, 스프링의 손상 가능성은 스윙 체크밸브의 힌지 핀또는 힌지의 손상 가능성에 비하여 높아 신뢰도 측면에서는 스윙 체크밸브 보다 낮다.</t>
+          <t>(9) 닫힐 때의 모멘트 길이가 일반 스윙 체크밸브나 리프트 체크밸브보다 작기 때문에 신속히 닫힌다.</t>
         </is>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>(8) 디스크 하나로 유체흐름을 제어하는 것보다 디스크 두 개로 힘을 나누어유체흐름을 제어할 수 있어 밸브 구조를 단순하고 작게 할 수 있다.</t>
+          <t xml:space="preserve">5. 인라인 체크밸브(In-line check valve) </t>
         </is>
       </c>
     </row>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>(9) 닫힐 때의 모멘트 길이가 일반 스윙 체크밸브나 리프트 체크밸브보다 작기 때문에 신속히 닫힌다.</t>
+          <t xml:space="preserve">5.1 구조 (1) 인라인 체크밸브는 일종의 리프트 체크밸브의 형태로써 볼(Ball)이나 풀 가이드 디스크(Full guide disc)를 스프링으로 유지하는 체크밸브이고, 소형경량이고 스윙 체크밸브에 비하여 밸브 면간 길이가 절반 이하인 밸브이다. </t>
         </is>
       </c>
     </row>
@@ -11082,12 +11082,12 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t xml:space="preserve">5. 인라인 체크밸브(In-line check valve) </t>
+          <t xml:space="preserve">(1) 글로브밸브와 체크밸브를 한데 묶어 두 가지 기능을 각각 수행할 수 있도록 만든 구조의 밸브이다. </t>
         </is>
       </c>
     </row>
@@ -11099,12 +11099,12 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t xml:space="preserve">5.1 구조 (1) 인라인 체크밸브는 일종의 리프트 체크밸브의 형태로써 볼(Ball)이나 풀 가이드 디스크(Full guide disc)를 스프링으로 유지하는 체크밸브이고, 소형경량이고 스윙 체크밸브에 비하여 밸브 면간 길이가 절반 이하인 밸브이다. </t>
+          <t>(1) 인라인 체크밸브는 구조상 배관 라인을 분해하지 않고서는 내부부품 (Internals)을 교체 또는 수리할 수 없다.</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 글로브밸브와 체크밸브를 한데 묶어 두 가지 기능을 각각 수행할 수 있도록 만든 구조의 밸브이다. </t>
+          <t xml:space="preserve">(2) &lt;그림 5&gt;는 볼을 갖는 인라인 체크밸브이다. </t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>(1) 인라인 체크밸브는 구조상 배관 라인을 분해하지 않고서는 내부부품 (Internals)을 교체 또는 수리할 수 없다.</t>
+          <t>(2) 인라인 체크밸브는 거의 대부분이 스프링을 갖고 있지만 일부 인-라인 체크밸브의 경우 스프링이 없는 경우도 있다.</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) &lt;그림 5&gt;는 볼을 갖는 인라인 체크밸브이다. </t>
+          <t>(3) 스프링 가압방식의 인-라인 체크밸브는 유로의 역류정도를 스프링 에너지로 어느 정도 흡수할 수 있어 압력의 급격한 변동이나 수격현상의 영향을줄일 수 있어 공기압축기 출구 배관의 맥동(Pulsation) 흐름과 같은 계통에 적용할 수 있다.</t>
         </is>
       </c>
     </row>
@@ -11172,7 +11172,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>(2) 인라인 체크밸브는 거의 대부분이 스프링을 갖고 있지만 일부 인-라인 체크밸브의 경우 스프링이 없는 경우도 있다.</t>
+          <t xml:space="preserve">(4) 발전소의 주급수 배관과 같은 고에너지 배관의 체크밸브로 쓰인다. </t>
         </is>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>(3) 스프링 가압방식의 인-라인 체크밸브는 유로의 역류정도를 스프링 에너지로 어느 정도 흡수할 수 있어 압력의 급격한 변동이나 수격현상의 영향을줄일 수 있어 공기압축기 출구 배관의 맥동(Pulsation) 흐름과 같은 계통에 적용할 수 있다.</t>
+          <t xml:space="preserve">[그림 5] 인라인 체크밸브 </t>
         </is>
       </c>
     </row>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 발전소의 주급수 배관과 같은 고에너지 배관의 체크밸브로 쓰인다. </t>
+          <t xml:space="preserve">6. 스톱 체크밸브(Stop check valve) 6.1 구조 </t>
         </is>
       </c>
     </row>
@@ -11218,12 +11218,12 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 5] 인라인 체크밸브 </t>
+          <t xml:space="preserve">[그림 6] 스윙 디스크 스톱 체크밸브 </t>
         </is>
       </c>
     </row>
@@ -11235,12 +11235,12 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. 스톱 체크밸브(Stop check valve) 6.1 구조 </t>
+          <t xml:space="preserve">[그림 7] Y-타입 피스톤 리프트 스톱 체크밸브 </t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 6] 스윙 디스크 스톱 체크밸브 </t>
+          <t xml:space="preserve">&lt;그림 6&gt;은 스윙 디스크 스톱 체크밸브의 예이며, &lt;그림 7&gt;은 Y-타입 피 </t>
         </is>
       </c>
     </row>
@@ -11274,7 +11274,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t xml:space="preserve">[그림 7] Y-타입 피스톤 리프트 스톱 체크밸브 </t>
+          <t xml:space="preserve">스톤 리프트 스톱 체크밸브의 예이다. </t>
         </is>
       </c>
     </row>
@@ -11286,12 +11286,12 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 6&gt;은 스윙 디스크 스톱 체크밸브의 예이며, &lt;그림 7&gt;은 Y-타입 피 </t>
+          <t>(1) 리프트 체크밸브의 기능과 스톱밸브의 차단기능을 동시에 갖고 있는 밸브 이다.</t>
         </is>
       </c>
     </row>
@@ -11303,12 +11303,12 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t xml:space="preserve">스톤 리프트 스톱 체크밸브의 예이다. </t>
+          <t xml:space="preserve">(1) 사일런트 타입 체크밸브는 &lt;그림 8&gt;과 같이 유체흐름에 수직으로 설치된원형의 디스크에 스프링의 작용으로 기밀을 유지하는 구조이다. </t>
         </is>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>(1) 리프트 체크밸브의 기능과 스톱밸브의 차단기능을 동시에 갖고 있는 밸브 이다.</t>
+          <t>(2) 일반적으로 스톱 체크밸브의 형식은 스윙 체크밸브 형식과 리프트 체크밸브 형식이 있다.</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 사일런트 타입 체크밸브는 &lt;그림 8&gt;과 같이 유체흐름에 수직으로 설치된원형의 디스크에 스프링의 작용으로 기밀을 유지하는 구조이다. </t>
+          <t>(3) 구조의 안정성 및 운전 신뢰성의 이유로 중소형의 스톱 체크밸브는 리프트 체크밸브 형식으로 거의 제작되며, 대형의 경우에만 스윙 체크밸브 형식을채택된다.</t>
         </is>
       </c>
     </row>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>(2) 일반적으로 스톱 체크밸브의 형식은 스윙 체크밸브 형식과 리프트 체크밸브 형식이 있다.</t>
+          <t xml:space="preserve">(4) 중력이 체크밸브의 중요한 역할을 하므로 체크밸브의 위치와 방향을 항상고려해야 한다. </t>
         </is>
       </c>
     </row>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>(3) 구조의 안정성 및 운전 신뢰성의 이유로 중소형의 스톱 체크밸브는 리프트 체크밸브 형식으로 거의 제작되며, 대형의 경우에만 스윙 체크밸브 형식을채택된다.</t>
+          <t xml:space="preserve">&lt;그림 8&gt; 사일런트 타입 체크밸브(Silent type check valve) </t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 중력이 체크밸브의 중요한 역할을 하므로 체크밸브의 위치와 방향을 항상고려해야 한다. </t>
+          <t xml:space="preserve">7. 사일런트 타입 체크밸브(Silent type check valve ) 7.1 구조 </t>
         </is>
       </c>
     </row>
@@ -11405,12 +11405,12 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 8&gt; 사일런트 타입 체크밸브(Silent type check valve) </t>
+          <t xml:space="preserve">(1) 밸브가 열릴 때에 유로가 유선형의 노즐로 구성되어 압력손실이 낮으며, 스 </t>
         </is>
       </c>
     </row>
@@ -11422,12 +11422,12 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t xml:space="preserve">7. 사일런트 타입 체크밸브(Silent type check valve ) 7.1 구조 </t>
+          <t xml:space="preserve">(2) 노즐 체크밸브는 접촉되는 표면은 밸브 몸체 내에 가공된 환상형의 링이며, 개폐 요소(Closing element)는 가볍고, 밸브 중심과 평행하게 움직이는 스프링이 작용되는 환상형의 링이다. </t>
         </is>
       </c>
     </row>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 밸브가 열릴 때에 유로가 유선형의 노즐로 구성되어 압력손실이 낮으며, 스 </t>
+          <t>(2) 밸브를 통과할 때의 압력강하가 비교적 적은 편이다.</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 노즐 체크밸브는 접촉되는 표면은 밸브 몸체 내에 가공된 환상형의 링이며, 개폐 요소(Closing element)는 가볍고, 밸브 중심과 평행하게 움직이는 스프링이 작용되는 환상형의 링이다. </t>
+          <t xml:space="preserve">(3) 밸브를 닫는데 중력에 의존되지 않기 때문에 수직 또는 수평방향 모두에설치될 수 있다. </t>
         </is>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>(2) 밸브를 통과할 때의 압력강하가 비교적 적은 편이다.</t>
+          <t xml:space="preserve">&lt;그림 9&gt; 노즐 체크밸브(Nozzle check valve) </t>
         </is>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 밸브를 닫는데 중력에 의존되지 않기 때문에 수직 또는 수평방향 모두에설치될 수 있다. </t>
+          <t xml:space="preserve">8. 노즐 체크밸브(Nozzle check valve) 8.1 구조 </t>
         </is>
       </c>
     </row>
@@ -11512,7 +11512,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 9&gt; 노즐 체크밸브(Nozzle check valve) </t>
+          <t>류(Axial flow) 체크밸브로도 불리며, 구조는 &lt;그림 9&gt;와 같다.</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t xml:space="preserve">8. 노즐 체크밸브(Nozzle check valve) 8.1 구조 </t>
+          <t xml:space="preserve">프링의 압축력에 의해 디스크가 신속하게 닫히는 구조의 체크밸브이며, 축 </t>
         </is>
       </c>
     </row>
@@ -11541,12 +11541,12 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>류(Axial flow) 체크밸브로도 불리며, 구조는 &lt;그림 9&gt;와 같다.</t>
+          <t>(1) 노즐 체크밸브는 유체흐름방향으로 설치되어 압력강하가 작고, 신속히 닫히 므로 발전소나 급수시스템에 주로 사용된다.</t>
         </is>
       </c>
     </row>
@@ -11558,12 +11558,12 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t xml:space="preserve">프링의 압축력에 의해 디스크가 신속하게 닫히는 구조의 체크밸브이며, 축 </t>
+          <t>(3) 이동거리가 짧은 가벼운 디스크에 스프링 압축력이 작용되기 때문에 신속하게 밸브를 닫을 수 있다.</t>
         </is>
       </c>
     </row>
@@ -11580,41 +11580,41 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>(1) 노즐 체크밸브는 유체흐름방향으로 설치되어 압력강하가 작고, 신속히 닫히 므로 발전소나 급수시스템에 주로 사용된다.</t>
+          <t xml:space="preserve">(4) 밸브를 닫는데 중력에 의존되지 않기 때문에 수직 또는 수평방향 모두에설치될 수 있다. </t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>(3) 이동거리가 짧은 가벼운 디스크에 스프링 압축력이 작용되기 때문에 신속하게 밸브를 닫을 수 있다.</t>
+          <t xml:space="preserve">(가) “통기설비”라 함은 탱크의 정상운전을 위해 설치한 통기관, 통기밸브 등을 말한다. </t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 밸브를 닫는데 중력에 의존되지 않기 때문에 수직 또는 수평방향 모두에설치될 수 있다. </t>
+          <t xml:space="preserve">(라) “통기밸브(Breather valve)”라 함은 평상시에 닫힌 상태로 있다가 탱크의 압력이 미리 설정된 압력에 도달하면 밸브가 열려 탱크 내부의 가스?증기 등을 외부로 방출하고 탱크 내부로 외부 공기를 흡입하는 밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -11626,12 +11626,12 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) “통기설비”라 함은 탱크의 정상운전을 위해 설치한 통기관, 통기밸브 등을 말한다. </t>
+          <t xml:space="preserve">(2) 다음과 같은 인화성 물질 등을 저장?취급하고 있는 탱크의 통기관에는 통기밸브를 설치하여야 한다. 다만 저장?취급하는 물질이 응축, 부식, 결정, 중합 또는 결빙되는 성질이 있어 통기밸브가 막힐 우려가 있을 경우에는 설치를 생략할 수있다. </t>
         </is>
       </c>
     </row>
@@ -11643,46 +11643,46 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) “통기밸브(Breather valve)”라 함은 평상시에 닫힌 상태로 있다가 탱크의 압력이 미리 설정된 압력에 도달하면 밸브가 열려 탱크 내부의 가스?증기 등을 외부로 방출하고 탱크 내부로 외부 공기를 흡입하는 밸브를 말한다. </t>
+          <t xml:space="preserve">(3) 정상운전 시에 통기관, 통기밸브 등을 통하여 흡입?배기하여야 하는 통기량은 제 4.1항의 통기량 이상이어야 한다. </t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">파열판의 크기 산정 및 설치 등에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 다음과 같은 인화성 물질 등을 저장?취급하고 있는 탱크의 통기관에는 통기밸브를 설치하여야 한다. 다만 저장?취급하는 물질이 응축, 부식, 결정, 중합 또는 결빙되는 성질이 있어 통기밸브가 막힐 우려가 있을 경우에는 설치를 생략할 수있다. </t>
+          <t xml:space="preserve">(1) 분출용량 KOSHA GUIDE (안전밸브 설계 및 설치 등에 관한 지침) 또는 이와 같은 수준 이상의 기준에 따라 산출한다. </t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">파열판의 크기 산정 및 설치 등에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 정상운전 시에 통기관, 통기밸브 등을 통하여 흡입?배기하여야 하는 통기량은 제 4.1항의 통기량 이상이어야 한다. </t>
+          <t xml:space="preserve">(2) 반응기, 저장탱크 등과 같이 대량의 독성물질이 지속적으로 외부로 유출될 수 있는 구조로 된 경우에는 파열판과 안전밸브를 직렬로 설치하고, 파열판과 안전밸브 사이에는 경보장치를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -11694,12 +11694,12 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 분출용량 KOSHA GUIDE (안전밸브 설계 및 설치 등에 관한 지침) 또는 이와 같은 수준 이상의 기준에 따라 산출한다. </t>
+          <t xml:space="preserve">(3) 파열판을 안전밸브 전단에 설치하는 경우에는 파열판과 안전밸브의 사이에 필요 하지 않는 압력이 형성되지 않는 구조로 한다. </t>
         </is>
       </c>
     </row>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 반응기, 저장탱크 등과 같이 대량의 독성물질이 지속적으로 외부로 유출될 수 있는 구조로 된 경우에는 파열판과 안전밸브를 직렬로 설치하고, 파열판과 안전밸브 사이에는 경보장치를 설치하여야 한다. </t>
+          <t xml:space="preserve">(가) 반응폭주 등 급격한 압력상승의 우려가 있는 경우 (나) 독성물질의 누출로 인하여 주위 작업환경을 오염시킬 우려가 있는 경우 (다) 운전 중 안전밸브에 물질이 점착되어 안전밸브의 기능을 저하시킬 우려가 있는 경우 (라) 유체의 부식성이 강하여 안전밸브 재질의 선정에 문제가 있는 경우 </t>
         </is>
       </c>
     </row>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 파열판을 안전밸브 전단에 설치하는 경우에는 파열판과 안전밸브의 사이에 필요 하지 않는 압력이 형성되지 않는 구조로 한다. </t>
+          <t xml:space="preserve">(4) 파열판을 안전밸브 후단에 설치하는 경우에는 다음과 같이 설치한다. </t>
         </is>
       </c>
     </row>
@@ -11745,12 +11745,12 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 반응폭주 등 급격한 압력상승의 우려가 있는 경우 (나) 독성물질의 누출로 인하여 주위 작업환경을 오염시킬 우려가 있는 경우 (다) 운전 중 안전밸브에 물질이 점착되어 안전밸브의 기능을 저하시킬 우려가 있는 경우 (라) 유체의 부식성이 강하여 안전밸브 재질의 선정에 문제가 있는 경우 </t>
+          <t>(가) 파열판과 토출배관은 안전밸브의 성능에 영향을 주지 않도록 설치.</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 파열판을 안전밸브 후단에 설치하는 경우에는 다음과 같이 설치한다. </t>
+          <t>(나) 안전밸브와 파열판의 사이에는 필요하지 않은 압력이 형성되지 않는 구조로 설치 (다) 파열시의 온도에서 파열판의 파열압력의 최대 허용치와 토출측에 걸리는 압력의 합은 다음 수치를 초과하지 않도록 설치</t>
         </is>
       </c>
     </row>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>(가) 파열판과 토출배관은 안전밸브의 성능에 영향을 주지 않도록 설치.</t>
+          <t>① 안전밸브의 배압 제한치</t>
         </is>
       </c>
     </row>
@@ -11801,75 +11801,75 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>(나) 안전밸브와 파열판의 사이에는 필요하지 않은 압력이 형성되지 않는 구조로 설치 (다) 파열시의 온도에서 파열판의 파열압력의 최대 허용치와 토출측에 걸리는 압력의 합은 다음 수치를 초과하지 않도록 설치</t>
+          <t>② 안전밸브와 파열판 사이 배관의 설계압력</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t xml:space="preserve">파열판의 크기 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>① 안전밸브의 배압 제한치</t>
+          <t xml:space="preserve">(3) 폭발억제장치는 고속차단밸브, 또는 공기식 이송시스템 가동정지, 폭발 방산구 등과 같은 장치 또는 시스템이 연동되도록 설치한다. 〈그림 6〉은 고속차단밸브에 대한 예시이다. </t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t xml:space="preserve">파열판의 크기 산정 및 설치 등에 관한 기술지침 </t>
+          <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>② 안전밸브와 파열판 사이 배관의 설계압력</t>
+          <t xml:space="preserve">〈그림 6〉 공기작동식의 고속차단밸브 </t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 폭발억제장치는 고속차단밸브, 또는 공기식 이송시스템 가동정지, 폭발 방산구 등과 같은 장치 또는 시스템이 연동되도록 설치한다. 〈그림 6〉은 고속차단밸브에 대한 예시이다. </t>
+          <t xml:space="preserve">(가) “플레어시스템 (Flare System)”이라 함은 안전밸브 등에서 방출되는 물질을 모아 플레어스택에서 소각시켜 대기 중으로 방출하는 데 필요한 일체의 설비를 말하며 플레어헤더, 녹아웃드럼, 액체 밀봉드럼 및 플레어스택 등과 같은 설비를 포함한다. </t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t xml:space="preserve">〈그림 6〉 공기작동식의 고속차단밸브 </t>
+          <t xml:space="preserve">(나) “안전밸브 (Safety valve)”라 함은 밸브 입구 쪽의 압력이 설정압력에 도달하면 자동적으로 스프링이 작동하면서 유체가 분출되고 일정압력 이하가 되면 정상상태로 복원되는 밸브를 말한다. </t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) “플레어시스템 (Flare System)”이라 함은 안전밸브 등에서 방출되는 물질을 모아 플레어스택에서 소각시켜 대기 중으로 방출하는 데 필요한 일체의 설비를 말하며 플레어헤더, 녹아웃드럼, 액체 밀봉드럼 및 플레어스택 등과 같은 설비를 포함한다. </t>
+          <t xml:space="preserve">(다) “플레어헤더 (Flare header)”라 함은 안전밸브 등에서 방출된 가스 및 액체를 그룹별로 모아서 플레어스택으로 보내기 위하여 설치되는 주 배관을 말한다. </t>
         </is>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t xml:space="preserve">(나) “안전밸브 (Safety valve)”라 함은 밸브 입구 쪽의 압력이 설정압력에 도달하면 자동적으로 스프링이 작동하면서 유체가 분출되고 일정압력 이하가 되면 정상상태로 복원되는 밸브를 말한다. </t>
+          <t xml:space="preserve">(라) “녹아웃드럼 (Knock-out drum)”이라 함은 안전밸브 등의 방출물에 포함되어 있는 액체가 플레어스택으로 가스와 함께 흘러들어 가지 않도록 액체를 분리 포집하는 설비를 말한다. </t>
         </is>
       </c>
     </row>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) “플레어헤더 (Flare header)”라 함은 안전밸브 등에서 방출된 가스 및 액체를 그룹별로 모아서 플레어스택으로 보내기 위하여 설치되는 주 배관을 말한다. </t>
+          <t xml:space="preserve">이 지침은 안전밸브 등에서 방출된 플레어에 포함된 액체를 분리?포집하기 위하여 설치하는 녹아웃드럼에 적용한다. </t>
         </is>
       </c>
     </row>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) “녹아웃드럼 (Knock-out drum)”이라 함은 안전밸브 등의 방출물에 포함되어 있는 액체가 플레어스택으로 가스와 함께 흘러들어 가지 않도록 액체를 분리 포집하는 설비를 말한다. </t>
+          <t xml:space="preserve">이 지침은 안전밸브 방출물 등에 포함되어 있는 액체가 플레어스택으로 가스와 함께 흘러들어 가지 않도록 액체를 분리?포집하기 위하여 설치하는 녹아웃드럼의 설계및 설치에 필요한 사항을 제시하는데 그 목적이 있다. </t>
         </is>
       </c>
     </row>
@@ -11949,12 +11949,12 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 안전밸브 등에서 방출된 플레어에 포함된 액체를 분리?포집하기 위하여 설치하는 녹아웃드럼에 적용한다. </t>
+          <t xml:space="preserve">안전밸브 등에서 방출되는 기체흐름 중 크기가 큰 액적 등이 기체흐름 등에 동반되어 흐를 경우에는 배관 등의 기계적 손상을 일으킬 수 있고 미 연소된 액적 등은 불이 붙은 상태로 플레어시스템 상부에서 지표면 등으로 떨어질 수 있다. 따라서, 녹아웃드럼을 통해 기체흐름에 동반되는 일정크기 이상의 액적을 분리하여 기계적손상 및 버닝레인 현상을 방지하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -11966,12 +11966,12 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침은 안전밸브 방출물 등에 포함되어 있는 액체가 플레어스택으로 가스와 함께 흘러들어 가지 않도록 액체를 분리?포집하기 위하여 설치하는 녹아웃드럼의 설계및 설치에 필요한 사항을 제시하는데 그 목적이 있다. </t>
+          <t xml:space="preserve">(2) 주 녹아웃드럼과 플레어스택 간 거리가 멀어서 안전밸브 등으로부터 방출된 증기가 응축 혹은 액체 방울의 뭉침 현상에 의해 액체방울 크기가 커지는 경우 </t>
         </is>
       </c>
     </row>
@@ -11983,12 +11983,12 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t xml:space="preserve">안전밸브 등에서 방출되는 기체흐름 중 크기가 큰 액적 등이 기체흐름 등에 동반되어 흐를 경우에는 배관 등의 기계적 손상을 일으킬 수 있고 미 연소된 액적 등은 불이 붙은 상태로 플레어시스템 상부에서 지표면 등으로 떨어질 수 있다. 따라서, 녹아웃드럼을 통해 기체흐름에 동반되는 일정크기 이상의 액적을 분리하여 기계적손상 및 버닝레인 현상을 방지하여야 한다. </t>
+          <t xml:space="preserve">아래의 각 호와 같은 현상이 발생하는 경우에는 안전밸브 후단과 주(Main) 녹아웃드럼 사이에 중간 녹아웃드럼을 설치할 수 있다. </t>
         </is>
       </c>
     </row>
@@ -12000,12 +12000,12 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 주 녹아웃드럼과 플레어스택 간 거리가 멀어서 안전밸브 등으로부터 방출된 증기가 응축 혹은 액체 방울의 뭉침 현상에 의해 액체방울 크기가 커지는 경우 </t>
+          <t xml:space="preserve">(1) 대량의 액체 방출물이 발생하는 공정에서는 안전밸브 후단과 근접한 위치에 중간녹아웃드럼을 설치하는 것을 고려하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -12017,12 +12017,12 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t xml:space="preserve">아래의 각 호와 같은 현상이 발생하는 경우에는 안전밸브 후단과 주(Main) 녹아웃드럼 사이에 중간 녹아웃드럼을 설치할 수 있다. </t>
+          <t xml:space="preserve">4 : 안전밸브나 다른 긴급 상황에서 방출되는 액체의 체류 공간 </t>
         </is>
       </c>
     </row>
@@ -12034,12 +12034,12 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 대량의 액체 방출물이 발생하는 공정에서는 안전밸브 후단과 근접한 위치에 중간녹아웃드럼을 설치하는 것을 고려하여야 한다. </t>
+          <t xml:space="preserve">여기서 1 : 안전밸브 등에서 방출되는 방출물의 압력 </t>
         </is>
       </c>
     </row>
@@ -12051,121 +12051,121 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 : 안전밸브나 다른 긴급 상황에서 방출되는 액체의 체류 공간 </t>
+          <t xml:space="preserve">여기서 VL : 녹아웃드럼의 액체 체류량(㎥) VL1 : 설비에서 방출되는 액체량(㎥) VL2 : 안전밸브 등의 방출물에 포함되어 있는 액체량(㎥/hr) </t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t xml:space="preserve">여기서 1 : 안전밸브 등에서 방출되는 방출물의 압력 </t>
+          <t xml:space="preserve">(가) “플레어시스템 (Flare system)”이라 함은 안전밸브 등에서 배출되는 물질을 모아 플레어스택에서 소각시켜 대기 중으로 방출하는데 필요한 일체의 설비를 말하며 플레어헤더, 녹아웃드럼, 액체 밀봉드럼 및 플레어스택 등과 같은 설비를 포함한다. </t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t xml:space="preserve">여기서 VL : 녹아웃드럼의 액체 체류량(㎥) VL1 : 설비에서 방출되는 액체량(㎥) VL2 : 안전밸브 등의 방출물에 포함되어 있는 액체량(㎥/hr) </t>
+          <t xml:space="preserve">(나) “플레어량 (Flare load)”이라 함은 냉각수공급 중단, 전원공급 중단, 또는 외부 화재 등과 같은 요인에 의하여 안전밸브 등이 동시에 작동되어 배출될 수 있는 분출용량의 합계 중 가장 큰 수치를 말한다. </t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) “플레어시스템 (Flare System)”이라 함은 안전밸브 등에서 방출되는 물질을 모아 플레어스택에서 소각시켜 대기 중으로 방출하는 데 필요한 일체의 설비를 말하며 플레어헤더, 녹아웃드럼, 액체 밀봉드럼 및 플레어스택 등과 같은 설비를 포함한다. </t>
+          <t xml:space="preserve">(다) “플레어헤더 (Flare header)”라 함은 안전밸브 등에서 배출된 가스 및 액체를 그룹별로 모아서 플레어스택으로 보내기 위하여 설치되는 주 배관을 말한다. </t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t xml:space="preserve">(다) “플레어헤더 (Flare header)”라 함은 안전밸브 등에서 배출된 가스 및 액체를 그룹별로 모아서 플레어스택으로 보내기 위하여 설치되는 주배관을 말한다. </t>
+          <t xml:space="preserve">이 지침은 안전밸브 등에서 배출되는 위험물질을 안전하게 연소 처리하기 위하여 설치하는 플레어시스템의 설계?설치 및 운전에 필요한 사항을 제시하는데 그목적이 있다. </t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 매우 낮은 온도의 유체가 안전밸브 등으로부터 방출되어 액체 밀봉드럼으로 유입 되는 경우에는 밀봉액체 동결 등을 고려하여야 한다. </t>
+          <t xml:space="preserve">이 지침은 화학설비 및 그 부속설비 중 안전밸브 등으로부터 방출된 기체 및 액체 물질을 안전하게 처리하는 목적으로 설치하는 플레어시스템에 적용한다. </t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 퍼지가스는 헤더 말단 등에서 공급하며 고정 오리피스 방식, 압력 또는 온도변화와 연동되는 컨트롤밸브 방식 및 두 가지 방법의 혼합방식 등을 사용하여 공급한다. </t>
+          <t xml:space="preserve">(마) “녹아웃드럼 (Knock-out drum)”이라 함은 안전밸브 등의 배출물에 포함되어 있는 액체가 플레어스택으로 가스와 함께 흘러들어 가지 않도록 액체를 분리 포집하는 설비를 말한다. </t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -12175,14 +12175,14 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 최소우회흐름 배관의 수동밸브는 자물쇠형으로 늘 개방되어 있어야한다. </t>
+          <t xml:space="preserve">(1) 각각의 안전밸브 및 기타 배출원으로 부터의 토출 배관 </t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -12192,116 +12192,116 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 펌프 후단시스템에 안전밸브 없이 차단밸브만 설치된 장치는 펌프의 차단압력 또는 최고운전 흡입압력에서 펌프의 최소 유량 압력보다 높은 설계압력을 적용하여야 한다. </t>
+          <t xml:space="preserve">(1) 플레어헤더 설계시에는 플레어헤더에 형성되거나 또는 이미 존재하고 있는 압력을고려하여 안전밸브 등의 배출용량이 감소되지 않도록 하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>- 배관과 연결된 장치의 설계압력 - 시스템의 보호를 위해 설치된 안전밸브의 설정치 - 펌프 토출 측의 배관(차단밸브에 의해 차단될 수 있는 경우)은 펌프의차단압력. 단, 전기로 구동되는 원심펌프의 차단압력은 최고흡입압력에 125 %의 정상 양정을 더하여 구한다. 증기터빈으로 움직이는 펌프의 경우, 최고흡입압력에 145 %의 정상 양정을 더하여 구한다.</t>
+          <t xml:space="preserve">(3) 안전밸브 등의 토출측에서부터 녹아웃드럼사이의 배관에 액체가 정체되지 않도록 하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t xml:space="preserve">(가) 배관 호칭지름 - 배관, 밸브, 노즐의 호칭지름을 표기한다. </t>
+          <t xml:space="preserve">플레어량은 공단 기술지침 「안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침」을 참고하여 계산한다. </t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) 모든 조절밸브의 밸브구동기(Valve actuator)를 포함한 제어계통, 정전과 같은 이상 시 밸브의 개폐 위치(Fail position) 등을 표시한다. </t>
+          <t xml:space="preserve">(4) 안전밸브 등의 토출측으로부터 녹아웃드럼쪽으로 플레어헤더는 경사지게 설치 하여야 한다. 이때의 기울기는 1/500 이상(저온 플레어헤더 제외)의 경사도를갖도록 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) 안전밸브의 크기, 설정압력 및 토출 측 연결부위의 조건을 표시한다. </t>
+          <t xml:space="preserve">(6) 포집배관 시스템에는 차단밸브를 설치하여서는 아니 된다. 다만, 여러 생산설비에 공용의 플레어스택을 설치하는 경우에는 각 생산설비의 플레어헤더에 차단 밸브를 설치할 수 있다. 이 경우에는 설치된 차단밸브의 열림 상태를 주조정실에서알 수 있도록 열림?닫힘 상태 경보장치를 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>(나) 안전에 관련된 연동장치(Interlock)는 독립된 시스템으로 구성되어야 하고, 고장 시 밸브의 개폐 위치(Fail position)가 안전한 위치로 되도록 설계 하여야 한다.(Fail safe)</t>
+          <t xml:space="preserve">(2) 공장의 배치도면과 단위공장별 플레어량 산출내역을 참고하여 플레어헤더가 지나갈 수 있는 방향에 따라 주요 지점별로 모든 압력 상승요인에 의하여 안전밸브 등에서 동시에 배출될 수 있는 분출량을 결정한다. </t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 조절밸브(Control valve)는 공압조절기를 포함하고 있어야 한다. </t>
+          <t xml:space="preserve">(3) (2)항과 같은 개념으로 플레어시스템 끝단으로부터 안전밸브 후단까지의 최대허용가능 압력손실을 산출한다. </t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -12311,160 +12311,160 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 조절밸브의 매니폴드 설계 테이블(부록 2)을 참조하여 바이패스밸브와 차단밸브의 크기를 선정한다. </t>
+          <t xml:space="preserve">(5) 모든 압력 상승요인별 분출량에 대하여 플레어시스템 끝단으로부터 안전밸브까지의총 압력손실이 허용 가능한 범위 내에 있는지 확인한다. 이때 총 압력 손실이허용 가능한 압력손실을 초과하는 경우에는 플레어헤더의 직경을 다시 가정하여손실을 계산하는 등 시행착오 방식에 의하여 플레어헤더의 크기를 결정한다. </t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 펌프의 노즐 호칭지름을 알기 전에 밸브의 견적이 이뤄진다면, 펌프 흡입 측의 밸브와 토출 측의 밸브는 배관의 호칭지름과 동일하게 한다. </t>
+          <t xml:space="preserve">(2) 20 m 이상을 확보하였어도 안전밸브 등에서 방출되는 플레어의 종류 및 방출량이 </t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 조절밸브가 배관보다 두 치수 이상 작을 경우 차단밸브와 바이패스밸브의치수를 분석하여야 한다. </t>
+          <t xml:space="preserve">(가) 지정된 운전원이 플레어를 쉽게 볼 수 있는 장소에서의 수동 밸브 </t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 다만 아래 조건일 경우 배관과 같은 치수의 차단밸브와 바이패스밸브를 사용한다. </t>
+          <t xml:space="preserve">(라) 연기 생성을 검출한 후 스팀 밸브를 자동으로 조절하는 적외선 센서 </t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>(나) 작은 조절밸브가 있는 중력흐름(Gravity flow)일 때</t>
+          <t xml:space="preserve">(7) 플레어시스템으로 산소가 유입되지 않도록 하여야 하며, 특히 안전밸브 등 보수 시에 주의하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 설계·설치 및 운전에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>(라) 큰 압력손실로 인해 공동현상(Cavitation)이 우려될 때 확장(Expansion) 연결구를 조절밸브 출구 쪽에 설치한다.</t>
+          <t xml:space="preserve">(1) 플레어시스템의 배압이 증가할 경우 낮은 압력으로 설정된 안전밸브가 작동하지 않을 수 있으므로 다음 각 호를 확인하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t xml:space="preserve">(마) 20 ㎜(3/4 inch.) 블리드밸브(Bleed valve)는 조절밸브의 전단에 &lt;그림 1&gt; 처럼 설치한다. </t>
+          <t xml:space="preserve">(가) “플레어시스템 (Flare System)”이라 함은 안전밸브 등에서 방출되는 물질을 모아 플레어스택에서 소각시켜 대기 중으로 방출하는 데 필요한 일체의 설비를 말하며 플레어헤더, 녹아웃드럼, 액체 밀봉드럼 및 플레어스택 등과 같은 설비를 포함한다. </t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 1&gt; 블리드 밸브 매니폴드 </t>
+          <t xml:space="preserve">(다) “플레어헤더 (Flare header)”라 함은 안전밸브 등에서 배출된 가스 및 액체를 그룹별로 모아서 플레어스택으로 보내기 위하여 설치되는 주배관을 말한다. </t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.4 조절밸브 매니폴드(Manifold) </t>
+          <t xml:space="preserve">(6) 매우 낮은 온도의 유체가 안전밸브 등으로부터 방출되어 액체 밀봉드럼으로 유입 되는 경우에는 밀봉액체 동결 등을 고려하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+          <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 펌프의 노즐 호칭지름을 알고 난 뒤에 밸브의 견적이 이뤄진다면, 펌프 흡입 측의 밸브와 토출 측의 밸브는 펌프 노즐과 같은 호칭지름으로 한다. </t>
+          <t xml:space="preserve">(3) 퍼지가스는 헤더 말단 등에서 공급하며 고정 오리피스 방식, 압력 또는 온도변화와 연동되는 컨트롤밸브 방식 및 두 가지 방법의 혼합방식 등을 사용하여 공급한다. </t>
         </is>
       </c>
     </row>
@@ -12476,12 +12476,12 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) 수냉식 열교환기의 물 배관 및 밸브는 &lt;그림 2&gt;처럼 설치한다. </t>
+          <t xml:space="preserve">(라) 최소우회흐름 배관의 수동밸브는 자물쇠형으로 늘 개방되어 있어야한다. </t>
         </is>
       </c>
     </row>
@@ -12493,12 +12493,12 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>(가) 펌프노즐과 배관의 호칭지름과 한 호칭지름 차이라면, 펌프 흡입 측의 밸브는 둘 중 큰 쪽으로 하고, 펌프 토출 측의 밸브는 작은 쪽으로 한다.</t>
+          <t xml:space="preserve">(1) 펌프 후단시스템에 안전밸브 없이 차단밸브만 설치된 장치는 펌프의 차단압력 또는 최고운전 흡입압력에서 펌프의 최소 유량 압력보다 높은 설계압력을 적용하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -12510,12 +12510,12 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>(나) 펌프 흡입 측과 토출 측의 노즐이 배관의 지름보다 한 호칭지름 이상 다르다면, 밸브는 배관호칭지름보다 한 호칭지름 작은 것으로 한다.</t>
+          <t>- 배관과 연결된 장치의 설계압력 - 시스템의 보호를 위해 설치된 안전밸브의 설정치 - 펌프 토출 측의 배관(차단밸브에 의해 차단될 수 있는 경우)은 펌프의차단압력. 단, 전기로 구동되는 원심펌프의 차단압력은 최고흡입압력에 125 %의 정상 양정을 더하여 구한다. 증기터빈으로 움직이는 펌프의 경우, 최고흡입압력에 145 %의 정상 양정을 더하여 구한다.</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>(다) 펌프 노즐이 배관 호칭지름보다 두 호칭지름 이상 작다면, 배관의 호칭지 름이 적합한 지 또는 경제적인 측면에서 배관 호칭지름밸브와 단일 스웨지(Swage) 대 두 개의 스웨지와 한 호칭지름 작은 밸브를 고려해야 한다.</t>
+          <t xml:space="preserve">(가) 배관 호칭지름 - 배관, 밸브, 노즐의 호칭지름을 표기한다. </t>
         </is>
       </c>
     </row>
@@ -12544,12 +12544,12 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 펌프 노즐이 배관 호칭지름보다 두 호칭지름 이상 크다면, 배관 호칭지름을 점검하여야 한다. 토출부의 체크밸브와 차단밸브는 같은 호칭지름으로 하여야 한다. </t>
+          <t xml:space="preserve">(4) 모든 조절밸브의 밸브구동기(Valve actuator)를 포함한 제어계통, 정전과 같은 이상 시 밸브의 개폐 위치(Fail position) 등을 표시한다. </t>
         </is>
       </c>
     </row>
@@ -12561,12 +12561,12 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) 용기의 퍼지를 위한 퍼지배관에는 2 중 차단밸브, 제거 가능한 스풀과 벤트가 설치되어야 한다. </t>
+          <t xml:space="preserve">(8) 안전밸브의 크기, 설정압력 및 토출 측 연결부위의 조건을 표시한다. </t>
         </is>
       </c>
     </row>
@@ -12578,12 +12578,12 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) 벤트는 타워(Tower)나 수직 용기의 꼭대기에 설치하여야 한다. 수평 용기의 경우 벤트는 드레인과 같은 끝부분과 스팀아웃의 반대 끝부분의 꼭대기에 설치하여야 한다. 모든 벤트는 밸브와 블라인드 또는 캡으로 마감하여야 한다. </t>
+          <t>(나) 안전에 관련된 연동장치(Interlock)는 독립된 시스템으로 구성되어야 하고, 고장 시 밸브의 개폐 위치(Fail position)가 안전한 위치로 되도록 설계 하여야 한다.(Fail safe)</t>
         </is>
       </c>
     </row>
@@ -12595,12 +12595,12 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;그림 2&gt; 수냉식 열교환기 주변 배관 및 밸브 </t>
+          <t xml:space="preserve">(라) 조절밸브(Control valve)는 공압조절기를 포함하고 있어야 한다. </t>
         </is>
       </c>
     </row>
@@ -12612,12 +12612,12 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t xml:space="preserve">글로브밸브(Globe valve)는 4“ 인하 게이트밸브(Gate valve)는 6“ 이상 </t>
+          <t xml:space="preserve">(1) 조절밸브의 매니폴드 설계 테이블(부록 2)을 참조하여 바이패스밸브와 차단밸브의 크기를 선정한다. </t>
         </is>
       </c>
     </row>
@@ -12629,12 +12629,12 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) 체크밸브가 있거나 혹은 없는 일반적인 구분의 경우 </t>
+          <t xml:space="preserve">(1) 펌프의 노즐 호칭지름을 알기 전에 밸브의 견적이 이뤄진다면, 펌프 흡입 측의 밸브와 토출 측의 밸브는 배관의 호칭지름과 동일하게 한다. </t>
         </is>
       </c>
     </row>
@@ -12646,12 +12646,12 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) 플랜트 경계(Battery limit)를 지나는 배관에는 보통 맹판(Spectacle blind)과 경계 차단밸브를 설치하여야 한다. 20 ㎜(3/4 inch) 블리드 밸브는 경계의 안쪽에 설치하여야 한다. </t>
+          <t xml:space="preserve">(2) 조절밸브가 배관보다 두 치수 이상 작을 경우 차단밸브와 바이패스밸브의치수를 분석하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -12663,12 +12663,12 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>(가) 스팀 : 모든 공급 헤더와 사용처(User branch)를 위한 차단밸브를 설하여야 한다. 터빈의 입구와 배출밸브(Exhaust valve)는 헤더가 아닌 터빈에설치하여야 한다.</t>
+          <t xml:space="preserve">(3) 다만 아래 조건일 경우 배관과 같은 치수의 차단밸브와 바이패스밸브를 사용한다. </t>
         </is>
       </c>
     </row>
@@ -12680,12 +12680,12 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>(나) 응축수 : 헤더에 차단밸브를 설치하여야 한다.</t>
+          <t>(나) 작은 조절밸브가 있는 중력흐름(Gravity flow)일 때</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>(다) 냉각수 : 헤더에 차단밸브는 설치하지 않는다. 차단밸브는 각 장치의 배관에 설치하여야 한다.</t>
+          <t>(라) 큰 압력손실로 인해 공동현상(Cavitation)이 우려될 때 확장(Expansion) 연결구를 조절밸브 출구 쪽에 설치한다.</t>
         </is>
       </c>
     </row>
@@ -12714,12 +12714,12 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>(라) 질소 : 헤더에 차단밸브를 설치하여야 한다.</t>
+          <t xml:space="preserve">(마) 20 ㎜(3/4 inch.) 블리드밸브(Bleed valve)는 조절밸브의 전단에 &lt;그림 1&gt; 처럼 설치한다. </t>
         </is>
       </c>
     </row>
@@ -12731,12 +12731,12 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>(마) 계장용 공기(Instrument air) 와 유틸리티 공기 : 헤더에 차단밸브를 설치 하여야 한다.</t>
+          <t xml:space="preserve">&lt;그림 1&gt; 블리드 밸브 매니폴드 </t>
         </is>
       </c>
     </row>
@@ -12748,12 +12748,12 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>(바) 서비스 용수(Service water) : 헤더에 차단밸브를 설치하여야 한다.</t>
+          <t xml:space="preserve">7.4 조절밸브 매니폴드(Manifold) </t>
         </is>
       </c>
     </row>
@@ -12765,12 +12765,12 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t xml:space="preserve">(사) 모든 서비스(Service) : 헤더에 차단밸브를 설치하여야 한다. </t>
+          <t xml:space="preserve">(2) 펌프의 노즐 호칭지름을 알고 난 뒤에 밸브의 견적이 이뤄진다면, 펌프 흡입 측의 밸브와 토출 측의 밸브는 펌프 노즐과 같은 호칭지름으로 한다. </t>
         </is>
       </c>
     </row>
@@ -12782,12 +12782,12 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.11 플랜트의 경계(Battery limit)와 헤더(Header) 차단밸브 </t>
+          <t xml:space="preserve">(7) 수냉식 열교환기의 물 배관 및 밸브는 &lt;그림 2&gt;처럼 설치한다. </t>
         </is>
       </c>
     </row>
@@ -12799,12 +12799,12 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) &lt;표 3&gt;은 적당한 타입의 밸브를 선택하는 기술지침이다. 부식성 유체나 큰압력손실 같은 특별한 서비스를 필요로 하는 경우에는 개별적으로 평가해야 한다. </t>
+          <t>(가) 펌프노즐과 배관의 호칭지름과 한 호칭지름 차이라면, 펌프 흡입 측의 밸브는 둘 중 큰 쪽으로 하고, 펌프 토출 측의 밸브는 작은 쪽으로 한다.</t>
         </is>
       </c>
     </row>
@@ -12816,12 +12816,12 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 잠금 밸브 : 운전 중 밸브가 안전상의 이유로 열려져 있거나 닫혀져 있어야 하는 경우, 자물쇠형 개방(Locked open) 혹은 자물쇠형 잠금(Locked closed) 으로 표시한다. </t>
+          <t>(나) 펌프 흡입 측과 토출 측의 노즐이 배관의 지름보다 한 호칭지름 이상 다르다면, 밸브는 배관호칭지름보다 한 호칭지름 작은 것으로 한다.</t>
         </is>
       </c>
     </row>
@@ -12833,12 +12833,12 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t xml:space="preserve">7.13 밸브 적용 </t>
+          <t>(다) 펌프 노즐이 배관 호칭지름보다 두 호칭지름 이상 작다면, 배관의 호칭지 름이 적합한 지 또는 경제적인 측면에서 배관 호칭지름밸브와 단일 스웨지(Swage) 대 두 개의 스웨지와 한 호칭지름 작은 밸브를 고려해야 한다.</t>
         </is>
       </c>
     </row>
@@ -12850,12 +12850,12 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>(사) 배관 손실은 배관 부속품, 밸브 등의 압력 손실과 배관에서의 압력손실을모두 더한 값이다.</t>
+          <t xml:space="preserve">(라) 펌프 노즐이 배관 호칭지름보다 두 호칭지름 이상 크다면, 배관 호칭지름을 점검하여야 한다. 토출부의 체크밸브와 차단밸브는 같은 호칭지름으로 하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>(차) 조절밸브의 압력손실은 계산값과 103.4 kPa(15 psi) 중 큰 값으로 한다.</t>
+          <t xml:space="preserve">(5) 용기의 퍼지를 위한 퍼지배관에는 2 중 차단밸브, 제거 가능한 스풀과 벤트가 설치되어야 한다. </t>
         </is>
       </c>
     </row>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t xml:space="preserve">(카) 펌프의 토출압력은 도달압력, 배관손실, 유량계의 압력손실, 열교환기의 압력손실, 조절밸브의 압력손실, 그리고 기타손실의 합계이다. </t>
+          <t xml:space="preserve">(6) 벤트는 타워(Tower)나 수직 용기의 꼭대기에 설치하여야 한다. 수평 용기의 경우 벤트는 드레인과 같은 끝부분과 스팀아웃의 반대 끝부분의 꼭대기에 설치하여야 한다. 모든 벤트는 밸브와 블라인드 또는 캡으로 마감하여야 한다. </t>
         </is>
       </c>
     </row>
@@ -12901,182 +12901,488 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;표 3&gt; 밸브 사양 가이드 </t>
+          <t xml:space="preserve">&lt;그림 2&gt; 수냉식 열교환기 주변 배관 및 밸브 </t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 최대운전압력이 게이지 압력으로 7 MPa(70 kg f /㎠)를 초과하는 공정용기의 설계압력은 최대운전압력에 최대운전압력의 5 % 또는 700 kPa(7 kg f / ㎠) 중 큰 수치를 더한 수치 이상으로 하여야 한다. 다만, 파일럿 작동형 (Pilot type) 안전밸브를 설치하는 경우에는 공정용기의 설계압력은 최대운 전압력에 최대운전압력의 5 %를 더한 수치 이상으로 할 수 있다 </t>
+          <t xml:space="preserve">글로브밸브(Globe valve)는 4“ 인하 게이트밸브(Gate valve)는 6“ 이상 </t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 체류시간은 액위조절부유통(Level control float chamber)에서 최소한 조절 밸브의 여닫음 시간의 5배 이상 이어야 한다. </t>
+          <t xml:space="preserve">(3) 체크밸브가 있거나 혹은 없는 일반적인 구분의 경우 </t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 최대운전압력이 게이지 압력으로 7 MPa(70 kg f /㎠)를 초과하는 열교환기의 설계압력은 최대운전압력에 최대운전압력의 5 % 또는 700 kPa(7 kg f / ㎠) 중 큰 수치를 더한 수치이상으로 하여야 한다. 다만, 파일럿 작동형 (Pilot type) 안전밸브를 설치하는 경우에는 공정용기의 설계압력은 최대 운전압력에 최대운전압력의 5 %를 더한 수치 이상으로 할 수 있다 </t>
+          <t xml:space="preserve">(1) 플랜트 경계(Battery limit)를 지나는 배관에는 보통 맹판(Spectacle blind)과 경계 차단밸브를 설치하여야 한다. 20 ㎜(3/4 inch) 블리드 밸브는 경계의 안쪽에 설치하여야 한다. </t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 보일러급수펌프의 양정은 미국국가기준협회규격 ANSI/ASME SectionⅠ "Power boiler" 의 기준에 따른다. 이 펌프는 안전밸브가 설정압력의 106 %에서 작동될 때에도 정상운전 유량을 공급할 수 있어야 한다. </t>
+          <t>(가) 스팀 : 모든 공급 헤더와 사용처(User branch)를 위한 차단밸브를 설하여야 한다. 터빈의 입구와 배출밸브(Exhaust valve)는 헤더가 아닌 터빈에설치하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비 배관 등의 비파괴검사 및 열처리에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t xml:space="preserve">이 지침의 적용범위는 안전보건규칙 별표7(화학설비 및 그 부속설비의 종류)의 화학설비의 부속 설비중 파이프?밸브?튜브?부속류 등이 용접에 의하여 연결된 배관에 적용한다. </t>
+          <t>(나) 응축수 : 헤더에 차단밸브를 설치하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) 안전보건규칙 별표7(화학설비 및 그 부속설비의 종류)의 2호(화학설비의 부속설비) 중 가목에 해당하는 배관?밸브?관?부속류 등 화학물질 이송 관련 설비(이하 "배관류"라 한다) </t>
+          <t>(다) 냉각수 : 헤더에 차단밸브는 설치하지 않는다. 차단밸브는 각 장치의 배관에 설치하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t xml:space="preserve">(라) 주철은 취약하며 강도가 낮으므로 가연성의 탄화수소를 취급하는 압력이 포함된 설비에는 사용하지 않는다. 그러나, 주철은 경도가 높아서충돌이나 침식, 케비테이션 같은 유속으로 인한 부식에 대한 영향을감소시키므로 펌프, 밸브 등에 사용된다. </t>
+          <t>(라) 질소 : 헤더에 차단밸브를 설치하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>활성탄 흡착설비의 안전설치에 관한 기술지침</t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>(8) 흡착탑에서 공기가 빠져 나가는 것 을 막기 위하서는 배출구 라인에 적정한통기 밸브 (Pressure/vacuum b reather)를 사용하는 것 이 바 람직하다.</t>
+          <t>(마) 계장용 공기(Instrument air) 와 유틸리티 공기 : 헤더에 차단밸브를 설치 하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>활성탄 흡착설비의 안전설치에 관한 기술지침</t>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>(나) 배기구 밸브가 완전개방되었는지 확실하게 해야 한다.사람이 있을 지도 모르는 장소에 고온의 스팀 과 VOC 혼합물이 유입되지 않도록 하기 위해</t>
+          <t>(바) 서비스 용수(Service water) : 헤더에 차단밸브를 설치하여야 한다.</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(사) 모든 서비스(Service) : 헤더에 차단밸브를 설치하여야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.11 플랜트의 경계(Battery limit)와 헤더(Header) 차단밸브 </t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) &lt;표 3&gt;은 적당한 타입의 밸브를 선택하는 기술지침이다. 부식성 유체나 큰압력손실 같은 특별한 서비스를 필요로 하는 경우에는 개별적으로 평가해야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 잠금 밸브 : 운전 중 밸브가 안전상의 이유로 열려져 있거나 닫혀져 있어야 하는 경우, 자물쇠형 개방(Locked open) 혹은 자물쇠형 잠금(Locked closed) 으로 표시한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.13 밸브 적용 </t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>(사) 배관 손실은 배관 부속품, 밸브 등의 압력 손실과 배관에서의 압력손실을모두 더한 값이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>(차) 조절밸브의 압력손실은 계산값과 103.4 kPa(15 psi) 중 큰 값으로 한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(카) 펌프의 토출압력은 도달압력, 배관손실, 유량계의 압력손실, 열교환기의 압력손실, 조절밸브의 압력손실, 그리고 기타손실의 합계이다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;표 3&gt; 밸브 사양 가이드 </t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
           <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
         </is>
       </c>
-      <c r="B750" t="inlineStr">
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 최대운전압력이 게이지 압력으로 7 MPa(70 kg f /㎠)를 초과하는 공정용기의 설계압력은 최대운전압력에 최대운전압력의 5 % 또는 700 kPa(7 kg f / ㎠) 중 큰 수치를 더한 수치 이상으로 하여야 한다. 다만, 파일럿 작동형 (Pilot type) 안전밸브를 설치하는 경우에는 공정용기의 설계압력은 최대운 전압력에 최대운전압력의 5 %를 더한 수치 이상으로 할 수 있다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 체류시간은 액위조절부유통(Level control float chamber)에서 최소한 조절 밸브의 여닫음 시간의 5배 이상 이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 최대운전압력이 게이지 압력으로 7 MPa(70 kg f /㎠)를 초과하는 열교환기의 설계압력은 최대운전압력에 최대운전압력의 5 % 또는 700 kPa(7 kg f / ㎠) 중 큰 수치를 더한 수치이상으로 하여야 한다. 다만, 파일럿 작동형 (Pilot type) 안전밸브를 설치하는 경우에는 공정용기의 설계압력은 최대 운전압력에 최대운전압력의 5 %를 더한 수치 이상으로 할 수 있다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 보일러급수펌프의 양정은 미국국가기준협회규격 ANSI/ASME SectionⅠ "Power boiler" 의 기준에 따른다. 이 펌프는 안전밸브가 설정압력의 106 %에서 작동될 때에도 정상운전 유량을 공급할 수 있어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C750" t="inlineStr">
+      <c r="C763" t="inlineStr">
         <is>
           <t xml:space="preserve">(4) 긴 액체 배관에서는 갑자기 밸브가 잠기었을 때에 햄머링(Hammering) 현상이발생하지 않는 유속이하이어야 한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비 배관 등의 비파괴검사 및 열처리에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 지침의 적용범위는 안전보건규칙 별표7(화학설비 및 그 부속설비의 종류)의 화학설비의 부속 설비중 파이프?밸브?튜브?부속류 등이 용접에 의하여 연결된 배관에 적용한다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2) 안전보건규칙 별표7(화학설비 및 그 부속설비의 종류)의 2호(화학설비의 부속설비) 중 가목에 해당하는 배관?밸브?관?부속류 등 화학물질 이송 관련 설비(이하 "배관류"라 한다) </t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(라) 주철은 취약하며 강도가 낮으므로 가연성의 탄화수소를 취급하는 압력이 포함된 설비에는 사용하지 않는다. 그러나, 주철은 경도가 높아서충돌이나 침식, 케비테이션 같은 유속으로 인한 부식에 대한 영향을감소시키므로 펌프, 밸브 등에 사용된다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>활성탄 흡착설비의 안전설치에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>(8) 흡착탑에서 공기가 빠져 나가는 것 을 막기 위하서는 배출구 라인에 적정한통기 밸브 (Pressure/vacuum b reather)를 사용하는 것 이 바 람직하다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>활성탄 흡착설비의 안전설치에 관한 기술지침</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>(나) 배기구 밸브가 완전개방되었는지 확실하게 해야 한다.사람이 있을 지도 모르는 장소에 고온의 스팀 과 VOC 혼합물이 유입되지 않도록 하기 위해</t>
         </is>
       </c>
     </row>
